--- a/Excel/Excel test3.xlsx
+++ b/Excel/Excel test3.xlsx
@@ -494,6 +494,9 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -501,9 +504,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -1565,8 +1565,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318695456"/>
-        <c:axId val="318696632"/>
+        <c:axId val="462498448"/>
+        <c:axId val="462494920"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1753,8 +1753,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-1"/>
-        <c:axId val="318695456"/>
-        <c:axId val="318696632"/>
+        <c:axId val="462498448"/>
+        <c:axId val="462494920"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2107,11 +2107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318695456"/>
-        <c:axId val="318696632"/>
+        <c:axId val="462498448"/>
+        <c:axId val="462494920"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="318695456"/>
+        <c:axId val="462498448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318696632"/>
+        <c:crossAx val="462494920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318696632"/>
+        <c:axId val="462494920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2199,7 +2199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318695456"/>
+        <c:crossAx val="462498448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4735,7 +4735,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>TIP: Replace the sample data provided below with your own to calculate retirement age and savings.</a:t>
+            <a:t>77TIP: Replace the sample data provided below with your own to calculate retirement age and savings.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4978,7 +4978,9 @@
   </sheetPr>
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5001,14 +5003,17 @@
     <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="57" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5256,37 +5261,37 @@
         <f>IFERROR(Calculations!C36,"")</f>
         <v>50000</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="20">
         <f>IFERROR(Calculations!F36,"")</f>
         <v>60000</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="18">
         <f>IFERROR(Calculations!G36,"")</f>
         <v>3750</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="20">
         <f>IFERROR(Calculations!H36,"")</f>
         <v>15000</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23">
+      <c r="I36" s="20"/>
+      <c r="J36" s="20">
         <f>IFERROR(Calculations!I36,"")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="18">
         <f>IFERROR(Calculations!J36,"")</f>
         <v>0</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="21">
         <f>IFERROR(Calculations!K36,"")</f>
         <v>78750</v>
       </c>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="17">
@@ -5297,37 +5302,37 @@
         <f>IFERROR(Calculations!C37,"")</f>
         <v>51500</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="20">
         <f>IFERROR(Calculations!F37,"")</f>
         <v>78750</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="18">
         <f>IFERROR(Calculations!G37,"")</f>
         <v>4921.875</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="20">
         <f>IFERROR(Calculations!H37,"")</f>
         <v>15000</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23">
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
         <f>IFERROR(Calculations!I37,"")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="18">
         <f>IFERROR(Calculations!J37,"")</f>
         <v>0</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N37" s="21">
         <f>IFERROR(Calculations!K37,"")</f>
         <v>98671.875</v>
       </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17">
@@ -5338,37 +5343,37 @@
         <f>IFERROR(Calculations!C38,"")</f>
         <v>53045</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="20">
         <f>IFERROR(Calculations!F38,"")</f>
         <v>98671.875</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="18">
         <f>IFERROR(Calculations!G38,"")</f>
         <v>6166.9921875</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="20">
         <f>IFERROR(Calculations!H38,"")</f>
         <v>15000</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23">
+      <c r="I38" s="20"/>
+      <c r="J38" s="20">
         <f>IFERROR(Calculations!I38,"")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="18">
         <f>IFERROR(Calculations!J38,"")</f>
         <v>0</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N38" s="21">
         <f>IFERROR(Calculations!K38,"")</f>
         <v>119838.8671875</v>
       </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="23"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17">
@@ -5379,37 +5384,37 @@
         <f>IFERROR(Calculations!C39,"")</f>
         <v>54636.35</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="20">
         <f>IFERROR(Calculations!F39,"")</f>
         <v>119838.8671875</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="18">
         <f>IFERROR(Calculations!G39,"")</f>
         <v>7489.92919921875</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="20">
         <f>IFERROR(Calculations!H39,"")</f>
         <v>15000</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23">
+      <c r="I39" s="20"/>
+      <c r="J39" s="20">
         <f>IFERROR(Calculations!I39,"")</f>
         <v>0</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="18">
         <f>IFERROR(Calculations!J39,"")</f>
         <v>0</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="21">
         <f>IFERROR(Calculations!K39,"")</f>
         <v>142328.79638671875</v>
       </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="17">
@@ -5420,37 +5425,37 @@
         <f>IFERROR(Calculations!C40,"")</f>
         <v>56275.440499999997</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="20">
         <f>IFERROR(Calculations!F40,"")</f>
         <v>142328.79638671875</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="18">
         <f>IFERROR(Calculations!G40,"")</f>
         <v>8895.5497741699219</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="20">
         <f>IFERROR(Calculations!H40,"")</f>
         <v>15000</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23">
+      <c r="I40" s="20"/>
+      <c r="J40" s="20">
         <f>IFERROR(Calculations!I40,"")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
       <c r="M40" s="18">
         <f>IFERROR(Calculations!J40,"")</f>
         <v>0</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="21">
         <f>IFERROR(Calculations!K40,"")</f>
         <v>166224.34616088867</v>
       </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="17">
@@ -5461,37 +5466,37 @@
         <f>IFERROR(Calculations!C41,"")</f>
         <v>57963.703714999996</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="20">
         <f>IFERROR(Calculations!F41,"")</f>
         <v>166224.34616088867</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="18">
         <f>IFERROR(Calculations!G41,"")</f>
         <v>10389.021635055542</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="20">
         <f>IFERROR(Calculations!H41,"")</f>
         <v>15000</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23">
+      <c r="I41" s="20"/>
+      <c r="J41" s="20">
         <f>IFERROR(Calculations!I41,"")</f>
         <v>0</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="18">
         <f>IFERROR(Calculations!J41,"")</f>
         <v>0</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N41" s="21">
         <f>IFERROR(Calculations!K41,"")</f>
         <v>191613.36779594421</v>
       </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="23"/>
     </row>
     <row r="42" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="17">
@@ -5502,37 +5507,37 @@
         <f>IFERROR(Calculations!C42,"")</f>
         <v>59702.614826449993</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="20">
         <f>IFERROR(Calculations!F42,"")</f>
         <v>191613.36779594421</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="18">
         <f>IFERROR(Calculations!G42,"")</f>
         <v>11975.835487246513</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="20">
         <f>IFERROR(Calculations!H42,"")</f>
         <v>15000</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23">
+      <c r="I42" s="20"/>
+      <c r="J42" s="20">
         <f>IFERROR(Calculations!I42,"")</f>
         <v>0</v>
       </c>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
       <c r="M42" s="18">
         <f>IFERROR(Calculations!J42,"")</f>
         <v>0</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="21">
         <f>IFERROR(Calculations!K42,"")</f>
         <v>218589.20328319073</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="23"/>
     </row>
     <row r="43" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17">
@@ -5543,37 +5548,37 @@
         <f>IFERROR(Calculations!C43,"")</f>
         <v>61493.693271243494</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="20">
         <f>IFERROR(Calculations!F43,"")</f>
         <v>218589.20328319073</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="18">
         <f>IFERROR(Calculations!G43,"")</f>
         <v>13661.82520519942</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="20">
         <f>IFERROR(Calculations!H43,"")</f>
         <v>15000</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23">
+      <c r="I43" s="20"/>
+      <c r="J43" s="20">
         <f>IFERROR(Calculations!I43,"")</f>
         <v>0</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
       <c r="M43" s="18">
         <f>IFERROR(Calculations!J43,"")</f>
         <v>0</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="21">
         <f>IFERROR(Calculations!K43,"")</f>
         <v>247251.02848839015</v>
       </c>
-      <c r="O43" s="21"/>
-      <c r="P43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="23"/>
     </row>
     <row r="44" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="17">
@@ -5584,37 +5589,37 @@
         <f>IFERROR(Calculations!C44,"")</f>
         <v>63338.504069380797</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="20">
         <f>IFERROR(Calculations!F44,"")</f>
         <v>247251.02848839015</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="18">
         <f>IFERROR(Calculations!G44,"")</f>
         <v>15453.189280524384</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="20">
         <f>IFERROR(Calculations!H44,"")</f>
         <v>15000</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23">
+      <c r="I44" s="20"/>
+      <c r="J44" s="20">
         <f>IFERROR(Calculations!I44,"")</f>
         <v>0</v>
       </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
       <c r="M44" s="18">
         <f>IFERROR(Calculations!J44,"")</f>
         <v>0</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N44" s="21">
         <f>IFERROR(Calculations!K44,"")</f>
         <v>277704.21776891453</v>
       </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="23"/>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17">
@@ -5625,37 +5630,37 @@
         <f>IFERROR(Calculations!C45,"")</f>
         <v>65238.659191462219</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="20">
         <f>IFERROR(Calculations!F45,"")</f>
         <v>277704.21776891453</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="18">
         <f>IFERROR(Calculations!G45,"")</f>
         <v>17356.513610557158</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="20">
         <f>IFERROR(Calculations!H45,"")</f>
         <v>15000</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23">
+      <c r="I45" s="20"/>
+      <c r="J45" s="20">
         <f>IFERROR(Calculations!I45,"")</f>
         <v>0</v>
       </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
       <c r="M45" s="18">
         <f>IFERROR(Calculations!J45,"")</f>
         <v>0</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="21">
         <f>IFERROR(Calculations!K45,"")</f>
         <v>310060.73137947172</v>
       </c>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="23"/>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17">
@@ -5666,37 +5671,37 @@
         <f>IFERROR(Calculations!C46,"")</f>
         <v>67195.818967206083</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="20">
         <f>IFERROR(Calculations!F46,"")</f>
         <v>310060.73137947172</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="18">
         <f>IFERROR(Calculations!G46,"")</f>
         <v>19378.795711216982</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="20">
         <f>IFERROR(Calculations!H46,"")</f>
         <v>15000</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23">
+      <c r="I46" s="20"/>
+      <c r="J46" s="20">
         <f>IFERROR(Calculations!I46,"")</f>
         <v>0</v>
       </c>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
       <c r="M46" s="18">
         <f>IFERROR(Calculations!J46,"")</f>
         <v>0</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="21">
         <f>IFERROR(Calculations!K46,"")</f>
         <v>344439.5270906887</v>
       </c>
-      <c r="O46" s="21"/>
-      <c r="P46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17">
@@ -5707,37 +5712,37 @@
         <f>IFERROR(Calculations!C47,"")</f>
         <v>69211.693536222272</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="20">
         <f>IFERROR(Calculations!F47,"")</f>
         <v>344439.5270906887</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="18">
         <f>IFERROR(Calculations!G47,"")</f>
         <v>21527.470443168044</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="20">
         <f>IFERROR(Calculations!H47,"")</f>
         <v>15000</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23">
+      <c r="I47" s="20"/>
+      <c r="J47" s="20">
         <f>IFERROR(Calculations!I47,"")</f>
         <v>0</v>
       </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="18">
         <f>IFERROR(Calculations!J47,"")</f>
         <v>0</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N47" s="21">
         <f>IFERROR(Calculations!K47,"")</f>
         <v>380966.99753385677</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="23"/>
     </row>
     <row r="48" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="17">
@@ -5748,37 +5753,37 @@
         <f>IFERROR(Calculations!C48,"")</f>
         <v>71288.044342308945</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="20">
         <f>IFERROR(Calculations!F48,"")</f>
         <v>380966.99753385677</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="18">
         <f>IFERROR(Calculations!G48,"")</f>
         <v>23810.437345866048</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="20">
         <f>IFERROR(Calculations!H48,"")</f>
         <v>15000</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23">
+      <c r="I48" s="20"/>
+      <c r="J48" s="20">
         <f>IFERROR(Calculations!I48,"")</f>
         <v>0</v>
       </c>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
       <c r="M48" s="18">
         <f>IFERROR(Calculations!J48,"")</f>
         <v>0</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="21">
         <f>IFERROR(Calculations!K48,"")</f>
         <v>419777.43487972283</v>
       </c>
-      <c r="O48" s="21"/>
-      <c r="P48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="23"/>
     </row>
     <row r="49" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="17">
@@ -5789,37 +5794,37 @@
         <f>IFERROR(Calculations!C49,"")</f>
         <v>73426.685672578213</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="20">
         <f>IFERROR(Calculations!F49,"")</f>
         <v>419777.43487972283</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="18">
         <f>IFERROR(Calculations!G49,"")</f>
         <v>26236.089679982677</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="20">
         <f>IFERROR(Calculations!H49,"")</f>
         <v>15000</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23">
+      <c r="I49" s="20"/>
+      <c r="J49" s="20">
         <f>IFERROR(Calculations!I49,"")</f>
         <v>0</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
       <c r="M49" s="18">
         <f>IFERROR(Calculations!J49,"")</f>
         <v>0</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N49" s="21">
         <f>IFERROR(Calculations!K49,"")</f>
         <v>461013.52455970552</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="23"/>
     </row>
     <row r="50" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -5830,37 +5835,37 @@
         <f>IFERROR(Calculations!C50,"")</f>
         <v>75629.486242755564</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="20">
         <f>IFERROR(Calculations!F50,"")</f>
         <v>461013.52455970552</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="18">
         <f>IFERROR(Calculations!G50,"")</f>
         <v>28813.345284981595</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="20">
         <f>IFERROR(Calculations!H50,"")</f>
         <v>15000</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23">
+      <c r="I50" s="20"/>
+      <c r="J50" s="20">
         <f>IFERROR(Calculations!I50,"")</f>
         <v>0</v>
       </c>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
       <c r="M50" s="18">
         <f>IFERROR(Calculations!J50,"")</f>
         <v>0</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="21">
         <f>IFERROR(Calculations!K50,"")</f>
         <v>504826.86984468711</v>
       </c>
-      <c r="O50" s="21"/>
-      <c r="P50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="23"/>
     </row>
     <row r="51" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -5871,37 +5876,37 @@
         <f>IFERROR(Calculations!C51,"")</f>
         <v>77898.370830038228</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="20">
         <f>IFERROR(Calculations!F51,"")</f>
         <v>504826.86984468711</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="18">
         <f>IFERROR(Calculations!G51,"")</f>
         <v>31551.679365292945</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="20">
         <f>IFERROR(Calculations!H51,"")</f>
         <v>15000</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23">
+      <c r="I51" s="20"/>
+      <c r="J51" s="20">
         <f>IFERROR(Calculations!I51,"")</f>
         <v>0</v>
       </c>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
       <c r="M51" s="18">
         <f>IFERROR(Calculations!J51,"")</f>
         <v>0</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="21">
         <f>IFERROR(Calculations!K51,"")</f>
         <v>551378.54920998006</v>
       </c>
-      <c r="O51" s="21"/>
-      <c r="P51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="23"/>
     </row>
     <row r="52" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="17">
@@ -5912,37 +5917,37 @@
         <f>IFERROR(Calculations!C52,"")</f>
         <v>80235.321954939369</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="20">
         <f>IFERROR(Calculations!F52,"")</f>
         <v>551378.54920998006</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="18">
         <f>IFERROR(Calculations!G52,"")</f>
         <v>34461.159325623754</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="20">
         <f>IFERROR(Calculations!H52,"")</f>
         <v>15000</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23">
+      <c r="I52" s="20"/>
+      <c r="J52" s="20">
         <f>IFERROR(Calculations!I52,"")</f>
         <v>0</v>
       </c>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
       <c r="M52" s="18">
         <f>IFERROR(Calculations!J52,"")</f>
         <v>0</v>
       </c>
-      <c r="N52" s="20">
+      <c r="N52" s="21">
         <f>IFERROR(Calculations!K52,"")</f>
         <v>600839.70853560383</v>
       </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="23"/>
     </row>
     <row r="53" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="17">
@@ -5953,37 +5958,37 @@
         <f>IFERROR(Calculations!C53,"")</f>
         <v>82642.381613587553</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="20">
         <f>IFERROR(Calculations!F53,"")</f>
         <v>600839.70853560383</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="18">
         <f>IFERROR(Calculations!G53,"")</f>
         <v>37552.481783475239</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="20">
         <f>IFERROR(Calculations!H53,"")</f>
         <v>15000</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23">
+      <c r="I53" s="20"/>
+      <c r="J53" s="20">
         <f>IFERROR(Calculations!I53,"")</f>
         <v>0</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
       <c r="M53" s="18">
         <f>IFERROR(Calculations!J53,"")</f>
         <v>0</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="21">
         <f>IFERROR(Calculations!K53,"")</f>
         <v>653392.19031907909</v>
       </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="23"/>
     </row>
     <row r="54" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17">
@@ -5994,37 +5999,37 @@
         <f>IFERROR(Calculations!C54,"")</f>
         <v>85121.653061995181</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="20">
         <f>IFERROR(Calculations!F54,"")</f>
         <v>653392.19031907909</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="18">
         <f>IFERROR(Calculations!G54,"")</f>
         <v>40837.011894942443</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="20">
         <f>IFERROR(Calculations!H54,"")</f>
         <v>15000</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23">
+      <c r="I54" s="20"/>
+      <c r="J54" s="20">
         <f>IFERROR(Calculations!I54,"")</f>
         <v>0</v>
       </c>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
       <c r="M54" s="18">
         <f>IFERROR(Calculations!J54,"")</f>
         <v>0</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="21">
         <f>IFERROR(Calculations!K54,"")</f>
         <v>709229.20221402158</v>
       </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="23"/>
     </row>
     <row r="55" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="17">
@@ -6035,37 +6040,37 @@
         <f>IFERROR(Calculations!C55,"")</f>
         <v>87675.302653855033</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="20">
         <f>IFERROR(Calculations!F55,"")</f>
         <v>709229.20221402158</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="18">
         <f>IFERROR(Calculations!G55,"")</f>
         <v>44326.825138376349</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="20">
         <f>IFERROR(Calculations!H55,"")</f>
         <v>15000</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23">
+      <c r="I55" s="20"/>
+      <c r="J55" s="20">
         <f>IFERROR(Calculations!I55,"")</f>
         <v>0</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
       <c r="M55" s="18">
         <f>IFERROR(Calculations!J55,"")</f>
         <v>0</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N55" s="21">
         <f>IFERROR(Calculations!K55,"")</f>
         <v>768556.02735239791</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="23"/>
     </row>
     <row r="56" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
@@ -6076,37 +6081,37 @@
         <f>IFERROR(Calculations!C56,"")</f>
         <v>90305.561733470677</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="20">
         <f>IFERROR(Calculations!F56,"")</f>
         <v>768556.02735239791</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="18">
         <f>IFERROR(Calculations!G56,"")</f>
         <v>48034.75170952487</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="20">
         <f>IFERROR(Calculations!H56,"")</f>
         <v>15000</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23">
+      <c r="I56" s="20"/>
+      <c r="J56" s="20">
         <f>IFERROR(Calculations!I56,"")</f>
         <v>0</v>
       </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
       <c r="M56" s="18">
         <f>IFERROR(Calculations!J56,"")</f>
         <v>0</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="21">
         <f>IFERROR(Calculations!K56,"")</f>
         <v>831590.7790619228</v>
       </c>
-      <c r="O56" s="21"/>
-      <c r="P56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="23"/>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
@@ -6117,37 +6122,37 @@
         <f>IFERROR(Calculations!C57,"")</f>
         <v>93014.728585474804</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="20">
         <f>IFERROR(Calculations!F57,"")</f>
         <v>831590.7790619228</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="18">
         <f>IFERROR(Calculations!G57,"")</f>
         <v>51974.423691370175</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="20">
         <f>IFERROR(Calculations!H57,"")</f>
         <v>15000</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23">
+      <c r="I57" s="20"/>
+      <c r="J57" s="20">
         <f>IFERROR(Calculations!I57,"")</f>
         <v>0</v>
       </c>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
       <c r="M57" s="18">
         <f>IFERROR(Calculations!J57,"")</f>
         <v>0</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="21">
         <f>IFERROR(Calculations!K57,"")</f>
         <v>898565.20275329298</v>
       </c>
-      <c r="O57" s="21"/>
-      <c r="P57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="23"/>
     </row>
     <row r="58" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
@@ -6158,37 +6163,37 @@
         <f>IFERROR(Calculations!C58,"")</f>
         <v>95805.170443039053</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="20">
         <f>IFERROR(Calculations!F58,"")</f>
         <v>898565.20275329298</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="18">
         <f>IFERROR(Calculations!G58,"")</f>
         <v>56160.325172080811</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="20">
         <f>IFERROR(Calculations!H58,"")</f>
         <v>15000</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23">
+      <c r="I58" s="20"/>
+      <c r="J58" s="20">
         <f>IFERROR(Calculations!I58,"")</f>
         <v>0</v>
       </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
       <c r="M58" s="18">
         <f>IFERROR(Calculations!J58,"")</f>
         <v>0</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="21">
         <f>IFERROR(Calculations!K58,"")</f>
         <v>969725.52792537375</v>
       </c>
-      <c r="O58" s="21"/>
-      <c r="P58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="23"/>
     </row>
     <row r="59" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="17">
@@ -6199,37 +6204,37 @@
         <f>IFERROR(Calculations!C59,"")</f>
         <v>98679.325556330223</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="20">
         <f>IFERROR(Calculations!F59,"")</f>
         <v>969725.52792537375</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="18">
         <f>IFERROR(Calculations!G59,"")</f>
         <v>60607.84549533586</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="20">
         <f>IFERROR(Calculations!H59,"")</f>
         <v>15000</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23">
+      <c r="I59" s="20"/>
+      <c r="J59" s="20">
         <f>IFERROR(Calculations!I59,"")</f>
         <v>0</v>
       </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
       <c r="M59" s="18">
         <f>IFERROR(Calculations!J59,"")</f>
         <v>0</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="21">
         <f>IFERROR(Calculations!K59,"")</f>
         <v>1045333.3734207096</v>
       </c>
-      <c r="O59" s="21"/>
-      <c r="P59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="23"/>
     </row>
     <row r="60" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="17">
@@ -6240,37 +6245,37 @@
         <f>IFERROR(Calculations!C60,"")</f>
         <v>101639.70532302013</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="20">
         <f>IFERROR(Calculations!F60,"")</f>
         <v>1045333.3734207096</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
       <c r="G60" s="18">
         <f>IFERROR(Calculations!G60,"")</f>
         <v>65333.335838794352</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="20">
         <f>IFERROR(Calculations!H60,"")</f>
         <v>15000</v>
       </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23">
+      <c r="I60" s="20"/>
+      <c r="J60" s="20">
         <f>IFERROR(Calculations!I60,"")</f>
         <v>0</v>
       </c>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
       <c r="M60" s="18">
         <f>IFERROR(Calculations!J60,"")</f>
         <v>0</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="21">
         <f>IFERROR(Calculations!K60,"")</f>
         <v>1125666.709259504</v>
       </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="23"/>
     </row>
     <row r="61" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="17">
@@ -6281,37 +6286,37 @@
         <f>IFERROR(Calculations!C61,"")</f>
         <v>0</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="20">
         <f>IFERROR(Calculations!F61,"")</f>
         <v>1125666.709259504</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="18">
         <f>IFERROR(Calculations!G61,"")</f>
         <v>70354.169328718999</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="20">
         <f>IFERROR(Calculations!H61,"")</f>
         <v>0</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23">
+      <c r="I61" s="20"/>
+      <c r="J61" s="20">
         <f>IFERROR(Calculations!I61,"")</f>
         <v>78516.672362033016</v>
       </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
       <c r="M61" s="18">
         <f>IFERROR(Calculations!J61,"")</f>
         <v>0</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="21">
         <f>IFERROR(Calculations!K61,"")</f>
         <v>1117504.2062261899</v>
       </c>
-      <c r="O61" s="21"/>
-      <c r="P61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="23"/>
     </row>
     <row r="62" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="17">
@@ -6322,37 +6327,37 @@
         <f>IFERROR(Calculations!C62,"")</f>
         <v>0</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="20">
         <f>IFERROR(Calculations!F62,"")</f>
         <v>1117504.2062261899</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="18">
         <f>IFERROR(Calculations!G62,"")</f>
         <v>69844.012889136866</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="20">
         <f>IFERROR(Calculations!H62,"")</f>
         <v>0</v>
       </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23">
+      <c r="I62" s="20"/>
+      <c r="J62" s="20">
         <f>IFERROR(Calculations!I62,"")</f>
         <v>80872.172532894023</v>
       </c>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
       <c r="M62" s="18">
         <f>IFERROR(Calculations!J62,"")</f>
         <v>0</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N62" s="21">
         <f>IFERROR(Calculations!K62,"")</f>
         <v>1106476.0465824327</v>
       </c>
-      <c r="O62" s="21"/>
-      <c r="P62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="23"/>
     </row>
     <row r="63" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="17">
@@ -6363,37 +6368,37 @@
         <f>IFERROR(Calculations!C63,"")</f>
         <v>0</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="20">
         <f>IFERROR(Calculations!F63,"")</f>
         <v>1106476.0465824327</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
       <c r="G63" s="18">
         <f>IFERROR(Calculations!G63,"")</f>
         <v>69154.752911402044</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="20">
         <f>IFERROR(Calculations!H63,"")</f>
         <v>0</v>
       </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23">
+      <c r="I63" s="20"/>
+      <c r="J63" s="20">
         <f>IFERROR(Calculations!I63,"")</f>
         <v>83298.337708880834</v>
       </c>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
       <c r="M63" s="18">
         <f>IFERROR(Calculations!J63,"")</f>
         <v>0</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="21">
         <f>IFERROR(Calculations!K63,"")</f>
         <v>1092332.4617849539</v>
       </c>
-      <c r="O63" s="21"/>
-      <c r="P63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="23"/>
     </row>
     <row r="64" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="17">
@@ -6404,37 +6409,37 @@
         <f>IFERROR(Calculations!C64,"")</f>
         <v>0</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="20">
         <f>IFERROR(Calculations!F64,"")</f>
         <v>1092332.4617849539</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
       <c r="G64" s="18">
         <f>IFERROR(Calculations!G64,"")</f>
         <v>68270.778861559622</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="20">
         <f>IFERROR(Calculations!H64,"")</f>
         <v>0</v>
       </c>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23">
+      <c r="I64" s="20"/>
+      <c r="J64" s="20">
         <f>IFERROR(Calculations!I64,"")</f>
         <v>85797.287840147255</v>
       </c>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
       <c r="M64" s="18">
         <f>IFERROR(Calculations!J64,"")</f>
         <v>0</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N64" s="21">
         <f>IFERROR(Calculations!K64,"")</f>
         <v>1074805.9528063664</v>
       </c>
-      <c r="O64" s="21"/>
-      <c r="P64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23"/>
     </row>
     <row r="65" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="17">
@@ -6445,37 +6450,37 @@
         <f>IFERROR(Calculations!C65,"")</f>
         <v>0</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="20">
         <f>IFERROR(Calculations!F65,"")</f>
         <v>1074805.9528063664</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
       <c r="G65" s="18">
         <f>IFERROR(Calculations!G65,"")</f>
         <v>67175.372050397898</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="20">
         <f>IFERROR(Calculations!H65,"")</f>
         <v>0</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23">
+      <c r="I65" s="20"/>
+      <c r="J65" s="20">
         <f>IFERROR(Calculations!I65,"")</f>
         <v>88371.206475351661</v>
       </c>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
       <c r="M65" s="18">
         <f>IFERROR(Calculations!J65,"")</f>
         <v>0</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="21">
         <f>IFERROR(Calculations!K65,"")</f>
         <v>1053610.1183814125</v>
       </c>
-      <c r="O65" s="21"/>
-      <c r="P65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="23"/>
     </row>
     <row r="66" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="17">
@@ -6486,37 +6491,37 @@
         <f>IFERROR(Calculations!C66,"")</f>
         <v>0</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="20">
         <f>IFERROR(Calculations!F66,"")</f>
         <v>1053610.1183814125</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="18">
         <f>IFERROR(Calculations!G66,"")</f>
         <v>65850.632398838279</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="20">
         <f>IFERROR(Calculations!H66,"")</f>
         <v>0</v>
       </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23">
+      <c r="I66" s="20"/>
+      <c r="J66" s="20">
         <f>IFERROR(Calculations!I66,"")</f>
         <v>91022.342669612219</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
       <c r="M66" s="18">
         <f>IFERROR(Calculations!J66,"")</f>
         <v>0</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="21">
         <f>IFERROR(Calculations!K66,"")</f>
         <v>1028438.4081106384</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="23"/>
     </row>
     <row r="67" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="17">
@@ -6527,37 +6532,37 @@
         <f>IFERROR(Calculations!C67,"")</f>
         <v>0</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="20">
         <f>IFERROR(Calculations!F67,"")</f>
         <v>1028438.4081106384</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
       <c r="G67" s="18">
         <f>IFERROR(Calculations!G67,"")</f>
         <v>64277.400506914899</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="20">
         <f>IFERROR(Calculations!H67,"")</f>
         <v>0</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23">
+      <c r="I67" s="20"/>
+      <c r="J67" s="20">
         <f>IFERROR(Calculations!I67,"")</f>
         <v>93753.012949700598</v>
       </c>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
       <c r="M67" s="18">
         <f>IFERROR(Calculations!J67,"")</f>
         <v>0</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="21">
         <f>IFERROR(Calculations!K67,"")</f>
         <v>998962.79566785262</v>
       </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="23"/>
     </row>
     <row r="68" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="17">
@@ -6568,37 +6573,37 @@
         <f>IFERROR(Calculations!C68,"")</f>
         <v>0</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="20">
         <f>IFERROR(Calculations!F68,"")</f>
         <v>998962.79566785262</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
       <c r="G68" s="18">
         <f>IFERROR(Calculations!G68,"")</f>
         <v>62435.174729240789</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="20">
         <f>IFERROR(Calculations!H68,"")</f>
         <v>0</v>
       </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23">
+      <c r="I68" s="20"/>
+      <c r="J68" s="20">
         <f>IFERROR(Calculations!I68,"")</f>
         <v>96565.603338191591</v>
       </c>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
       <c r="M68" s="18">
         <f>IFERROR(Calculations!J68,"")</f>
         <v>0</v>
       </c>
-      <c r="N68" s="20">
+      <c r="N68" s="21">
         <f>IFERROR(Calculations!K68,"")</f>
         <v>964832.3670589017</v>
       </c>
-      <c r="O68" s="21"/>
-      <c r="P68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="23"/>
     </row>
     <row r="69" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="17">
@@ -6609,37 +6614,37 @@
         <f>IFERROR(Calculations!C69,"")</f>
         <v>0</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="20">
         <f>IFERROR(Calculations!F69,"")</f>
         <v>964832.3670589017</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
       <c r="G69" s="18">
         <f>IFERROR(Calculations!G69,"")</f>
         <v>60302.022941181356</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="20">
         <f>IFERROR(Calculations!H69,"")</f>
         <v>0</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23">
+      <c r="I69" s="20"/>
+      <c r="J69" s="20">
         <f>IFERROR(Calculations!I69,"")</f>
         <v>99462.571438337356</v>
       </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
       <c r="M69" s="18">
         <f>IFERROR(Calculations!J69,"")</f>
         <v>0</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N69" s="21">
         <f>IFERROR(Calculations!K69,"")</f>
         <v>925671.81856174569</v>
       </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="23"/>
     </row>
     <row r="70" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="17">
@@ -6650,37 +6655,37 @@
         <f>IFERROR(Calculations!C70,"")</f>
         <v>0</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="20">
         <f>IFERROR(Calculations!F70,"")</f>
         <v>925671.81856174569</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
       <c r="G70" s="18">
         <f>IFERROR(Calculations!G70,"")</f>
         <v>57854.488660109106</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="20">
         <f>IFERROR(Calculations!H70,"")</f>
         <v>0</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23">
+      <c r="I70" s="20"/>
+      <c r="J70" s="20">
         <f>IFERROR(Calculations!I70,"")</f>
         <v>102446.44858148745</v>
       </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
       <c r="M70" s="18">
         <f>IFERROR(Calculations!J70,"")</f>
         <v>0</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="21">
         <f>IFERROR(Calculations!K70,"")</f>
         <v>881079.8586403674</v>
       </c>
-      <c r="O70" s="21"/>
-      <c r="P70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="23"/>
     </row>
     <row r="71" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="17">
@@ -6691,37 +6696,37 @@
         <f>IFERROR(Calculations!C71,"")</f>
         <v>0</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="20">
         <f>IFERROR(Calculations!F71,"")</f>
         <v>881079.8586403674</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
       <c r="G71" s="18">
         <f>IFERROR(Calculations!G71,"")</f>
         <v>55067.491165022962</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="20">
         <f>IFERROR(Calculations!H71,"")</f>
         <v>0</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23">
+      <c r="I71" s="20"/>
+      <c r="J71" s="20">
         <f>IFERROR(Calculations!I71,"")</f>
         <v>105519.8420389321</v>
       </c>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
       <c r="M71" s="18">
         <f>IFERROR(Calculations!J71,"")</f>
         <v>0</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N71" s="21">
         <f>IFERROR(Calculations!K71,"")</f>
         <v>830627.50776645821</v>
       </c>
-      <c r="O71" s="21"/>
-      <c r="P71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="23"/>
     </row>
     <row r="72" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="17">
@@ -6732,37 +6737,37 @@
         <f>IFERROR(Calculations!C72,"")</f>
         <v>0</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="20">
         <f>IFERROR(Calculations!F72,"")</f>
         <v>830627.50776645821</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="18">
         <f>IFERROR(Calculations!G72,"")</f>
         <v>51914.219235403638</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="20">
         <f>IFERROR(Calculations!H72,"")</f>
         <v>0</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23">
+      <c r="I72" s="20"/>
+      <c r="J72" s="20">
         <f>IFERROR(Calculations!I72,"")</f>
         <v>108685.43730010005</v>
       </c>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
       <c r="M72" s="18">
         <f>IFERROR(Calculations!J72,"")</f>
         <v>0</v>
       </c>
-      <c r="N72" s="20">
+      <c r="N72" s="21">
         <f>IFERROR(Calculations!K72,"")</f>
         <v>773856.28970176191</v>
       </c>
-      <c r="O72" s="21"/>
-      <c r="P72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="23"/>
     </row>
     <row r="73" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="17">
@@ -6773,37 +6778,37 @@
         <f>IFERROR(Calculations!C73,"")</f>
         <v>0</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="20">
         <f>IFERROR(Calculations!F73,"")</f>
         <v>773856.28970176191</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
       <c r="G73" s="18">
         <f>IFERROR(Calculations!G73,"")</f>
         <v>48366.018106360119</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="20">
         <f>IFERROR(Calculations!H73,"")</f>
         <v>0</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23">
+      <c r="I73" s="20"/>
+      <c r="J73" s="20">
         <f>IFERROR(Calculations!I73,"")</f>
         <v>111946.00041910303</v>
       </c>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
       <c r="M73" s="18">
         <f>IFERROR(Calculations!J73,"")</f>
         <v>0</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="21">
         <f>IFERROR(Calculations!K73,"")</f>
         <v>710276.30738901894</v>
       </c>
-      <c r="O73" s="21"/>
-      <c r="P73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="23"/>
     </row>
     <row r="74" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="17">
@@ -6814,37 +6819,37 @@
         <f>IFERROR(Calculations!C74,"")</f>
         <v>0</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="20">
         <f>IFERROR(Calculations!F74,"")</f>
         <v>710276.30738901894</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
       <c r="G74" s="18">
         <f>IFERROR(Calculations!G74,"")</f>
         <v>44392.269211813684</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="20">
         <f>IFERROR(Calculations!H74,"")</f>
         <v>0</v>
       </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23">
+      <c r="I74" s="20"/>
+      <c r="J74" s="20">
         <f>IFERROR(Calculations!I74,"")</f>
         <v>115304.38043167612</v>
       </c>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
       <c r="M74" s="18">
         <f>IFERROR(Calculations!J74,"")</f>
         <v>0</v>
       </c>
-      <c r="N74" s="20">
+      <c r="N74" s="21">
         <f>IFERROR(Calculations!K74,"")</f>
         <v>639364.19616915646</v>
       </c>
-      <c r="O74" s="21"/>
-      <c r="P74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="23"/>
     </row>
     <row r="75" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="17">
@@ -6855,37 +6860,37 @@
         <f>IFERROR(Calculations!C75,"")</f>
         <v>0</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="20">
         <f>IFERROR(Calculations!F75,"")</f>
         <v>639364.19616915646</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
       <c r="G75" s="18">
         <f>IFERROR(Calculations!G75,"")</f>
         <v>39960.262260572279</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="20">
         <f>IFERROR(Calculations!H75,"")</f>
         <v>0</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23">
+      <c r="I75" s="20"/>
+      <c r="J75" s="20">
         <f>IFERROR(Calculations!I75,"")</f>
         <v>118763.51184462642</v>
       </c>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
       <c r="M75" s="18">
         <f>IFERROR(Calculations!J75,"")</f>
         <v>0</v>
       </c>
-      <c r="N75" s="20">
+      <c r="N75" s="21">
         <f>IFERROR(Calculations!K75,"")</f>
         <v>560560.94658510236</v>
       </c>
-      <c r="O75" s="21"/>
-      <c r="P75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="23"/>
     </row>
     <row r="76" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="17">
@@ -6896,37 +6901,37 @@
         <f>IFERROR(Calculations!C76,"")</f>
         <v>0</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="20">
         <f>IFERROR(Calculations!F76,"")</f>
         <v>560560.94658510236</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
       <c r="G76" s="18">
         <f>IFERROR(Calculations!G76,"")</f>
         <v>35035.059161568897</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="20">
         <f>IFERROR(Calculations!H76,"")</f>
         <v>0</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23">
+      <c r="I76" s="20"/>
+      <c r="J76" s="20">
         <f>IFERROR(Calculations!I76,"")</f>
         <v>122326.4171999652</v>
       </c>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
       <c r="M76" s="18">
         <f>IFERROR(Calculations!J76,"")</f>
         <v>0</v>
       </c>
-      <c r="N76" s="20">
+      <c r="N76" s="21">
         <f>IFERROR(Calculations!K76,"")</f>
         <v>473269.58854670601</v>
       </c>
-      <c r="O76" s="21"/>
-      <c r="P76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="23"/>
     </row>
     <row r="77" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="17">
@@ -6937,37 +6942,37 @@
         <f>IFERROR(Calculations!C77,"")</f>
         <v>0</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="20">
         <f>IFERROR(Calculations!F77,"")</f>
         <v>473269.58854670601</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
       <c r="G77" s="18">
         <f>IFERROR(Calculations!G77,"")</f>
         <v>29579.349284169126</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="20">
         <f>IFERROR(Calculations!H77,"")</f>
         <v>0</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23">
+      <c r="I77" s="20"/>
+      <c r="J77" s="20">
         <f>IFERROR(Calculations!I77,"")</f>
         <v>125996.20971596417</v>
       </c>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
       <c r="M77" s="18">
         <f>IFERROR(Calculations!J77,"")</f>
         <v>0</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="21">
         <f>IFERROR(Calculations!K77,"")</f>
         <v>376852.72811491101</v>
       </c>
-      <c r="O77" s="21"/>
-      <c r="P77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="23"/>
     </row>
     <row r="78" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="17">
@@ -6978,37 +6983,37 @@
         <f>IFERROR(Calculations!C78,"")</f>
         <v>0</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="20">
         <f>IFERROR(Calculations!F78,"")</f>
         <v>376852.72811491101</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="18">
         <f>IFERROR(Calculations!G78,"")</f>
         <v>23553.295507181938</v>
       </c>
-      <c r="H78" s="23">
+      <c r="H78" s="20">
         <f>IFERROR(Calculations!H78,"")</f>
         <v>0</v>
       </c>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23">
+      <c r="I78" s="20"/>
+      <c r="J78" s="20">
         <f>IFERROR(Calculations!I78,"")</f>
         <v>129776.09600744309</v>
       </c>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
       <c r="M78" s="18">
         <f>IFERROR(Calculations!J78,"")</f>
         <v>0</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="21">
         <f>IFERROR(Calculations!K78,"")</f>
         <v>270629.92761464987</v>
       </c>
-      <c r="O78" s="21"/>
-      <c r="P78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="23"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="17">
@@ -7019,37 +7024,37 @@
         <f>IFERROR(Calculations!C79,"")</f>
         <v>0</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="20">
         <f>IFERROR(Calculations!F79,"")</f>
         <v>270629.92761464987</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
       <c r="G79" s="18">
         <f>IFERROR(Calculations!G79,"")</f>
         <v>16914.370475915617</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="20">
         <f>IFERROR(Calculations!H79,"")</f>
         <v>0</v>
       </c>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23">
+      <c r="I79" s="20"/>
+      <c r="J79" s="20">
         <f>IFERROR(Calculations!I79,"")</f>
         <v>133669.37888766639</v>
       </c>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
       <c r="M79" s="18">
         <f>IFERROR(Calculations!J79,"")</f>
         <v>0</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N79" s="21">
         <f>IFERROR(Calculations!K79,"")</f>
         <v>153874.91920289909</v>
       </c>
-      <c r="O79" s="21"/>
-      <c r="P79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="23"/>
     </row>
     <row r="80" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="17">
@@ -7060,37 +7065,37 @@
         <f>IFERROR(Calculations!C80,"")</f>
         <v>0</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="20">
         <f>IFERROR(Calculations!F80,"")</f>
         <v>153874.91920289909</v>
       </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
       <c r="G80" s="18">
         <f>IFERROR(Calculations!G80,"")</f>
         <v>9617.1824501811934</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H80" s="20">
         <f>IFERROR(Calculations!H80,"")</f>
         <v>0</v>
       </c>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23">
+      <c r="I80" s="20"/>
+      <c r="J80" s="20">
         <f>IFERROR(Calculations!I80,"")</f>
         <v>137679.46025429637</v>
       </c>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
       <c r="M80" s="18">
         <f>IFERROR(Calculations!J80,"")</f>
         <v>0</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="21">
         <f>IFERROR(Calculations!K80,"")</f>
         <v>25812.641398783919</v>
       </c>
-      <c r="O80" s="21"/>
-      <c r="P80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="23"/>
     </row>
     <row r="81" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="17" t="str">
@@ -7101,37 +7106,37 @@
         <f>IFERROR(Calculations!C81,"")</f>
         <v/>
       </c>
-      <c r="D81" s="23" t="str">
+      <c r="D81" s="20" t="str">
         <f>IFERROR(Calculations!F81,"")</f>
         <v/>
       </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
       <c r="G81" s="18" t="str">
         <f>IFERROR(Calculations!G81,"")</f>
         <v/>
       </c>
-      <c r="H81" s="23" t="str">
+      <c r="H81" s="20" t="str">
         <f>IFERROR(Calculations!H81,"")</f>
         <v/>
       </c>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23" t="str">
+      <c r="I81" s="20"/>
+      <c r="J81" s="20" t="str">
         <f>IFERROR(Calculations!I81,"")</f>
         <v/>
       </c>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
       <c r="M81" s="18" t="str">
         <f>IFERROR(Calculations!J81,"")</f>
         <v/>
       </c>
-      <c r="N81" s="20" t="str">
+      <c r="N81" s="21" t="str">
         <f>IFERROR(Calculations!K81,"")</f>
         <v/>
       </c>
-      <c r="O81" s="21"/>
-      <c r="P81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="23"/>
     </row>
     <row r="82" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="17" t="str">
@@ -7142,37 +7147,37 @@
         <f>IFERROR(Calculations!C82,"")</f>
         <v/>
       </c>
-      <c r="D82" s="23" t="str">
+      <c r="D82" s="20" t="str">
         <f>IFERROR(Calculations!F82,"")</f>
         <v/>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
       <c r="G82" s="18" t="str">
         <f>IFERROR(Calculations!G82,"")</f>
         <v/>
       </c>
-      <c r="H82" s="23" t="str">
+      <c r="H82" s="20" t="str">
         <f>IFERROR(Calculations!H82,"")</f>
         <v/>
       </c>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23" t="str">
+      <c r="I82" s="20"/>
+      <c r="J82" s="20" t="str">
         <f>IFERROR(Calculations!I82,"")</f>
         <v/>
       </c>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
       <c r="M82" s="18" t="str">
         <f>IFERROR(Calculations!J82,"")</f>
         <v/>
       </c>
-      <c r="N82" s="20" t="str">
+      <c r="N82" s="21" t="str">
         <f>IFERROR(Calculations!K82,"")</f>
         <v/>
       </c>
-      <c r="O82" s="21"/>
-      <c r="P82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="23"/>
     </row>
     <row r="83" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="17" t="str">
@@ -7183,37 +7188,37 @@
         <f>IFERROR(Calculations!C83,"")</f>
         <v/>
       </c>
-      <c r="D83" s="23" t="str">
+      <c r="D83" s="20" t="str">
         <f>IFERROR(Calculations!F83,"")</f>
         <v/>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
       <c r="G83" s="18" t="str">
         <f>IFERROR(Calculations!G83,"")</f>
         <v/>
       </c>
-      <c r="H83" s="23" t="str">
+      <c r="H83" s="20" t="str">
         <f>IFERROR(Calculations!H83,"")</f>
         <v/>
       </c>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23" t="str">
+      <c r="I83" s="20"/>
+      <c r="J83" s="20" t="str">
         <f>IFERROR(Calculations!I83,"")</f>
         <v/>
       </c>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
       <c r="M83" s="18" t="str">
         <f>IFERROR(Calculations!J83,"")</f>
         <v/>
       </c>
-      <c r="N83" s="20" t="str">
+      <c r="N83" s="21" t="str">
         <f>IFERROR(Calculations!K83,"")</f>
         <v/>
       </c>
-      <c r="O83" s="21"/>
-      <c r="P83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="23"/>
     </row>
     <row r="84" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="17" t="str">
@@ -7224,37 +7229,37 @@
         <f>IFERROR(Calculations!C84,"")</f>
         <v/>
       </c>
-      <c r="D84" s="23" t="str">
+      <c r="D84" s="20" t="str">
         <f>IFERROR(Calculations!F84,"")</f>
         <v/>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
       <c r="G84" s="18" t="str">
         <f>IFERROR(Calculations!G84,"")</f>
         <v/>
       </c>
-      <c r="H84" s="23" t="str">
+      <c r="H84" s="20" t="str">
         <f>IFERROR(Calculations!H84,"")</f>
         <v/>
       </c>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23" t="str">
+      <c r="I84" s="20"/>
+      <c r="J84" s="20" t="str">
         <f>IFERROR(Calculations!I84,"")</f>
         <v/>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
       <c r="M84" s="18" t="str">
         <f>IFERROR(Calculations!J84,"")</f>
         <v/>
       </c>
-      <c r="N84" s="20" t="str">
+      <c r="N84" s="21" t="str">
         <f>IFERROR(Calculations!K84,"")</f>
         <v/>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="23"/>
     </row>
     <row r="85" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="17" t="str">
@@ -7265,37 +7270,37 @@
         <f>IFERROR(Calculations!C85,"")</f>
         <v/>
       </c>
-      <c r="D85" s="23" t="str">
+      <c r="D85" s="20" t="str">
         <f>IFERROR(Calculations!F85,"")</f>
         <v/>
       </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
       <c r="G85" s="18" t="str">
         <f>IFERROR(Calculations!G85,"")</f>
         <v/>
       </c>
-      <c r="H85" s="23" t="str">
+      <c r="H85" s="20" t="str">
         <f>IFERROR(Calculations!H85,"")</f>
         <v/>
       </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23" t="str">
+      <c r="I85" s="20"/>
+      <c r="J85" s="20" t="str">
         <f>IFERROR(Calculations!I85,"")</f>
         <v/>
       </c>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
       <c r="M85" s="18" t="str">
         <f>IFERROR(Calculations!J85,"")</f>
         <v/>
       </c>
-      <c r="N85" s="20" t="str">
+      <c r="N85" s="21" t="str">
         <f>IFERROR(Calculations!K85,"")</f>
         <v/>
       </c>
-      <c r="O85" s="21"/>
-      <c r="P85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="23"/>
     </row>
     <row r="86" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="17" t="str">
@@ -7306,37 +7311,37 @@
         <f>IFERROR(Calculations!C86,"")</f>
         <v/>
       </c>
-      <c r="D86" s="23" t="str">
+      <c r="D86" s="20" t="str">
         <f>IFERROR(Calculations!F86,"")</f>
         <v/>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
       <c r="G86" s="18" t="str">
         <f>IFERROR(Calculations!G86,"")</f>
         <v/>
       </c>
-      <c r="H86" s="23" t="str">
+      <c r="H86" s="20" t="str">
         <f>IFERROR(Calculations!H86,"")</f>
         <v/>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23" t="str">
+      <c r="I86" s="20"/>
+      <c r="J86" s="20" t="str">
         <f>IFERROR(Calculations!I86,"")</f>
         <v/>
       </c>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
       <c r="M86" s="18" t="str">
         <f>IFERROR(Calculations!J86,"")</f>
         <v/>
       </c>
-      <c r="N86" s="20" t="str">
+      <c r="N86" s="21" t="str">
         <f>IFERROR(Calculations!K86,"")</f>
         <v/>
       </c>
-      <c r="O86" s="21"/>
-      <c r="P86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="23"/>
     </row>
     <row r="87" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="17" t="str">
@@ -7347,37 +7352,37 @@
         <f>IFERROR(Calculations!C87,"")</f>
         <v/>
       </c>
-      <c r="D87" s="23" t="str">
+      <c r="D87" s="20" t="str">
         <f>IFERROR(Calculations!F87,"")</f>
         <v/>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
       <c r="G87" s="18" t="str">
         <f>IFERROR(Calculations!G87,"")</f>
         <v/>
       </c>
-      <c r="H87" s="23" t="str">
+      <c r="H87" s="20" t="str">
         <f>IFERROR(Calculations!H87,"")</f>
         <v/>
       </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23" t="str">
+      <c r="I87" s="20"/>
+      <c r="J87" s="20" t="str">
         <f>IFERROR(Calculations!I87,"")</f>
         <v/>
       </c>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
       <c r="M87" s="18" t="str">
         <f>IFERROR(Calculations!J87,"")</f>
         <v/>
       </c>
-      <c r="N87" s="20" t="str">
+      <c r="N87" s="21" t="str">
         <f>IFERROR(Calculations!K87,"")</f>
         <v/>
       </c>
-      <c r="O87" s="21"/>
-      <c r="P87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="23"/>
     </row>
     <row r="88" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="17" t="str">
@@ -7388,37 +7393,37 @@
         <f>IFERROR(Calculations!C88,"")</f>
         <v/>
       </c>
-      <c r="D88" s="23" t="str">
+      <c r="D88" s="20" t="str">
         <f>IFERROR(Calculations!F88,"")</f>
         <v/>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
       <c r="G88" s="18" t="str">
         <f>IFERROR(Calculations!G88,"")</f>
         <v/>
       </c>
-      <c r="H88" s="23" t="str">
+      <c r="H88" s="20" t="str">
         <f>IFERROR(Calculations!H88,"")</f>
         <v/>
       </c>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23" t="str">
+      <c r="I88" s="20"/>
+      <c r="J88" s="20" t="str">
         <f>IFERROR(Calculations!I88,"")</f>
         <v/>
       </c>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
       <c r="M88" s="18" t="str">
         <f>IFERROR(Calculations!J88,"")</f>
         <v/>
       </c>
-      <c r="N88" s="20" t="str">
+      <c r="N88" s="21" t="str">
         <f>IFERROR(Calculations!K88,"")</f>
         <v/>
       </c>
-      <c r="O88" s="21"/>
-      <c r="P88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="23"/>
     </row>
     <row r="89" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="17" t="str">
@@ -7429,37 +7434,37 @@
         <f>IFERROR(Calculations!C89,"")</f>
         <v/>
       </c>
-      <c r="D89" s="23" t="str">
+      <c r="D89" s="20" t="str">
         <f>IFERROR(Calculations!F89,"")</f>
         <v/>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="18" t="str">
         <f>IFERROR(Calculations!G89,"")</f>
         <v/>
       </c>
-      <c r="H89" s="23" t="str">
+      <c r="H89" s="20" t="str">
         <f>IFERROR(Calculations!H89,"")</f>
         <v/>
       </c>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23" t="str">
+      <c r="I89" s="20"/>
+      <c r="J89" s="20" t="str">
         <f>IFERROR(Calculations!I89,"")</f>
         <v/>
       </c>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
       <c r="M89" s="18" t="str">
         <f>IFERROR(Calculations!J89,"")</f>
         <v/>
       </c>
-      <c r="N89" s="20" t="str">
+      <c r="N89" s="21" t="str">
         <f>IFERROR(Calculations!K89,"")</f>
         <v/>
       </c>
-      <c r="O89" s="21"/>
-      <c r="P89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="23"/>
     </row>
     <row r="90" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="17" t="str">
@@ -7470,37 +7475,37 @@
         <f>IFERROR(Calculations!C90,"")</f>
         <v/>
       </c>
-      <c r="D90" s="23" t="str">
+      <c r="D90" s="20" t="str">
         <f>IFERROR(Calculations!F90,"")</f>
         <v/>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
       <c r="G90" s="18" t="str">
         <f>IFERROR(Calculations!G90,"")</f>
         <v/>
       </c>
-      <c r="H90" s="23" t="str">
+      <c r="H90" s="20" t="str">
         <f>IFERROR(Calculations!H90,"")</f>
         <v/>
       </c>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23" t="str">
+      <c r="I90" s="20"/>
+      <c r="J90" s="20" t="str">
         <f>IFERROR(Calculations!I90,"")</f>
         <v/>
       </c>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
       <c r="M90" s="18" t="str">
         <f>IFERROR(Calculations!J90,"")</f>
         <v/>
       </c>
-      <c r="N90" s="20" t="str">
+      <c r="N90" s="21" t="str">
         <f>IFERROR(Calculations!K90,"")</f>
         <v/>
       </c>
-      <c r="O90" s="21"/>
-      <c r="P90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="23"/>
     </row>
     <row r="91" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="17" t="str">
@@ -7511,37 +7516,37 @@
         <f>IFERROR(Calculations!C91,"")</f>
         <v/>
       </c>
-      <c r="D91" s="23" t="str">
+      <c r="D91" s="20" t="str">
         <f>IFERROR(Calculations!F91,"")</f>
         <v/>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
       <c r="G91" s="18" t="str">
         <f>IFERROR(Calculations!G91,"")</f>
         <v/>
       </c>
-      <c r="H91" s="23" t="str">
+      <c r="H91" s="20" t="str">
         <f>IFERROR(Calculations!H91,"")</f>
         <v/>
       </c>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23" t="str">
+      <c r="I91" s="20"/>
+      <c r="J91" s="20" t="str">
         <f>IFERROR(Calculations!I91,"")</f>
         <v/>
       </c>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
       <c r="M91" s="18" t="str">
         <f>IFERROR(Calculations!J91,"")</f>
         <v/>
       </c>
-      <c r="N91" s="20" t="str">
+      <c r="N91" s="21" t="str">
         <f>IFERROR(Calculations!K91,"")</f>
         <v/>
       </c>
-      <c r="O91" s="21"/>
-      <c r="P91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="23"/>
     </row>
     <row r="92" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="17" t="str">
@@ -7552,37 +7557,37 @@
         <f>IFERROR(Calculations!C92,"")</f>
         <v/>
       </c>
-      <c r="D92" s="23" t="str">
+      <c r="D92" s="20" t="str">
         <f>IFERROR(Calculations!F92,"")</f>
         <v/>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
       <c r="G92" s="18" t="str">
         <f>IFERROR(Calculations!G92,"")</f>
         <v/>
       </c>
-      <c r="H92" s="23" t="str">
+      <c r="H92" s="20" t="str">
         <f>IFERROR(Calculations!H92,"")</f>
         <v/>
       </c>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23" t="str">
+      <c r="I92" s="20"/>
+      <c r="J92" s="20" t="str">
         <f>IFERROR(Calculations!I92,"")</f>
         <v/>
       </c>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
       <c r="M92" s="18" t="str">
         <f>IFERROR(Calculations!J92,"")</f>
         <v/>
       </c>
-      <c r="N92" s="20" t="str">
+      <c r="N92" s="21" t="str">
         <f>IFERROR(Calculations!K92,"")</f>
         <v/>
       </c>
-      <c r="O92" s="21"/>
-      <c r="P92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="23"/>
     </row>
     <row r="93" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="17" t="str">
@@ -7593,37 +7598,37 @@
         <f>IFERROR(Calculations!C93,"")</f>
         <v/>
       </c>
-      <c r="D93" s="23" t="str">
+      <c r="D93" s="20" t="str">
         <f>IFERROR(Calculations!F93,"")</f>
         <v/>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
       <c r="G93" s="18" t="str">
         <f>IFERROR(Calculations!G93,"")</f>
         <v/>
       </c>
-      <c r="H93" s="23" t="str">
+      <c r="H93" s="20" t="str">
         <f>IFERROR(Calculations!H93,"")</f>
         <v/>
       </c>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23" t="str">
+      <c r="I93" s="20"/>
+      <c r="J93" s="20" t="str">
         <f>IFERROR(Calculations!I93,"")</f>
         <v/>
       </c>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
       <c r="M93" s="18" t="str">
         <f>IFERROR(Calculations!J93,"")</f>
         <v/>
       </c>
-      <c r="N93" s="20" t="str">
+      <c r="N93" s="21" t="str">
         <f>IFERROR(Calculations!K93,"")</f>
         <v/>
       </c>
-      <c r="O93" s="21"/>
-      <c r="P93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="23"/>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="17" t="str">
@@ -7634,37 +7639,37 @@
         <f>IFERROR(Calculations!C94,"")</f>
         <v/>
       </c>
-      <c r="D94" s="23" t="str">
+      <c r="D94" s="20" t="str">
         <f>IFERROR(Calculations!F94,"")</f>
         <v/>
       </c>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
       <c r="G94" s="18" t="str">
         <f>IFERROR(Calculations!G94,"")</f>
         <v/>
       </c>
-      <c r="H94" s="23" t="str">
+      <c r="H94" s="20" t="str">
         <f>IFERROR(Calculations!H94,"")</f>
         <v/>
       </c>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23" t="str">
+      <c r="I94" s="20"/>
+      <c r="J94" s="20" t="str">
         <f>IFERROR(Calculations!I94,"")</f>
         <v/>
       </c>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
       <c r="M94" s="18" t="str">
         <f>IFERROR(Calculations!J94,"")</f>
         <v/>
       </c>
-      <c r="N94" s="20" t="str">
+      <c r="N94" s="21" t="str">
         <f>IFERROR(Calculations!K94,"")</f>
         <v/>
       </c>
-      <c r="O94" s="21"/>
-      <c r="P94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="23"/>
     </row>
     <row r="95" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="17" t="str">
@@ -7675,37 +7680,37 @@
         <f>IFERROR(Calculations!C95,"")</f>
         <v/>
       </c>
-      <c r="D95" s="23" t="str">
+      <c r="D95" s="20" t="str">
         <f>IFERROR(Calculations!F95,"")</f>
         <v/>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
       <c r="G95" s="18" t="str">
         <f>IFERROR(Calculations!G95,"")</f>
         <v/>
       </c>
-      <c r="H95" s="23" t="str">
+      <c r="H95" s="20" t="str">
         <f>IFERROR(Calculations!H95,"")</f>
         <v/>
       </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23" t="str">
+      <c r="I95" s="20"/>
+      <c r="J95" s="20" t="str">
         <f>IFERROR(Calculations!I95,"")</f>
         <v/>
       </c>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
       <c r="M95" s="18" t="str">
         <f>IFERROR(Calculations!J95,"")</f>
         <v/>
       </c>
-      <c r="N95" s="20" t="str">
+      <c r="N95" s="21" t="str">
         <f>IFERROR(Calculations!K95,"")</f>
         <v/>
       </c>
-      <c r="O95" s="21"/>
-      <c r="P95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="23"/>
     </row>
     <row r="96" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="17" t="str">
@@ -7716,37 +7721,37 @@
         <f>IFERROR(Calculations!C96,"")</f>
         <v/>
       </c>
-      <c r="D96" s="23" t="str">
+      <c r="D96" s="20" t="str">
         <f>IFERROR(Calculations!F96,"")</f>
         <v/>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
       <c r="G96" s="18" t="str">
         <f>IFERROR(Calculations!G96,"")</f>
         <v/>
       </c>
-      <c r="H96" s="23" t="str">
+      <c r="H96" s="20" t="str">
         <f>IFERROR(Calculations!H96,"")</f>
         <v/>
       </c>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23" t="str">
+      <c r="I96" s="20"/>
+      <c r="J96" s="20" t="str">
         <f>IFERROR(Calculations!I96,"")</f>
         <v/>
       </c>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
       <c r="M96" s="18" t="str">
         <f>IFERROR(Calculations!J96,"")</f>
         <v/>
       </c>
-      <c r="N96" s="20" t="str">
+      <c r="N96" s="21" t="str">
         <f>IFERROR(Calculations!K96,"")</f>
         <v/>
       </c>
-      <c r="O96" s="21"/>
-      <c r="P96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="23"/>
     </row>
     <row r="97" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="17" t="str">
@@ -7757,37 +7762,37 @@
         <f>IFERROR(Calculations!C97,"")</f>
         <v/>
       </c>
-      <c r="D97" s="23" t="str">
+      <c r="D97" s="20" t="str">
         <f>IFERROR(Calculations!F97,"")</f>
         <v/>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
       <c r="G97" s="18" t="str">
         <f>IFERROR(Calculations!G97,"")</f>
         <v/>
       </c>
-      <c r="H97" s="23" t="str">
+      <c r="H97" s="20" t="str">
         <f>IFERROR(Calculations!H97,"")</f>
         <v/>
       </c>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23" t="str">
+      <c r="I97" s="20"/>
+      <c r="J97" s="20" t="str">
         <f>IFERROR(Calculations!I97,"")</f>
         <v/>
       </c>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
       <c r="M97" s="18" t="str">
         <f>IFERROR(Calculations!J97,"")</f>
         <v/>
       </c>
-      <c r="N97" s="20" t="str">
+      <c r="N97" s="21" t="str">
         <f>IFERROR(Calculations!K97,"")</f>
         <v/>
       </c>
-      <c r="O97" s="21"/>
-      <c r="P97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="23"/>
     </row>
     <row r="98" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="17" t="str">
@@ -7798,37 +7803,37 @@
         <f>IFERROR(Calculations!C98,"")</f>
         <v/>
       </c>
-      <c r="D98" s="23" t="str">
+      <c r="D98" s="20" t="str">
         <f>IFERROR(Calculations!F98,"")</f>
         <v/>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
       <c r="G98" s="18" t="str">
         <f>IFERROR(Calculations!G98,"")</f>
         <v/>
       </c>
-      <c r="H98" s="23" t="str">
+      <c r="H98" s="20" t="str">
         <f>IFERROR(Calculations!H98,"")</f>
         <v/>
       </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23" t="str">
+      <c r="I98" s="20"/>
+      <c r="J98" s="20" t="str">
         <f>IFERROR(Calculations!I98,"")</f>
         <v/>
       </c>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
       <c r="M98" s="18" t="str">
         <f>IFERROR(Calculations!J98,"")</f>
         <v/>
       </c>
-      <c r="N98" s="20" t="str">
+      <c r="N98" s="21" t="str">
         <f>IFERROR(Calculations!K98,"")</f>
         <v/>
       </c>
-      <c r="O98" s="21"/>
-      <c r="P98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="23"/>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="17" t="str">
@@ -7839,37 +7844,37 @@
         <f>IFERROR(Calculations!C99,"")</f>
         <v/>
       </c>
-      <c r="D99" s="23" t="str">
+      <c r="D99" s="20" t="str">
         <f>IFERROR(Calculations!F99,"")</f>
         <v/>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
       <c r="G99" s="18" t="str">
         <f>IFERROR(Calculations!G99,"")</f>
         <v/>
       </c>
-      <c r="H99" s="23" t="str">
+      <c r="H99" s="20" t="str">
         <f>IFERROR(Calculations!H99,"")</f>
         <v/>
       </c>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23" t="str">
+      <c r="I99" s="20"/>
+      <c r="J99" s="20" t="str">
         <f>IFERROR(Calculations!I99,"")</f>
         <v/>
       </c>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
       <c r="M99" s="18" t="str">
         <f>IFERROR(Calculations!J99,"")</f>
         <v/>
       </c>
-      <c r="N99" s="20" t="str">
+      <c r="N99" s="21" t="str">
         <f>IFERROR(Calculations!K99,"")</f>
         <v/>
       </c>
-      <c r="O99" s="21"/>
-      <c r="P99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="23"/>
     </row>
     <row r="100" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="17" t="str">
@@ -7880,37 +7885,37 @@
         <f>IFERROR(Calculations!C100,"")</f>
         <v/>
       </c>
-      <c r="D100" s="23" t="str">
+      <c r="D100" s="20" t="str">
         <f>IFERROR(Calculations!F100,"")</f>
         <v/>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
       <c r="G100" s="18" t="str">
         <f>IFERROR(Calculations!G100,"")</f>
         <v/>
       </c>
-      <c r="H100" s="23" t="str">
+      <c r="H100" s="20" t="str">
         <f>IFERROR(Calculations!H100,"")</f>
         <v/>
       </c>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23" t="str">
+      <c r="I100" s="20"/>
+      <c r="J100" s="20" t="str">
         <f>IFERROR(Calculations!I100,"")</f>
         <v/>
       </c>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
       <c r="M100" s="18" t="str">
         <f>IFERROR(Calculations!J100,"")</f>
         <v/>
       </c>
-      <c r="N100" s="20" t="str">
+      <c r="N100" s="21" t="str">
         <f>IFERROR(Calculations!K100,"")</f>
         <v/>
       </c>
-      <c r="O100" s="21"/>
-      <c r="P100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="23"/>
     </row>
     <row r="101" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="17" t="str">
@@ -7921,37 +7926,37 @@
         <f>IFERROR(Calculations!C101,"")</f>
         <v/>
       </c>
-      <c r="D101" s="23" t="str">
+      <c r="D101" s="20" t="str">
         <f>IFERROR(Calculations!F101,"")</f>
         <v/>
       </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
       <c r="G101" s="18" t="str">
         <f>IFERROR(Calculations!G101,"")</f>
         <v/>
       </c>
-      <c r="H101" s="23" t="str">
+      <c r="H101" s="20" t="str">
         <f>IFERROR(Calculations!H101,"")</f>
         <v/>
       </c>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23" t="str">
+      <c r="I101" s="20"/>
+      <c r="J101" s="20" t="str">
         <f>IFERROR(Calculations!I101,"")</f>
         <v/>
       </c>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
       <c r="M101" s="18" t="str">
         <f>IFERROR(Calculations!J101,"")</f>
         <v/>
       </c>
-      <c r="N101" s="20" t="str">
+      <c r="N101" s="21" t="str">
         <f>IFERROR(Calculations!K101,"")</f>
         <v/>
       </c>
-      <c r="O101" s="21"/>
-      <c r="P101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="23"/>
     </row>
     <row r="102" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="17" t="str">
@@ -7962,37 +7967,37 @@
         <f>IFERROR(Calculations!C102,"")</f>
         <v/>
       </c>
-      <c r="D102" s="23" t="str">
+      <c r="D102" s="20" t="str">
         <f>IFERROR(Calculations!F102,"")</f>
         <v/>
       </c>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
       <c r="G102" s="18" t="str">
         <f>IFERROR(Calculations!G102,"")</f>
         <v/>
       </c>
-      <c r="H102" s="23" t="str">
+      <c r="H102" s="20" t="str">
         <f>IFERROR(Calculations!H102,"")</f>
         <v/>
       </c>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23" t="str">
+      <c r="I102" s="20"/>
+      <c r="J102" s="20" t="str">
         <f>IFERROR(Calculations!I102,"")</f>
         <v/>
       </c>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
       <c r="M102" s="18" t="str">
         <f>IFERROR(Calculations!J102,"")</f>
         <v/>
       </c>
-      <c r="N102" s="20" t="str">
+      <c r="N102" s="21" t="str">
         <f>IFERROR(Calculations!K102,"")</f>
         <v/>
       </c>
-      <c r="O102" s="21"/>
-      <c r="P102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="23"/>
     </row>
     <row r="103" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="17" t="str">
@@ -8003,37 +8008,37 @@
         <f>IFERROR(Calculations!C103,"")</f>
         <v/>
       </c>
-      <c r="D103" s="23" t="str">
+      <c r="D103" s="20" t="str">
         <f>IFERROR(Calculations!F103,"")</f>
         <v/>
       </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
       <c r="G103" s="18" t="str">
         <f>IFERROR(Calculations!G103,"")</f>
         <v/>
       </c>
-      <c r="H103" s="23" t="str">
+      <c r="H103" s="20" t="str">
         <f>IFERROR(Calculations!H103,"")</f>
         <v/>
       </c>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23" t="str">
+      <c r="I103" s="20"/>
+      <c r="J103" s="20" t="str">
         <f>IFERROR(Calculations!I103,"")</f>
         <v/>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
       <c r="M103" s="18" t="str">
         <f>IFERROR(Calculations!J103,"")</f>
         <v/>
       </c>
-      <c r="N103" s="20" t="str">
+      <c r="N103" s="21" t="str">
         <f>IFERROR(Calculations!K103,"")</f>
         <v/>
       </c>
-      <c r="O103" s="21"/>
-      <c r="P103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="23"/>
     </row>
     <row r="104" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="17" t="str">
@@ -8044,37 +8049,37 @@
         <f>IFERROR(Calculations!C104,"")</f>
         <v/>
       </c>
-      <c r="D104" s="23" t="str">
+      <c r="D104" s="20" t="str">
         <f>IFERROR(Calculations!F104,"")</f>
         <v/>
       </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
       <c r="G104" s="18" t="str">
         <f>IFERROR(Calculations!G104,"")</f>
         <v/>
       </c>
-      <c r="H104" s="23" t="str">
+      <c r="H104" s="20" t="str">
         <f>IFERROR(Calculations!H104,"")</f>
         <v/>
       </c>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23" t="str">
+      <c r="I104" s="20"/>
+      <c r="J104" s="20" t="str">
         <f>IFERROR(Calculations!I104,"")</f>
         <v/>
       </c>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
       <c r="M104" s="18" t="str">
         <f>IFERROR(Calculations!J104,"")</f>
         <v/>
       </c>
-      <c r="N104" s="20" t="str">
+      <c r="N104" s="21" t="str">
         <f>IFERROR(Calculations!K104,"")</f>
         <v/>
       </c>
-      <c r="O104" s="21"/>
-      <c r="P104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="23"/>
     </row>
     <row r="105" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="17" t="str">
@@ -8085,37 +8090,37 @@
         <f>IFERROR(Calculations!C105,"")</f>
         <v/>
       </c>
-      <c r="D105" s="23" t="str">
+      <c r="D105" s="20" t="str">
         <f>IFERROR(Calculations!F105,"")</f>
         <v/>
       </c>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
       <c r="G105" s="18" t="str">
         <f>IFERROR(Calculations!G105,"")</f>
         <v/>
       </c>
-      <c r="H105" s="23" t="str">
+      <c r="H105" s="20" t="str">
         <f>IFERROR(Calculations!H105,"")</f>
         <v/>
       </c>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23" t="str">
+      <c r="I105" s="20"/>
+      <c r="J105" s="20" t="str">
         <f>IFERROR(Calculations!I105,"")</f>
         <v/>
       </c>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
       <c r="M105" s="18" t="str">
         <f>IFERROR(Calculations!J105,"")</f>
         <v/>
       </c>
-      <c r="N105" s="20" t="str">
+      <c r="N105" s="21" t="str">
         <f>IFERROR(Calculations!K105,"")</f>
         <v/>
       </c>
-      <c r="O105" s="21"/>
-      <c r="P105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="23"/>
     </row>
     <row r="106" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="17" t="str">
@@ -8126,37 +8131,37 @@
         <f>IFERROR(Calculations!C106,"")</f>
         <v/>
       </c>
-      <c r="D106" s="23" t="str">
+      <c r="D106" s="20" t="str">
         <f>IFERROR(Calculations!F106,"")</f>
         <v/>
       </c>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
       <c r="G106" s="18" t="str">
         <f>IFERROR(Calculations!G106,"")</f>
         <v/>
       </c>
-      <c r="H106" s="23" t="str">
+      <c r="H106" s="20" t="str">
         <f>IFERROR(Calculations!H106,"")</f>
         <v/>
       </c>
-      <c r="I106" s="23"/>
-      <c r="J106" s="23" t="str">
+      <c r="I106" s="20"/>
+      <c r="J106" s="20" t="str">
         <f>IFERROR(Calculations!I106,"")</f>
         <v/>
       </c>
-      <c r="K106" s="23"/>
-      <c r="L106" s="23"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
       <c r="M106" s="18" t="str">
         <f>IFERROR(Calculations!J106,"")</f>
         <v/>
       </c>
-      <c r="N106" s="20" t="str">
+      <c r="N106" s="21" t="str">
         <f>IFERROR(Calculations!K106,"")</f>
         <v/>
       </c>
-      <c r="O106" s="21"/>
-      <c r="P106" s="22"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="23"/>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="17" t="str">
@@ -8167,37 +8172,37 @@
         <f>IFERROR(Calculations!C107,"")</f>
         <v/>
       </c>
-      <c r="D107" s="23" t="str">
+      <c r="D107" s="20" t="str">
         <f>IFERROR(Calculations!F107,"")</f>
         <v/>
       </c>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
       <c r="G107" s="18" t="str">
         <f>IFERROR(Calculations!G107,"")</f>
         <v/>
       </c>
-      <c r="H107" s="23" t="str">
+      <c r="H107" s="20" t="str">
         <f>IFERROR(Calculations!H107,"")</f>
         <v/>
       </c>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23" t="str">
+      <c r="I107" s="20"/>
+      <c r="J107" s="20" t="str">
         <f>IFERROR(Calculations!I107,"")</f>
         <v/>
       </c>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
       <c r="M107" s="18" t="str">
         <f>IFERROR(Calculations!J107,"")</f>
         <v/>
       </c>
-      <c r="N107" s="20" t="str">
+      <c r="N107" s="21" t="str">
         <f>IFERROR(Calculations!K107,"")</f>
         <v/>
       </c>
-      <c r="O107" s="21"/>
-      <c r="P107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="23"/>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="17" t="str">
@@ -8208,37 +8213,37 @@
         <f>IFERROR(Calculations!C108,"")</f>
         <v/>
       </c>
-      <c r="D108" s="23" t="str">
+      <c r="D108" s="20" t="str">
         <f>IFERROR(Calculations!F108,"")</f>
         <v/>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
       <c r="G108" s="18" t="str">
         <f>IFERROR(Calculations!G108,"")</f>
         <v/>
       </c>
-      <c r="H108" s="23" t="str">
+      <c r="H108" s="20" t="str">
         <f>IFERROR(Calculations!H108,"")</f>
         <v/>
       </c>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23" t="str">
+      <c r="I108" s="20"/>
+      <c r="J108" s="20" t="str">
         <f>IFERROR(Calculations!I108,"")</f>
         <v/>
       </c>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
       <c r="M108" s="18" t="str">
         <f>IFERROR(Calculations!J108,"")</f>
         <v/>
       </c>
-      <c r="N108" s="20" t="str">
+      <c r="N108" s="21" t="str">
         <f>IFERROR(Calculations!K108,"")</f>
         <v/>
       </c>
-      <c r="O108" s="21"/>
-      <c r="P108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="23"/>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="17" t="str">
@@ -8249,37 +8254,37 @@
         <f>IFERROR(Calculations!C109,"")</f>
         <v/>
       </c>
-      <c r="D109" s="23" t="str">
+      <c r="D109" s="20" t="str">
         <f>IFERROR(Calculations!F109,"")</f>
         <v/>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
       <c r="G109" s="18" t="str">
         <f>IFERROR(Calculations!G109,"")</f>
         <v/>
       </c>
-      <c r="H109" s="23" t="str">
+      <c r="H109" s="20" t="str">
         <f>IFERROR(Calculations!H109,"")</f>
         <v/>
       </c>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23" t="str">
+      <c r="I109" s="20"/>
+      <c r="J109" s="20" t="str">
         <f>IFERROR(Calculations!I109,"")</f>
         <v/>
       </c>
-      <c r="K109" s="23"/>
-      <c r="L109" s="23"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
       <c r="M109" s="18" t="str">
         <f>IFERROR(Calculations!J109,"")</f>
         <v/>
       </c>
-      <c r="N109" s="20" t="str">
+      <c r="N109" s="21" t="str">
         <f>IFERROR(Calculations!K109,"")</f>
         <v/>
       </c>
-      <c r="O109" s="21"/>
-      <c r="P109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="23"/>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="17" t="str">
@@ -8290,37 +8295,37 @@
         <f>IFERROR(Calculations!C110,"")</f>
         <v/>
       </c>
-      <c r="D110" s="23" t="str">
+      <c r="D110" s="20" t="str">
         <f>IFERROR(Calculations!F110,"")</f>
         <v/>
       </c>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
       <c r="G110" s="18" t="str">
         <f>IFERROR(Calculations!G110,"")</f>
         <v/>
       </c>
-      <c r="H110" s="23" t="str">
+      <c r="H110" s="20" t="str">
         <f>IFERROR(Calculations!H110,"")</f>
         <v/>
       </c>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23" t="str">
+      <c r="I110" s="20"/>
+      <c r="J110" s="20" t="str">
         <f>IFERROR(Calculations!I110,"")</f>
         <v/>
       </c>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
       <c r="M110" s="18" t="str">
         <f>IFERROR(Calculations!J110,"")</f>
         <v/>
       </c>
-      <c r="N110" s="20" t="str">
+      <c r="N110" s="21" t="str">
         <f>IFERROR(Calculations!K110,"")</f>
         <v/>
       </c>
-      <c r="O110" s="21"/>
-      <c r="P110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="23"/>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="17" t="str">
@@ -8331,37 +8336,37 @@
         <f>IFERROR(Calculations!C111,"")</f>
         <v/>
       </c>
-      <c r="D111" s="23" t="str">
+      <c r="D111" s="20" t="str">
         <f>IFERROR(Calculations!F111,"")</f>
         <v/>
       </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
       <c r="G111" s="18" t="str">
         <f>IFERROR(Calculations!G111,"")</f>
         <v/>
       </c>
-      <c r="H111" s="23" t="str">
+      <c r="H111" s="20" t="str">
         <f>IFERROR(Calculations!H111,"")</f>
         <v/>
       </c>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23" t="str">
+      <c r="I111" s="20"/>
+      <c r="J111" s="20" t="str">
         <f>IFERROR(Calculations!I111,"")</f>
         <v/>
       </c>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
       <c r="M111" s="18" t="str">
         <f>IFERROR(Calculations!J111,"")</f>
         <v/>
       </c>
-      <c r="N111" s="20" t="str">
+      <c r="N111" s="21" t="str">
         <f>IFERROR(Calculations!K111,"")</f>
         <v/>
       </c>
-      <c r="O111" s="21"/>
-      <c r="P111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="23"/>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="17" t="str">
@@ -8372,37 +8377,37 @@
         <f>IFERROR(Calculations!C112,"")</f>
         <v/>
       </c>
-      <c r="D112" s="23" t="str">
+      <c r="D112" s="20" t="str">
         <f>IFERROR(Calculations!F112,"")</f>
         <v/>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
       <c r="G112" s="18" t="str">
         <f>IFERROR(Calculations!G112,"")</f>
         <v/>
       </c>
-      <c r="H112" s="23" t="str">
+      <c r="H112" s="20" t="str">
         <f>IFERROR(Calculations!H112,"")</f>
         <v/>
       </c>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23" t="str">
+      <c r="I112" s="20"/>
+      <c r="J112" s="20" t="str">
         <f>IFERROR(Calculations!I112,"")</f>
         <v/>
       </c>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
       <c r="M112" s="18" t="str">
         <f>IFERROR(Calculations!J112,"")</f>
         <v/>
       </c>
-      <c r="N112" s="20" t="str">
+      <c r="N112" s="21" t="str">
         <f>IFERROR(Calculations!K112,"")</f>
         <v/>
       </c>
-      <c r="O112" s="21"/>
-      <c r="P112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="23"/>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="17" t="str">
@@ -8413,37 +8418,37 @@
         <f>IFERROR(Calculations!C113,"")</f>
         <v/>
       </c>
-      <c r="D113" s="23" t="str">
+      <c r="D113" s="20" t="str">
         <f>IFERROR(Calculations!F113,"")</f>
         <v/>
       </c>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
       <c r="G113" s="18" t="str">
         <f>IFERROR(Calculations!G113,"")</f>
         <v/>
       </c>
-      <c r="H113" s="23" t="str">
+      <c r="H113" s="20" t="str">
         <f>IFERROR(Calculations!H113,"")</f>
         <v/>
       </c>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23" t="str">
+      <c r="I113" s="20"/>
+      <c r="J113" s="20" t="str">
         <f>IFERROR(Calculations!I113,"")</f>
         <v/>
       </c>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
       <c r="M113" s="18" t="str">
         <f>IFERROR(Calculations!J113,"")</f>
         <v/>
       </c>
-      <c r="N113" s="20" t="str">
+      <c r="N113" s="21" t="str">
         <f>IFERROR(Calculations!K113,"")</f>
         <v/>
       </c>
-      <c r="O113" s="21"/>
-      <c r="P113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="23"/>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="17" t="str">
@@ -8454,37 +8459,37 @@
         <f>IFERROR(Calculations!C114,"")</f>
         <v/>
       </c>
-      <c r="D114" s="23" t="str">
+      <c r="D114" s="20" t="str">
         <f>IFERROR(Calculations!F114,"")</f>
         <v/>
       </c>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
       <c r="G114" s="18" t="str">
         <f>IFERROR(Calculations!G114,"")</f>
         <v/>
       </c>
-      <c r="H114" s="23" t="str">
+      <c r="H114" s="20" t="str">
         <f>IFERROR(Calculations!H114,"")</f>
         <v/>
       </c>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23" t="str">
+      <c r="I114" s="20"/>
+      <c r="J114" s="20" t="str">
         <f>IFERROR(Calculations!I114,"")</f>
         <v/>
       </c>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
       <c r="M114" s="18" t="str">
         <f>IFERROR(Calculations!J114,"")</f>
         <v/>
       </c>
-      <c r="N114" s="20" t="str">
+      <c r="N114" s="21" t="str">
         <f>IFERROR(Calculations!K114,"")</f>
         <v/>
       </c>
-      <c r="O114" s="21"/>
-      <c r="P114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="23"/>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="17" t="str">
@@ -8495,37 +8500,37 @@
         <f>IFERROR(Calculations!C115,"")</f>
         <v/>
       </c>
-      <c r="D115" s="23" t="str">
+      <c r="D115" s="20" t="str">
         <f>IFERROR(Calculations!F115,"")</f>
         <v/>
       </c>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
       <c r="G115" s="18" t="str">
         <f>IFERROR(Calculations!G115,"")</f>
         <v/>
       </c>
-      <c r="H115" s="23" t="str">
+      <c r="H115" s="20" t="str">
         <f>IFERROR(Calculations!H115,"")</f>
         <v/>
       </c>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23" t="str">
+      <c r="I115" s="20"/>
+      <c r="J115" s="20" t="str">
         <f>IFERROR(Calculations!I115,"")</f>
         <v/>
       </c>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
       <c r="M115" s="18" t="str">
         <f>IFERROR(Calculations!J115,"")</f>
         <v/>
       </c>
-      <c r="N115" s="20" t="str">
+      <c r="N115" s="21" t="str">
         <f>IFERROR(Calculations!K115,"")</f>
         <v/>
       </c>
-      <c r="O115" s="21"/>
-      <c r="P115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="23"/>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="17" t="str">
@@ -8536,37 +8541,37 @@
         <f>IFERROR(Calculations!C116,"")</f>
         <v/>
       </c>
-      <c r="D116" s="23" t="str">
+      <c r="D116" s="20" t="str">
         <f>IFERROR(Calculations!F116,"")</f>
         <v/>
       </c>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
       <c r="G116" s="18" t="str">
         <f>IFERROR(Calculations!G116,"")</f>
         <v/>
       </c>
-      <c r="H116" s="23" t="str">
+      <c r="H116" s="20" t="str">
         <f>IFERROR(Calculations!H116,"")</f>
         <v/>
       </c>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23" t="str">
+      <c r="I116" s="20"/>
+      <c r="J116" s="20" t="str">
         <f>IFERROR(Calculations!I116,"")</f>
         <v/>
       </c>
-      <c r="K116" s="23"/>
-      <c r="L116" s="23"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
       <c r="M116" s="18" t="str">
         <f>IFERROR(Calculations!J116,"")</f>
         <v/>
       </c>
-      <c r="N116" s="20" t="str">
+      <c r="N116" s="21" t="str">
         <f>IFERROR(Calculations!K116,"")</f>
         <v/>
       </c>
-      <c r="O116" s="21"/>
-      <c r="P116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="23"/>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="17" t="str">
@@ -8577,37 +8582,37 @@
         <f>IFERROR(Calculations!C117,"")</f>
         <v/>
       </c>
-      <c r="D117" s="23" t="str">
+      <c r="D117" s="20" t="str">
         <f>IFERROR(Calculations!F117,"")</f>
         <v/>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
       <c r="G117" s="18" t="str">
         <f>IFERROR(Calculations!G117,"")</f>
         <v/>
       </c>
-      <c r="H117" s="23" t="str">
+      <c r="H117" s="20" t="str">
         <f>IFERROR(Calculations!H117,"")</f>
         <v/>
       </c>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23" t="str">
+      <c r="I117" s="20"/>
+      <c r="J117" s="20" t="str">
         <f>IFERROR(Calculations!I117,"")</f>
         <v/>
       </c>
-      <c r="K117" s="23"/>
-      <c r="L117" s="23"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
       <c r="M117" s="18" t="str">
         <f>IFERROR(Calculations!J117,"")</f>
         <v/>
       </c>
-      <c r="N117" s="20" t="str">
+      <c r="N117" s="21" t="str">
         <f>IFERROR(Calculations!K117,"")</f>
         <v/>
       </c>
-      <c r="O117" s="21"/>
-      <c r="P117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="23"/>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="17" t="str">
@@ -8618,37 +8623,37 @@
         <f>IFERROR(Calculations!C118,"")</f>
         <v/>
       </c>
-      <c r="D118" s="23" t="str">
+      <c r="D118" s="20" t="str">
         <f>IFERROR(Calculations!F118,"")</f>
         <v/>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
       <c r="G118" s="18" t="str">
         <f>IFERROR(Calculations!G118,"")</f>
         <v/>
       </c>
-      <c r="H118" s="23" t="str">
+      <c r="H118" s="20" t="str">
         <f>IFERROR(Calculations!H118,"")</f>
         <v/>
       </c>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23" t="str">
+      <c r="I118" s="20"/>
+      <c r="J118" s="20" t="str">
         <f>IFERROR(Calculations!I118,"")</f>
         <v/>
       </c>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
       <c r="M118" s="18" t="str">
         <f>IFERROR(Calculations!J118,"")</f>
         <v/>
       </c>
-      <c r="N118" s="20" t="str">
+      <c r="N118" s="21" t="str">
         <f>IFERROR(Calculations!K118,"")</f>
         <v/>
       </c>
-      <c r="O118" s="21"/>
-      <c r="P118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="23"/>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="17" t="str">
@@ -8659,37 +8664,37 @@
         <f>IFERROR(Calculations!C119,"")</f>
         <v/>
       </c>
-      <c r="D119" s="23" t="str">
+      <c r="D119" s="20" t="str">
         <f>IFERROR(Calculations!F119,"")</f>
         <v/>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
       <c r="G119" s="18" t="str">
         <f>IFERROR(Calculations!G119,"")</f>
         <v/>
       </c>
-      <c r="H119" s="23" t="str">
+      <c r="H119" s="20" t="str">
         <f>IFERROR(Calculations!H119,"")</f>
         <v/>
       </c>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23" t="str">
+      <c r="I119" s="20"/>
+      <c r="J119" s="20" t="str">
         <f>IFERROR(Calculations!I119,"")</f>
         <v/>
       </c>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
       <c r="M119" s="18" t="str">
         <f>IFERROR(Calculations!J119,"")</f>
         <v/>
       </c>
-      <c r="N119" s="20" t="str">
+      <c r="N119" s="21" t="str">
         <f>IFERROR(Calculations!K119,"")</f>
         <v/>
       </c>
-      <c r="O119" s="21"/>
-      <c r="P119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="23"/>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="17" t="str">
@@ -8700,37 +8705,37 @@
         <f>IFERROR(Calculations!C120,"")</f>
         <v/>
       </c>
-      <c r="D120" s="23" t="str">
+      <c r="D120" s="20" t="str">
         <f>IFERROR(Calculations!F120,"")</f>
         <v/>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
       <c r="G120" s="18" t="str">
         <f>IFERROR(Calculations!G120,"")</f>
         <v/>
       </c>
-      <c r="H120" s="23" t="str">
+      <c r="H120" s="20" t="str">
         <f>IFERROR(Calculations!H120,"")</f>
         <v/>
       </c>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23" t="str">
+      <c r="I120" s="20"/>
+      <c r="J120" s="20" t="str">
         <f>IFERROR(Calculations!I120,"")</f>
         <v/>
       </c>
-      <c r="K120" s="23"/>
-      <c r="L120" s="23"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
       <c r="M120" s="18" t="str">
         <f>IFERROR(Calculations!J120,"")</f>
         <v/>
       </c>
-      <c r="N120" s="20" t="str">
+      <c r="N120" s="21" t="str">
         <f>IFERROR(Calculations!K120,"")</f>
         <v/>
       </c>
-      <c r="O120" s="21"/>
-      <c r="P120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="23"/>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="17" t="str">
@@ -8741,37 +8746,37 @@
         <f>IFERROR(Calculations!C121,"")</f>
         <v/>
       </c>
-      <c r="D121" s="23" t="str">
+      <c r="D121" s="20" t="str">
         <f>IFERROR(Calculations!F121,"")</f>
         <v/>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
       <c r="G121" s="18" t="str">
         <f>IFERROR(Calculations!G121,"")</f>
         <v/>
       </c>
-      <c r="H121" s="23" t="str">
+      <c r="H121" s="20" t="str">
         <f>IFERROR(Calculations!H121,"")</f>
         <v/>
       </c>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23" t="str">
+      <c r="I121" s="20"/>
+      <c r="J121" s="20" t="str">
         <f>IFERROR(Calculations!I121,"")</f>
         <v/>
       </c>
-      <c r="K121" s="23"/>
-      <c r="L121" s="23"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
       <c r="M121" s="18" t="str">
         <f>IFERROR(Calculations!J121,"")</f>
         <v/>
       </c>
-      <c r="N121" s="20" t="str">
+      <c r="N121" s="21" t="str">
         <f>IFERROR(Calculations!K121,"")</f>
         <v/>
       </c>
-      <c r="O121" s="21"/>
-      <c r="P121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="23"/>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="17" t="str">
@@ -8782,37 +8787,37 @@
         <f>IFERROR(Calculations!C122,"")</f>
         <v/>
       </c>
-      <c r="D122" s="23" t="str">
+      <c r="D122" s="20" t="str">
         <f>IFERROR(Calculations!F122,"")</f>
         <v/>
       </c>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
       <c r="G122" s="18" t="str">
         <f>IFERROR(Calculations!G122,"")</f>
         <v/>
       </c>
-      <c r="H122" s="23" t="str">
+      <c r="H122" s="20" t="str">
         <f>IFERROR(Calculations!H122,"")</f>
         <v/>
       </c>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23" t="str">
+      <c r="I122" s="20"/>
+      <c r="J122" s="20" t="str">
         <f>IFERROR(Calculations!I122,"")</f>
         <v/>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
       <c r="M122" s="18" t="str">
         <f>IFERROR(Calculations!J122,"")</f>
         <v/>
       </c>
-      <c r="N122" s="20" t="str">
+      <c r="N122" s="21" t="str">
         <f>IFERROR(Calculations!K122,"")</f>
         <v/>
       </c>
-      <c r="O122" s="21"/>
-      <c r="P122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="23"/>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="17" t="str">
@@ -8823,37 +8828,37 @@
         <f>IFERROR(Calculations!C123,"")</f>
         <v/>
       </c>
-      <c r="D123" s="23" t="str">
+      <c r="D123" s="20" t="str">
         <f>IFERROR(Calculations!F123,"")</f>
         <v/>
       </c>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
       <c r="G123" s="18" t="str">
         <f>IFERROR(Calculations!G123,"")</f>
         <v/>
       </c>
-      <c r="H123" s="23" t="str">
+      <c r="H123" s="20" t="str">
         <f>IFERROR(Calculations!H123,"")</f>
         <v/>
       </c>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23" t="str">
+      <c r="I123" s="20"/>
+      <c r="J123" s="20" t="str">
         <f>IFERROR(Calculations!I123,"")</f>
         <v/>
       </c>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
       <c r="M123" s="18" t="str">
         <f>IFERROR(Calculations!J123,"")</f>
         <v/>
       </c>
-      <c r="N123" s="20" t="str">
+      <c r="N123" s="21" t="str">
         <f>IFERROR(Calculations!K123,"")</f>
         <v/>
       </c>
-      <c r="O123" s="21"/>
-      <c r="P123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="23"/>
     </row>
     <row r="124" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="17" t="str">
@@ -8864,37 +8869,37 @@
         <f>IFERROR(Calculations!C124,"")</f>
         <v/>
       </c>
-      <c r="D124" s="23" t="str">
+      <c r="D124" s="20" t="str">
         <f>IFERROR(Calculations!F124,"")</f>
         <v/>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
       <c r="G124" s="18" t="str">
         <f>IFERROR(Calculations!G124,"")</f>
         <v/>
       </c>
-      <c r="H124" s="23" t="str">
+      <c r="H124" s="20" t="str">
         <f>IFERROR(Calculations!H124,"")</f>
         <v/>
       </c>
-      <c r="I124" s="23"/>
-      <c r="J124" s="23" t="str">
+      <c r="I124" s="20"/>
+      <c r="J124" s="20" t="str">
         <f>IFERROR(Calculations!I124,"")</f>
         <v/>
       </c>
-      <c r="K124" s="23"/>
-      <c r="L124" s="23"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
       <c r="M124" s="18" t="str">
         <f>IFERROR(Calculations!J124,"")</f>
         <v/>
       </c>
-      <c r="N124" s="20" t="str">
+      <c r="N124" s="21" t="str">
         <f>IFERROR(Calculations!K124,"")</f>
         <v/>
       </c>
-      <c r="O124" s="21"/>
-      <c r="P124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="23"/>
     </row>
     <row r="125" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="17" t="str">
@@ -8905,37 +8910,37 @@
         <f>IFERROR(Calculations!C125,"")</f>
         <v/>
       </c>
-      <c r="D125" s="23" t="str">
+      <c r="D125" s="20" t="str">
         <f>IFERROR(Calculations!F125,"")</f>
         <v/>
       </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
       <c r="G125" s="18" t="str">
         <f>IFERROR(Calculations!G125,"")</f>
         <v/>
       </c>
-      <c r="H125" s="23" t="str">
+      <c r="H125" s="20" t="str">
         <f>IFERROR(Calculations!H125,"")</f>
         <v/>
       </c>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23" t="str">
+      <c r="I125" s="20"/>
+      <c r="J125" s="20" t="str">
         <f>IFERROR(Calculations!I125,"")</f>
         <v/>
       </c>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
       <c r="M125" s="18" t="str">
         <f>IFERROR(Calculations!J125,"")</f>
         <v/>
       </c>
-      <c r="N125" s="20" t="str">
+      <c r="N125" s="21" t="str">
         <f>IFERROR(Calculations!K125,"")</f>
         <v/>
       </c>
-      <c r="O125" s="21"/>
-      <c r="P125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="23"/>
     </row>
     <row r="126" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="17" t="str">
@@ -8946,37 +8951,37 @@
         <f>IFERROR(Calculations!C126,"")</f>
         <v/>
       </c>
-      <c r="D126" s="23" t="str">
+      <c r="D126" s="20" t="str">
         <f>IFERROR(Calculations!F126,"")</f>
         <v/>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
       <c r="G126" s="18" t="str">
         <f>IFERROR(Calculations!G126,"")</f>
         <v/>
       </c>
-      <c r="H126" s="23" t="str">
+      <c r="H126" s="20" t="str">
         <f>IFERROR(Calculations!H126,"")</f>
         <v/>
       </c>
-      <c r="I126" s="23"/>
-      <c r="J126" s="23" t="str">
+      <c r="I126" s="20"/>
+      <c r="J126" s="20" t="str">
         <f>IFERROR(Calculations!I126,"")</f>
         <v/>
       </c>
-      <c r="K126" s="23"/>
-      <c r="L126" s="23"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
       <c r="M126" s="18" t="str">
         <f>IFERROR(Calculations!J126,"")</f>
         <v/>
       </c>
-      <c r="N126" s="20" t="str">
+      <c r="N126" s="21" t="str">
         <f>IFERROR(Calculations!K126,"")</f>
         <v/>
       </c>
-      <c r="O126" s="21"/>
-      <c r="P126" s="22"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="23"/>
     </row>
     <row r="127" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="str">
@@ -8987,37 +8992,37 @@
         <f>IFERROR(Calculations!C127,"")</f>
         <v/>
       </c>
-      <c r="D127" s="23" t="str">
+      <c r="D127" s="20" t="str">
         <f>IFERROR(Calculations!F127,"")</f>
         <v/>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
       <c r="G127" s="18" t="str">
         <f>IFERROR(Calculations!G127,"")</f>
         <v/>
       </c>
-      <c r="H127" s="23" t="str">
+      <c r="H127" s="20" t="str">
         <f>IFERROR(Calculations!H127,"")</f>
         <v/>
       </c>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23" t="str">
+      <c r="I127" s="20"/>
+      <c r="J127" s="20" t="str">
         <f>IFERROR(Calculations!I127,"")</f>
         <v/>
       </c>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
       <c r="M127" s="18" t="str">
         <f>IFERROR(Calculations!J127,"")</f>
         <v/>
       </c>
-      <c r="N127" s="20" t="str">
+      <c r="N127" s="21" t="str">
         <f>IFERROR(Calculations!K127,"")</f>
         <v/>
       </c>
-      <c r="O127" s="21"/>
-      <c r="P127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="23"/>
     </row>
     <row r="128" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="17" t="str">
@@ -9028,37 +9033,37 @@
         <f>IFERROR(Calculations!C128,"")</f>
         <v/>
       </c>
-      <c r="D128" s="23" t="str">
+      <c r="D128" s="20" t="str">
         <f>IFERROR(Calculations!F128,"")</f>
         <v/>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
       <c r="G128" s="18" t="str">
         <f>IFERROR(Calculations!G128,"")</f>
         <v/>
       </c>
-      <c r="H128" s="23" t="str">
+      <c r="H128" s="20" t="str">
         <f>IFERROR(Calculations!H128,"")</f>
         <v/>
       </c>
-      <c r="I128" s="23"/>
-      <c r="J128" s="23" t="str">
+      <c r="I128" s="20"/>
+      <c r="J128" s="20" t="str">
         <f>IFERROR(Calculations!I128,"")</f>
         <v/>
       </c>
-      <c r="K128" s="23"/>
-      <c r="L128" s="23"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
       <c r="M128" s="18" t="str">
         <f>IFERROR(Calculations!J128,"")</f>
         <v/>
       </c>
-      <c r="N128" s="20" t="str">
+      <c r="N128" s="21" t="str">
         <f>IFERROR(Calculations!K128,"")</f>
         <v/>
       </c>
-      <c r="O128" s="21"/>
-      <c r="P128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="23"/>
     </row>
     <row r="129" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="17" t="str">
@@ -9069,37 +9074,37 @@
         <f>IFERROR(Calculations!C129,"")</f>
         <v/>
       </c>
-      <c r="D129" s="23" t="str">
+      <c r="D129" s="20" t="str">
         <f>IFERROR(Calculations!F129,"")</f>
         <v/>
       </c>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
       <c r="G129" s="18" t="str">
         <f>IFERROR(Calculations!G129,"")</f>
         <v/>
       </c>
-      <c r="H129" s="23" t="str">
+      <c r="H129" s="20" t="str">
         <f>IFERROR(Calculations!H129,"")</f>
         <v/>
       </c>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23" t="str">
+      <c r="I129" s="20"/>
+      <c r="J129" s="20" t="str">
         <f>IFERROR(Calculations!I129,"")</f>
         <v/>
       </c>
-      <c r="K129" s="23"/>
-      <c r="L129" s="23"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
       <c r="M129" s="18" t="str">
         <f>IFERROR(Calculations!J129,"")</f>
         <v/>
       </c>
-      <c r="N129" s="20" t="str">
+      <c r="N129" s="21" t="str">
         <f>IFERROR(Calculations!K129,"")</f>
         <v/>
       </c>
-      <c r="O129" s="21"/>
-      <c r="P129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="23"/>
     </row>
     <row r="130" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="17" t="str">
@@ -9110,37 +9115,37 @@
         <f>IFERROR(Calculations!C130,"")</f>
         <v/>
       </c>
-      <c r="D130" s="23" t="str">
+      <c r="D130" s="20" t="str">
         <f>IFERROR(Calculations!F130,"")</f>
         <v/>
       </c>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
       <c r="G130" s="18" t="str">
         <f>IFERROR(Calculations!G130,"")</f>
         <v/>
       </c>
-      <c r="H130" s="23" t="str">
+      <c r="H130" s="20" t="str">
         <f>IFERROR(Calculations!H130,"")</f>
         <v/>
       </c>
-      <c r="I130" s="23"/>
-      <c r="J130" s="23" t="str">
+      <c r="I130" s="20"/>
+      <c r="J130" s="20" t="str">
         <f>IFERROR(Calculations!I130,"")</f>
         <v/>
       </c>
-      <c r="K130" s="23"/>
-      <c r="L130" s="23"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
       <c r="M130" s="18" t="str">
         <f>IFERROR(Calculations!J130,"")</f>
         <v/>
       </c>
-      <c r="N130" s="20" t="str">
+      <c r="N130" s="21" t="str">
         <f>IFERROR(Calculations!K130,"")</f>
         <v/>
       </c>
-      <c r="O130" s="21"/>
-      <c r="P130" s="22"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="23"/>
     </row>
     <row r="131" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="17" t="str">
@@ -9151,37 +9156,37 @@
         <f>IFERROR(Calculations!C131,"")</f>
         <v/>
       </c>
-      <c r="D131" s="23" t="str">
+      <c r="D131" s="20" t="str">
         <f>IFERROR(Calculations!F131,"")</f>
         <v/>
       </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
       <c r="G131" s="18" t="str">
         <f>IFERROR(Calculations!G131,"")</f>
         <v/>
       </c>
-      <c r="H131" s="23" t="str">
+      <c r="H131" s="20" t="str">
         <f>IFERROR(Calculations!H131,"")</f>
         <v/>
       </c>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23" t="str">
+      <c r="I131" s="20"/>
+      <c r="J131" s="20" t="str">
         <f>IFERROR(Calculations!I131,"")</f>
         <v/>
       </c>
-      <c r="K131" s="23"/>
-      <c r="L131" s="23"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
       <c r="M131" s="18" t="str">
         <f>IFERROR(Calculations!J131,"")</f>
         <v/>
       </c>
-      <c r="N131" s="20" t="str">
+      <c r="N131" s="21" t="str">
         <f>IFERROR(Calculations!K131,"")</f>
         <v/>
       </c>
-      <c r="O131" s="21"/>
-      <c r="P131" s="22"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="23"/>
     </row>
     <row r="132" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="17" t="str">
@@ -9192,37 +9197,37 @@
         <f>IFERROR(Calculations!C132,"")</f>
         <v/>
       </c>
-      <c r="D132" s="23" t="str">
+      <c r="D132" s="20" t="str">
         <f>IFERROR(Calculations!F132,"")</f>
         <v/>
       </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
       <c r="G132" s="18" t="str">
         <f>IFERROR(Calculations!G132,"")</f>
         <v/>
       </c>
-      <c r="H132" s="23" t="str">
+      <c r="H132" s="20" t="str">
         <f>IFERROR(Calculations!H132,"")</f>
         <v/>
       </c>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23" t="str">
+      <c r="I132" s="20"/>
+      <c r="J132" s="20" t="str">
         <f>IFERROR(Calculations!I132,"")</f>
         <v/>
       </c>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
       <c r="M132" s="18" t="str">
         <f>IFERROR(Calculations!J132,"")</f>
         <v/>
       </c>
-      <c r="N132" s="20" t="str">
+      <c r="N132" s="21" t="str">
         <f>IFERROR(Calculations!K132,"")</f>
         <v/>
       </c>
-      <c r="O132" s="21"/>
-      <c r="P132" s="22"/>
+      <c r="O132" s="22"/>
+      <c r="P132" s="23"/>
     </row>
     <row r="133" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="17" t="str">
@@ -9233,37 +9238,37 @@
         <f>IFERROR(Calculations!C133,"")</f>
         <v/>
       </c>
-      <c r="D133" s="23" t="str">
+      <c r="D133" s="20" t="str">
         <f>IFERROR(Calculations!F133,"")</f>
         <v/>
       </c>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
       <c r="G133" s="18" t="str">
         <f>IFERROR(Calculations!G133,"")</f>
         <v/>
       </c>
-      <c r="H133" s="23" t="str">
+      <c r="H133" s="20" t="str">
         <f>IFERROR(Calculations!H133,"")</f>
         <v/>
       </c>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23" t="str">
+      <c r="I133" s="20"/>
+      <c r="J133" s="20" t="str">
         <f>IFERROR(Calculations!I133,"")</f>
         <v/>
       </c>
-      <c r="K133" s="23"/>
-      <c r="L133" s="23"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
       <c r="M133" s="18" t="str">
         <f>IFERROR(Calculations!J133,"")</f>
         <v/>
       </c>
-      <c r="N133" s="20" t="str">
+      <c r="N133" s="21" t="str">
         <f>IFERROR(Calculations!K133,"")</f>
         <v/>
       </c>
-      <c r="O133" s="21"/>
-      <c r="P133" s="22"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="23"/>
     </row>
     <row r="134" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="17" t="str">
@@ -9274,37 +9279,37 @@
         <f>IFERROR(Calculations!C134,"")</f>
         <v/>
       </c>
-      <c r="D134" s="23" t="str">
+      <c r="D134" s="20" t="str">
         <f>IFERROR(Calculations!F134,"")</f>
         <v/>
       </c>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
       <c r="G134" s="18" t="str">
         <f>IFERROR(Calculations!G134,"")</f>
         <v/>
       </c>
-      <c r="H134" s="23" t="str">
+      <c r="H134" s="20" t="str">
         <f>IFERROR(Calculations!H134,"")</f>
         <v/>
       </c>
-      <c r="I134" s="23"/>
-      <c r="J134" s="23" t="str">
+      <c r="I134" s="20"/>
+      <c r="J134" s="20" t="str">
         <f>IFERROR(Calculations!I134,"")</f>
         <v/>
       </c>
-      <c r="K134" s="23"/>
-      <c r="L134" s="23"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
       <c r="M134" s="18" t="str">
         <f>IFERROR(Calculations!J134,"")</f>
         <v/>
       </c>
-      <c r="N134" s="20" t="str">
+      <c r="N134" s="21" t="str">
         <f>IFERROR(Calculations!K134,"")</f>
         <v/>
       </c>
-      <c r="O134" s="21"/>
-      <c r="P134" s="22"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="23"/>
     </row>
     <row r="135" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="17" t="str">
@@ -9315,134 +9320,322 @@
         <f>IFERROR(Calculations!C135,"")</f>
         <v/>
       </c>
-      <c r="D135" s="23" t="str">
+      <c r="D135" s="20" t="str">
         <f>IFERROR(Calculations!F135,"")</f>
         <v/>
       </c>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
       <c r="G135" s="18" t="str">
         <f>IFERROR(Calculations!G135,"")</f>
         <v/>
       </c>
-      <c r="H135" s="23" t="str">
+      <c r="H135" s="20" t="str">
         <f>IFERROR(Calculations!H135,"")</f>
         <v/>
       </c>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23" t="str">
+      <c r="I135" s="20"/>
+      <c r="J135" s="20" t="str">
         <f>IFERROR(Calculations!I135,"")</f>
         <v/>
       </c>
-      <c r="K135" s="23"/>
-      <c r="L135" s="23"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
       <c r="M135" s="18" t="str">
         <f>IFERROR(Calculations!J135,"")</f>
         <v/>
       </c>
-      <c r="N135" s="20" t="str">
+      <c r="N135" s="21" t="str">
         <f>IFERROR(Calculations!K135,"")</f>
         <v/>
       </c>
-      <c r="O135" s="21"/>
-      <c r="P135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="400">
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="N133:P133"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="N135:P135"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="N131:P131"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="N121:P121"/>
+    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="N124:P124"/>
+    <mergeCell ref="N125:P125"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="N119:P119"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="N105:P105"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="J129:L129"/>
+    <mergeCell ref="J130:L130"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="J124:L124"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="J127:L127"/>
+    <mergeCell ref="J128:L128"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="J120:L120"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="D135:F135"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
@@ -9467,288 +9660,100 @@
     <mergeCell ref="D128:F128"/>
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="D118:F118"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="J125:L125"/>
-    <mergeCell ref="J126:L126"/>
-    <mergeCell ref="J127:L127"/>
-    <mergeCell ref="J128:L128"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="J118:L118"/>
-    <mergeCell ref="J119:L119"/>
-    <mergeCell ref="J120:L120"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="J129:L129"/>
-    <mergeCell ref="J130:L130"/>
-    <mergeCell ref="J131:L131"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="J124:L124"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="N121:P121"/>
-    <mergeCell ref="N122:P122"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="N124:P124"/>
-    <mergeCell ref="N125:P125"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="N119:P119"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="N133:P133"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="N135:P135"/>
-    <mergeCell ref="N126:P126"/>
-    <mergeCell ref="N127:P127"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="N130:P130"/>
-    <mergeCell ref="N131:P131"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <conditionalFormatting sqref="C36:C135">
     <cfRule type="expression" dxfId="7" priority="2">

--- a/Excel/Excel test3.xlsx
+++ b/Excel/Excel test3.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Age</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>This sheet should remain hidden. Any modifications may result in errors in the Retirement Planner.</t>
+  </si>
+  <si>
+    <t>rr</t>
   </si>
 </sst>
 </file>
@@ -4120,7 +4123,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="ResultsDisplay_Failure_2">
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="55" name="TextBox 9" descr="Represents Savings Disbursements" title="Chart Legend - Label"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -4156,101 +4159,10 @@
           <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
             <a:noAutofit/>
           </a:bodyPr>
-          <a:lstStyle>
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:fld id="{52E82D26-BAAF-4CEC-A650-71F97941DF9B}" type="TxLink">
+            <a:r>
               <a:rPr lang="en-US" sz="1500" b="0">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
@@ -4259,17 +4171,8 @@
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:pPr algn="l"/>
               <a:t> </a:t>
-            </a:fld>
-            <a:endParaRPr lang="en-US" sz="1500" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-            </a:endParaRPr>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4979,7 +4882,7 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5011,6 +4914,9 @@
     <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G2" s="5">
         <v>7</v>

--- a/Excel/Excel test3.xlsx
+++ b/Excel/Excel test3.xlsx
@@ -259,8 +259,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -458,7 +458,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -491,22 +491,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -1568,8 +1568,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462498448"/>
-        <c:axId val="462494920"/>
+        <c:axId val="239842984"/>
+        <c:axId val="239840632"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1756,8 +1756,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-1"/>
-        <c:axId val="462498448"/>
-        <c:axId val="462494920"/>
+        <c:axId val="239842984"/>
+        <c:axId val="239840632"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2110,11 +2110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462498448"/>
-        <c:axId val="462494920"/>
+        <c:axId val="239842984"/>
+        <c:axId val="239840632"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="462498448"/>
+        <c:axId val="239842984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462494920"/>
+        <c:crossAx val="239840632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="462494920"/>
+        <c:axId val="239840632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2202,7 +2202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462498448"/>
+        <c:crossAx val="239842984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4162,17 +4162,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1500" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5167,37 +5164,37 @@
         <f>IFERROR(Calculations!C36,"")</f>
         <v>50000</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="23">
         <f>IFERROR(Calculations!F36,"")</f>
         <v>60000</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="18">
         <f>IFERROR(Calculations!G36,"")</f>
         <v>3750</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="23">
         <f>IFERROR(Calculations!H36,"")</f>
         <v>15000</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20">
+      <c r="I36" s="23"/>
+      <c r="J36" s="23">
         <f>IFERROR(Calculations!I36,"")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="18">
         <f>IFERROR(Calculations!J36,"")</f>
         <v>0</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="20">
         <f>IFERROR(Calculations!K36,"")</f>
         <v>78750</v>
       </c>
-      <c r="O36" s="22"/>
-      <c r="P36" s="23"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="17">
@@ -5208,37 +5205,37 @@
         <f>IFERROR(Calculations!C37,"")</f>
         <v>51500</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="23">
         <f>IFERROR(Calculations!F37,"")</f>
         <v>78750</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="18">
         <f>IFERROR(Calculations!G37,"")</f>
         <v>4921.875</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="23">
         <f>IFERROR(Calculations!H37,"")</f>
         <v>15000</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20">
+      <c r="I37" s="23"/>
+      <c r="J37" s="23">
         <f>IFERROR(Calculations!I37,"")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="18">
         <f>IFERROR(Calculations!J37,"")</f>
         <v>0</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="20">
         <f>IFERROR(Calculations!K37,"")</f>
         <v>98671.875</v>
       </c>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17">
@@ -5249,37 +5246,37 @@
         <f>IFERROR(Calculations!C38,"")</f>
         <v>53045</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="23">
         <f>IFERROR(Calculations!F38,"")</f>
         <v>98671.875</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="18">
         <f>IFERROR(Calculations!G38,"")</f>
         <v>6166.9921875</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="23">
         <f>IFERROR(Calculations!H38,"")</f>
         <v>15000</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20">
+      <c r="I38" s="23"/>
+      <c r="J38" s="23">
         <f>IFERROR(Calculations!I38,"")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
       <c r="M38" s="18">
         <f>IFERROR(Calculations!J38,"")</f>
         <v>0</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="20">
         <f>IFERROR(Calculations!K38,"")</f>
         <v>119838.8671875</v>
       </c>
-      <c r="O38" s="22"/>
-      <c r="P38" s="23"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17">
@@ -5290,37 +5287,37 @@
         <f>IFERROR(Calculations!C39,"")</f>
         <v>54636.35</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="23">
         <f>IFERROR(Calculations!F39,"")</f>
         <v>119838.8671875</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="18">
         <f>IFERROR(Calculations!G39,"")</f>
         <v>7489.92919921875</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="23">
         <f>IFERROR(Calculations!H39,"")</f>
         <v>15000</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20">
+      <c r="I39" s="23"/>
+      <c r="J39" s="23">
         <f>IFERROR(Calculations!I39,"")</f>
         <v>0</v>
       </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="18">
         <f>IFERROR(Calculations!J39,"")</f>
         <v>0</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N39" s="20">
         <f>IFERROR(Calculations!K39,"")</f>
         <v>142328.79638671875</v>
       </c>
-      <c r="O39" s="22"/>
-      <c r="P39" s="23"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="17">
@@ -5331,37 +5328,37 @@
         <f>IFERROR(Calculations!C40,"")</f>
         <v>56275.440499999997</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="23">
         <f>IFERROR(Calculations!F40,"")</f>
         <v>142328.79638671875</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="18">
         <f>IFERROR(Calculations!G40,"")</f>
         <v>8895.5497741699219</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="23">
         <f>IFERROR(Calculations!H40,"")</f>
         <v>15000</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20">
+      <c r="I40" s="23"/>
+      <c r="J40" s="23">
         <f>IFERROR(Calculations!I40,"")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="18">
         <f>IFERROR(Calculations!J40,"")</f>
         <v>0</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="20">
         <f>IFERROR(Calculations!K40,"")</f>
         <v>166224.34616088867</v>
       </c>
-      <c r="O40" s="22"/>
-      <c r="P40" s="23"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="17">
@@ -5372,37 +5369,37 @@
         <f>IFERROR(Calculations!C41,"")</f>
         <v>57963.703714999996</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="23">
         <f>IFERROR(Calculations!F41,"")</f>
         <v>166224.34616088867</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="18">
         <f>IFERROR(Calculations!G41,"")</f>
         <v>10389.021635055542</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="23">
         <f>IFERROR(Calculations!H41,"")</f>
         <v>15000</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20">
+      <c r="I41" s="23"/>
+      <c r="J41" s="23">
         <f>IFERROR(Calculations!I41,"")</f>
         <v>0</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="18">
         <f>IFERROR(Calculations!J41,"")</f>
         <v>0</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="20">
         <f>IFERROR(Calculations!K41,"")</f>
         <v>191613.36779594421</v>
       </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="17">
@@ -5413,37 +5410,37 @@
         <f>IFERROR(Calculations!C42,"")</f>
         <v>59702.614826449993</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="23">
         <f>IFERROR(Calculations!F42,"")</f>
         <v>191613.36779594421</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="18">
         <f>IFERROR(Calculations!G42,"")</f>
         <v>11975.835487246513</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="23">
         <f>IFERROR(Calculations!H42,"")</f>
         <v>15000</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20">
+      <c r="I42" s="23"/>
+      <c r="J42" s="23">
         <f>IFERROR(Calculations!I42,"")</f>
         <v>0</v>
       </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
       <c r="M42" s="18">
         <f>IFERROR(Calculations!J42,"")</f>
         <v>0</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="20">
         <f>IFERROR(Calculations!K42,"")</f>
         <v>218589.20328319073</v>
       </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="23"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17">
@@ -5454,37 +5451,37 @@
         <f>IFERROR(Calculations!C43,"")</f>
         <v>61493.693271243494</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="23">
         <f>IFERROR(Calculations!F43,"")</f>
         <v>218589.20328319073</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="18">
         <f>IFERROR(Calculations!G43,"")</f>
         <v>13661.82520519942</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="23">
         <f>IFERROR(Calculations!H43,"")</f>
         <v>15000</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23">
         <f>IFERROR(Calculations!I43,"")</f>
         <v>0</v>
       </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="18">
         <f>IFERROR(Calculations!J43,"")</f>
         <v>0</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N43" s="20">
         <f>IFERROR(Calculations!K43,"")</f>
         <v>247251.02848839015</v>
       </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="23"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="22"/>
     </row>
     <row r="44" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="17">
@@ -5495,37 +5492,37 @@
         <f>IFERROR(Calculations!C44,"")</f>
         <v>63338.504069380797</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="23">
         <f>IFERROR(Calculations!F44,"")</f>
         <v>247251.02848839015</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="18">
         <f>IFERROR(Calculations!G44,"")</f>
         <v>15453.189280524384</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="23">
         <f>IFERROR(Calculations!H44,"")</f>
         <v>15000</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20">
+      <c r="I44" s="23"/>
+      <c r="J44" s="23">
         <f>IFERROR(Calculations!I44,"")</f>
         <v>0</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="18">
         <f>IFERROR(Calculations!J44,"")</f>
         <v>0</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44" s="20">
         <f>IFERROR(Calculations!K44,"")</f>
         <v>277704.21776891453</v>
       </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="23"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="22"/>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17">
@@ -5536,37 +5533,37 @@
         <f>IFERROR(Calculations!C45,"")</f>
         <v>65238.659191462219</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="23">
         <f>IFERROR(Calculations!F45,"")</f>
         <v>277704.21776891453</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="18">
         <f>IFERROR(Calculations!G45,"")</f>
         <v>17356.513610557158</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="23">
         <f>IFERROR(Calculations!H45,"")</f>
         <v>15000</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20">
+      <c r="I45" s="23"/>
+      <c r="J45" s="23">
         <f>IFERROR(Calculations!I45,"")</f>
         <v>0</v>
       </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
       <c r="M45" s="18">
         <f>IFERROR(Calculations!J45,"")</f>
         <v>0</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="20">
         <f>IFERROR(Calculations!K45,"")</f>
         <v>310060.73137947172</v>
       </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="22"/>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17">
@@ -5577,37 +5574,37 @@
         <f>IFERROR(Calculations!C46,"")</f>
         <v>67195.818967206083</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="23">
         <f>IFERROR(Calculations!F46,"")</f>
         <v>310060.73137947172</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="18">
         <f>IFERROR(Calculations!G46,"")</f>
         <v>19378.795711216982</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="23">
         <f>IFERROR(Calculations!H46,"")</f>
         <v>15000</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20">
+      <c r="I46" s="23"/>
+      <c r="J46" s="23">
         <f>IFERROR(Calculations!I46,"")</f>
         <v>0</v>
       </c>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
       <c r="M46" s="18">
         <f>IFERROR(Calculations!J46,"")</f>
         <v>0</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="20">
         <f>IFERROR(Calculations!K46,"")</f>
         <v>344439.5270906887</v>
       </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="22"/>
     </row>
     <row r="47" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17">
@@ -5618,37 +5615,37 @@
         <f>IFERROR(Calculations!C47,"")</f>
         <v>69211.693536222272</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="23">
         <f>IFERROR(Calculations!F47,"")</f>
         <v>344439.5270906887</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="18">
         <f>IFERROR(Calculations!G47,"")</f>
         <v>21527.470443168044</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="23">
         <f>IFERROR(Calculations!H47,"")</f>
         <v>15000</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20">
+      <c r="I47" s="23"/>
+      <c r="J47" s="23">
         <f>IFERROR(Calculations!I47,"")</f>
         <v>0</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
       <c r="M47" s="18">
         <f>IFERROR(Calculations!J47,"")</f>
         <v>0</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47" s="20">
         <f>IFERROR(Calculations!K47,"")</f>
         <v>380966.99753385677</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="23"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="22"/>
     </row>
     <row r="48" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="17">
@@ -5659,37 +5656,37 @@
         <f>IFERROR(Calculations!C48,"")</f>
         <v>71288.044342308945</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="23">
         <f>IFERROR(Calculations!F48,"")</f>
         <v>380966.99753385677</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="18">
         <f>IFERROR(Calculations!G48,"")</f>
         <v>23810.437345866048</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="23">
         <f>IFERROR(Calculations!H48,"")</f>
         <v>15000</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20">
+      <c r="I48" s="23"/>
+      <c r="J48" s="23">
         <f>IFERROR(Calculations!I48,"")</f>
         <v>0</v>
       </c>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
       <c r="M48" s="18">
         <f>IFERROR(Calculations!J48,"")</f>
         <v>0</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N48" s="20">
         <f>IFERROR(Calculations!K48,"")</f>
         <v>419777.43487972283</v>
       </c>
-      <c r="O48" s="22"/>
-      <c r="P48" s="23"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
     </row>
     <row r="49" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="17">
@@ -5700,37 +5697,37 @@
         <f>IFERROR(Calculations!C49,"")</f>
         <v>73426.685672578213</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="23">
         <f>IFERROR(Calculations!F49,"")</f>
         <v>419777.43487972283</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="18">
         <f>IFERROR(Calculations!G49,"")</f>
         <v>26236.089679982677</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="23">
         <f>IFERROR(Calculations!H49,"")</f>
         <v>15000</v>
       </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20">
+      <c r="I49" s="23"/>
+      <c r="J49" s="23">
         <f>IFERROR(Calculations!I49,"")</f>
         <v>0</v>
       </c>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
       <c r="M49" s="18">
         <f>IFERROR(Calculations!J49,"")</f>
         <v>0</v>
       </c>
-      <c r="N49" s="21">
+      <c r="N49" s="20">
         <f>IFERROR(Calculations!K49,"")</f>
         <v>461013.52455970552</v>
       </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
     </row>
     <row r="50" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -5741,37 +5738,37 @@
         <f>IFERROR(Calculations!C50,"")</f>
         <v>75629.486242755564</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="23">
         <f>IFERROR(Calculations!F50,"")</f>
         <v>461013.52455970552</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="18">
         <f>IFERROR(Calculations!G50,"")</f>
         <v>28813.345284981595</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="23">
         <f>IFERROR(Calculations!H50,"")</f>
         <v>15000</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20">
+      <c r="I50" s="23"/>
+      <c r="J50" s="23">
         <f>IFERROR(Calculations!I50,"")</f>
         <v>0</v>
       </c>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
       <c r="M50" s="18">
         <f>IFERROR(Calculations!J50,"")</f>
         <v>0</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50" s="20">
         <f>IFERROR(Calculations!K50,"")</f>
         <v>504826.86984468711</v>
       </c>
-      <c r="O50" s="22"/>
-      <c r="P50" s="23"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
     </row>
     <row r="51" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -5782,37 +5779,37 @@
         <f>IFERROR(Calculations!C51,"")</f>
         <v>77898.370830038228</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="23">
         <f>IFERROR(Calculations!F51,"")</f>
         <v>504826.86984468711</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="18">
         <f>IFERROR(Calculations!G51,"")</f>
         <v>31551.679365292945</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="23">
         <f>IFERROR(Calculations!H51,"")</f>
         <v>15000</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20">
+      <c r="I51" s="23"/>
+      <c r="J51" s="23">
         <f>IFERROR(Calculations!I51,"")</f>
         <v>0</v>
       </c>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
       <c r="M51" s="18">
         <f>IFERROR(Calculations!J51,"")</f>
         <v>0</v>
       </c>
-      <c r="N51" s="21">
+      <c r="N51" s="20">
         <f>IFERROR(Calculations!K51,"")</f>
         <v>551378.54920998006</v>
       </c>
-      <c r="O51" s="22"/>
-      <c r="P51" s="23"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
     </row>
     <row r="52" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="17">
@@ -5823,37 +5820,37 @@
         <f>IFERROR(Calculations!C52,"")</f>
         <v>80235.321954939369</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="23">
         <f>IFERROR(Calculations!F52,"")</f>
         <v>551378.54920998006</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="18">
         <f>IFERROR(Calculations!G52,"")</f>
         <v>34461.159325623754</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="23">
         <f>IFERROR(Calculations!H52,"")</f>
         <v>15000</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20">
+      <c r="I52" s="23"/>
+      <c r="J52" s="23">
         <f>IFERROR(Calculations!I52,"")</f>
         <v>0</v>
       </c>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
       <c r="M52" s="18">
         <f>IFERROR(Calculations!J52,"")</f>
         <v>0</v>
       </c>
-      <c r="N52" s="21">
+      <c r="N52" s="20">
         <f>IFERROR(Calculations!K52,"")</f>
         <v>600839.70853560383</v>
       </c>
-      <c r="O52" s="22"/>
-      <c r="P52" s="23"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="17">
@@ -5864,37 +5861,37 @@
         <f>IFERROR(Calculations!C53,"")</f>
         <v>82642.381613587553</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="23">
         <f>IFERROR(Calculations!F53,"")</f>
         <v>600839.70853560383</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
       <c r="G53" s="18">
         <f>IFERROR(Calculations!G53,"")</f>
         <v>37552.481783475239</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="23">
         <f>IFERROR(Calculations!H53,"")</f>
         <v>15000</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20">
+      <c r="I53" s="23"/>
+      <c r="J53" s="23">
         <f>IFERROR(Calculations!I53,"")</f>
         <v>0</v>
       </c>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
       <c r="M53" s="18">
         <f>IFERROR(Calculations!J53,"")</f>
         <v>0</v>
       </c>
-      <c r="N53" s="21">
+      <c r="N53" s="20">
         <f>IFERROR(Calculations!K53,"")</f>
         <v>653392.19031907909</v>
       </c>
-      <c r="O53" s="22"/>
-      <c r="P53" s="23"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="22"/>
     </row>
     <row r="54" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17">
@@ -5905,37 +5902,37 @@
         <f>IFERROR(Calculations!C54,"")</f>
         <v>85121.653061995181</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="23">
         <f>IFERROR(Calculations!F54,"")</f>
         <v>653392.19031907909</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
       <c r="G54" s="18">
         <f>IFERROR(Calculations!G54,"")</f>
         <v>40837.011894942443</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="23">
         <f>IFERROR(Calculations!H54,"")</f>
         <v>15000</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20">
+      <c r="I54" s="23"/>
+      <c r="J54" s="23">
         <f>IFERROR(Calculations!I54,"")</f>
         <v>0</v>
       </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
       <c r="M54" s="18">
         <f>IFERROR(Calculations!J54,"")</f>
         <v>0</v>
       </c>
-      <c r="N54" s="21">
+      <c r="N54" s="20">
         <f>IFERROR(Calculations!K54,"")</f>
         <v>709229.20221402158</v>
       </c>
-      <c r="O54" s="22"/>
-      <c r="P54" s="23"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="22"/>
     </row>
     <row r="55" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="17">
@@ -5946,37 +5943,37 @@
         <f>IFERROR(Calculations!C55,"")</f>
         <v>87675.302653855033</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="23">
         <f>IFERROR(Calculations!F55,"")</f>
         <v>709229.20221402158</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="18">
         <f>IFERROR(Calculations!G55,"")</f>
         <v>44326.825138376349</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="23">
         <f>IFERROR(Calculations!H55,"")</f>
         <v>15000</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20">
+      <c r="I55" s="23"/>
+      <c r="J55" s="23">
         <f>IFERROR(Calculations!I55,"")</f>
         <v>0</v>
       </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
       <c r="M55" s="18">
         <f>IFERROR(Calculations!J55,"")</f>
         <v>0</v>
       </c>
-      <c r="N55" s="21">
+      <c r="N55" s="20">
         <f>IFERROR(Calculations!K55,"")</f>
         <v>768556.02735239791</v>
       </c>
-      <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="22"/>
     </row>
     <row r="56" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
@@ -5987,37 +5984,37 @@
         <f>IFERROR(Calculations!C56,"")</f>
         <v>90305.561733470677</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="23">
         <f>IFERROR(Calculations!F56,"")</f>
         <v>768556.02735239791</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="18">
         <f>IFERROR(Calculations!G56,"")</f>
         <v>48034.75170952487</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="23">
         <f>IFERROR(Calculations!H56,"")</f>
         <v>15000</v>
       </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20">
+      <c r="I56" s="23"/>
+      <c r="J56" s="23">
         <f>IFERROR(Calculations!I56,"")</f>
         <v>0</v>
       </c>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
       <c r="M56" s="18">
         <f>IFERROR(Calculations!J56,"")</f>
         <v>0</v>
       </c>
-      <c r="N56" s="21">
+      <c r="N56" s="20">
         <f>IFERROR(Calculations!K56,"")</f>
         <v>831590.7790619228</v>
       </c>
-      <c r="O56" s="22"/>
-      <c r="P56" s="23"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="22"/>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
@@ -6028,37 +6025,37 @@
         <f>IFERROR(Calculations!C57,"")</f>
         <v>93014.728585474804</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="23">
         <f>IFERROR(Calculations!F57,"")</f>
         <v>831590.7790619228</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="18">
         <f>IFERROR(Calculations!G57,"")</f>
         <v>51974.423691370175</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="23">
         <f>IFERROR(Calculations!H57,"")</f>
         <v>15000</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20">
+      <c r="I57" s="23"/>
+      <c r="J57" s="23">
         <f>IFERROR(Calculations!I57,"")</f>
         <v>0</v>
       </c>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
       <c r="M57" s="18">
         <f>IFERROR(Calculations!J57,"")</f>
         <v>0</v>
       </c>
-      <c r="N57" s="21">
+      <c r="N57" s="20">
         <f>IFERROR(Calculations!K57,"")</f>
         <v>898565.20275329298</v>
       </c>
-      <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="22"/>
     </row>
     <row r="58" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
@@ -6069,37 +6066,37 @@
         <f>IFERROR(Calculations!C58,"")</f>
         <v>95805.170443039053</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="23">
         <f>IFERROR(Calculations!F58,"")</f>
         <v>898565.20275329298</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="18">
         <f>IFERROR(Calculations!G58,"")</f>
         <v>56160.325172080811</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="23">
         <f>IFERROR(Calculations!H58,"")</f>
         <v>15000</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20">
+      <c r="I58" s="23"/>
+      <c r="J58" s="23">
         <f>IFERROR(Calculations!I58,"")</f>
         <v>0</v>
       </c>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
       <c r="M58" s="18">
         <f>IFERROR(Calculations!J58,"")</f>
         <v>0</v>
       </c>
-      <c r="N58" s="21">
+      <c r="N58" s="20">
         <f>IFERROR(Calculations!K58,"")</f>
         <v>969725.52792537375</v>
       </c>
-      <c r="O58" s="22"/>
-      <c r="P58" s="23"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="22"/>
     </row>
     <row r="59" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="17">
@@ -6110,37 +6107,37 @@
         <f>IFERROR(Calculations!C59,"")</f>
         <v>98679.325556330223</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="23">
         <f>IFERROR(Calculations!F59,"")</f>
         <v>969725.52792537375</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
       <c r="G59" s="18">
         <f>IFERROR(Calculations!G59,"")</f>
         <v>60607.84549533586</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="23">
         <f>IFERROR(Calculations!H59,"")</f>
         <v>15000</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20">
+      <c r="I59" s="23"/>
+      <c r="J59" s="23">
         <f>IFERROR(Calculations!I59,"")</f>
         <v>0</v>
       </c>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
       <c r="M59" s="18">
         <f>IFERROR(Calculations!J59,"")</f>
         <v>0</v>
       </c>
-      <c r="N59" s="21">
+      <c r="N59" s="20">
         <f>IFERROR(Calculations!K59,"")</f>
         <v>1045333.3734207096</v>
       </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="23"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="22"/>
     </row>
     <row r="60" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="17">
@@ -6151,37 +6148,37 @@
         <f>IFERROR(Calculations!C60,"")</f>
         <v>101639.70532302013</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="23">
         <f>IFERROR(Calculations!F60,"")</f>
         <v>1045333.3734207096</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="18">
         <f>IFERROR(Calculations!G60,"")</f>
         <v>65333.335838794352</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="23">
         <f>IFERROR(Calculations!H60,"")</f>
         <v>15000</v>
       </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20">
+      <c r="I60" s="23"/>
+      <c r="J60" s="23">
         <f>IFERROR(Calculations!I60,"")</f>
         <v>0</v>
       </c>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
       <c r="M60" s="18">
         <f>IFERROR(Calculations!J60,"")</f>
         <v>0</v>
       </c>
-      <c r="N60" s="21">
+      <c r="N60" s="20">
         <f>IFERROR(Calculations!K60,"")</f>
         <v>1125666.709259504</v>
       </c>
-      <c r="O60" s="22"/>
-      <c r="P60" s="23"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="22"/>
     </row>
     <row r="61" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="17">
@@ -6192,37 +6189,37 @@
         <f>IFERROR(Calculations!C61,"")</f>
         <v>0</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="23">
         <f>IFERROR(Calculations!F61,"")</f>
         <v>1125666.709259504</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="18">
         <f>IFERROR(Calculations!G61,"")</f>
         <v>70354.169328718999</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="23">
         <f>IFERROR(Calculations!H61,"")</f>
         <v>0</v>
       </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20">
+      <c r="I61" s="23"/>
+      <c r="J61" s="23">
         <f>IFERROR(Calculations!I61,"")</f>
         <v>78516.672362033016</v>
       </c>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
       <c r="M61" s="18">
         <f>IFERROR(Calculations!J61,"")</f>
         <v>0</v>
       </c>
-      <c r="N61" s="21">
+      <c r="N61" s="20">
         <f>IFERROR(Calculations!K61,"")</f>
         <v>1117504.2062261899</v>
       </c>
-      <c r="O61" s="22"/>
-      <c r="P61" s="23"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="22"/>
     </row>
     <row r="62" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="17">
@@ -6233,37 +6230,37 @@
         <f>IFERROR(Calculations!C62,"")</f>
         <v>0</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="23">
         <f>IFERROR(Calculations!F62,"")</f>
         <v>1117504.2062261899</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
       <c r="G62" s="18">
         <f>IFERROR(Calculations!G62,"")</f>
         <v>69844.012889136866</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="23">
         <f>IFERROR(Calculations!H62,"")</f>
         <v>0</v>
       </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20">
+      <c r="I62" s="23"/>
+      <c r="J62" s="23">
         <f>IFERROR(Calculations!I62,"")</f>
         <v>80872.172532894023</v>
       </c>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
       <c r="M62" s="18">
         <f>IFERROR(Calculations!J62,"")</f>
         <v>0</v>
       </c>
-      <c r="N62" s="21">
+      <c r="N62" s="20">
         <f>IFERROR(Calculations!K62,"")</f>
         <v>1106476.0465824327</v>
       </c>
-      <c r="O62" s="22"/>
-      <c r="P62" s="23"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="22"/>
     </row>
     <row r="63" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="17">
@@ -6274,37 +6271,37 @@
         <f>IFERROR(Calculations!C63,"")</f>
         <v>0</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="23">
         <f>IFERROR(Calculations!F63,"")</f>
         <v>1106476.0465824327</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
       <c r="G63" s="18">
         <f>IFERROR(Calculations!G63,"")</f>
         <v>69154.752911402044</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="23">
         <f>IFERROR(Calculations!H63,"")</f>
         <v>0</v>
       </c>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20">
+      <c r="I63" s="23"/>
+      <c r="J63" s="23">
         <f>IFERROR(Calculations!I63,"")</f>
         <v>83298.337708880834</v>
       </c>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
       <c r="M63" s="18">
         <f>IFERROR(Calculations!J63,"")</f>
         <v>0</v>
       </c>
-      <c r="N63" s="21">
+      <c r="N63" s="20">
         <f>IFERROR(Calculations!K63,"")</f>
         <v>1092332.4617849539</v>
       </c>
-      <c r="O63" s="22"/>
-      <c r="P63" s="23"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="22"/>
     </row>
     <row r="64" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="17">
@@ -6315,37 +6312,37 @@
         <f>IFERROR(Calculations!C64,"")</f>
         <v>0</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="23">
         <f>IFERROR(Calculations!F64,"")</f>
         <v>1092332.4617849539</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="18">
         <f>IFERROR(Calculations!G64,"")</f>
         <v>68270.778861559622</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="23">
         <f>IFERROR(Calculations!H64,"")</f>
         <v>0</v>
       </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20">
+      <c r="I64" s="23"/>
+      <c r="J64" s="23">
         <f>IFERROR(Calculations!I64,"")</f>
         <v>85797.287840147255</v>
       </c>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
       <c r="M64" s="18">
         <f>IFERROR(Calculations!J64,"")</f>
         <v>0</v>
       </c>
-      <c r="N64" s="21">
+      <c r="N64" s="20">
         <f>IFERROR(Calculations!K64,"")</f>
         <v>1074805.9528063664</v>
       </c>
-      <c r="O64" s="22"/>
-      <c r="P64" s="23"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="22"/>
     </row>
     <row r="65" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="17">
@@ -6356,37 +6353,37 @@
         <f>IFERROR(Calculations!C65,"")</f>
         <v>0</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="23">
         <f>IFERROR(Calculations!F65,"")</f>
         <v>1074805.9528063664</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
       <c r="G65" s="18">
         <f>IFERROR(Calculations!G65,"")</f>
         <v>67175.372050397898</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="23">
         <f>IFERROR(Calculations!H65,"")</f>
         <v>0</v>
       </c>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20">
+      <c r="I65" s="23"/>
+      <c r="J65" s="23">
         <f>IFERROR(Calculations!I65,"")</f>
         <v>88371.206475351661</v>
       </c>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
       <c r="M65" s="18">
         <f>IFERROR(Calculations!J65,"")</f>
         <v>0</v>
       </c>
-      <c r="N65" s="21">
+      <c r="N65" s="20">
         <f>IFERROR(Calculations!K65,"")</f>
         <v>1053610.1183814125</v>
       </c>
-      <c r="O65" s="22"/>
-      <c r="P65" s="23"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="22"/>
     </row>
     <row r="66" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="17">
@@ -6397,37 +6394,37 @@
         <f>IFERROR(Calculations!C66,"")</f>
         <v>0</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="23">
         <f>IFERROR(Calculations!F66,"")</f>
         <v>1053610.1183814125</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="18">
         <f>IFERROR(Calculations!G66,"")</f>
         <v>65850.632398838279</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="23">
         <f>IFERROR(Calculations!H66,"")</f>
         <v>0</v>
       </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20">
+      <c r="I66" s="23"/>
+      <c r="J66" s="23">
         <f>IFERROR(Calculations!I66,"")</f>
         <v>91022.342669612219</v>
       </c>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
       <c r="M66" s="18">
         <f>IFERROR(Calculations!J66,"")</f>
         <v>0</v>
       </c>
-      <c r="N66" s="21">
+      <c r="N66" s="20">
         <f>IFERROR(Calculations!K66,"")</f>
         <v>1028438.4081106384</v>
       </c>
-      <c r="O66" s="22"/>
-      <c r="P66" s="23"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="22"/>
     </row>
     <row r="67" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="17">
@@ -6438,37 +6435,37 @@
         <f>IFERROR(Calculations!C67,"")</f>
         <v>0</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="23">
         <f>IFERROR(Calculations!F67,"")</f>
         <v>1028438.4081106384</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="18">
         <f>IFERROR(Calculations!G67,"")</f>
         <v>64277.400506914899</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="23">
         <f>IFERROR(Calculations!H67,"")</f>
         <v>0</v>
       </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20">
+      <c r="I67" s="23"/>
+      <c r="J67" s="23">
         <f>IFERROR(Calculations!I67,"")</f>
         <v>93753.012949700598</v>
       </c>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
       <c r="M67" s="18">
         <f>IFERROR(Calculations!J67,"")</f>
         <v>0</v>
       </c>
-      <c r="N67" s="21">
+      <c r="N67" s="20">
         <f>IFERROR(Calculations!K67,"")</f>
         <v>998962.79566785262</v>
       </c>
-      <c r="O67" s="22"/>
-      <c r="P67" s="23"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="22"/>
     </row>
     <row r="68" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="17">
@@ -6479,37 +6476,37 @@
         <f>IFERROR(Calculations!C68,"")</f>
         <v>0</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="23">
         <f>IFERROR(Calculations!F68,"")</f>
         <v>998962.79566785262</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
       <c r="G68" s="18">
         <f>IFERROR(Calculations!G68,"")</f>
         <v>62435.174729240789</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="23">
         <f>IFERROR(Calculations!H68,"")</f>
         <v>0</v>
       </c>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20">
+      <c r="I68" s="23"/>
+      <c r="J68" s="23">
         <f>IFERROR(Calculations!I68,"")</f>
         <v>96565.603338191591</v>
       </c>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
       <c r="M68" s="18">
         <f>IFERROR(Calculations!J68,"")</f>
         <v>0</v>
       </c>
-      <c r="N68" s="21">
+      <c r="N68" s="20">
         <f>IFERROR(Calculations!K68,"")</f>
         <v>964832.3670589017</v>
       </c>
-      <c r="O68" s="22"/>
-      <c r="P68" s="23"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="22"/>
     </row>
     <row r="69" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="17">
@@ -6520,37 +6517,37 @@
         <f>IFERROR(Calculations!C69,"")</f>
         <v>0</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="23">
         <f>IFERROR(Calculations!F69,"")</f>
         <v>964832.3670589017</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
       <c r="G69" s="18">
         <f>IFERROR(Calculations!G69,"")</f>
         <v>60302.022941181356</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="23">
         <f>IFERROR(Calculations!H69,"")</f>
         <v>0</v>
       </c>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20">
+      <c r="I69" s="23"/>
+      <c r="J69" s="23">
         <f>IFERROR(Calculations!I69,"")</f>
         <v>99462.571438337356</v>
       </c>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
       <c r="M69" s="18">
         <f>IFERROR(Calculations!J69,"")</f>
         <v>0</v>
       </c>
-      <c r="N69" s="21">
+      <c r="N69" s="20">
         <f>IFERROR(Calculations!K69,"")</f>
         <v>925671.81856174569</v>
       </c>
-      <c r="O69" s="22"/>
-      <c r="P69" s="23"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="22"/>
     </row>
     <row r="70" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="17">
@@ -6561,37 +6558,37 @@
         <f>IFERROR(Calculations!C70,"")</f>
         <v>0</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="23">
         <f>IFERROR(Calculations!F70,"")</f>
         <v>925671.81856174569</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="18">
         <f>IFERROR(Calculations!G70,"")</f>
         <v>57854.488660109106</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="23">
         <f>IFERROR(Calculations!H70,"")</f>
         <v>0</v>
       </c>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20">
+      <c r="I70" s="23"/>
+      <c r="J70" s="23">
         <f>IFERROR(Calculations!I70,"")</f>
         <v>102446.44858148745</v>
       </c>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
       <c r="M70" s="18">
         <f>IFERROR(Calculations!J70,"")</f>
         <v>0</v>
       </c>
-      <c r="N70" s="21">
+      <c r="N70" s="20">
         <f>IFERROR(Calculations!K70,"")</f>
         <v>881079.8586403674</v>
       </c>
-      <c r="O70" s="22"/>
-      <c r="P70" s="23"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="22"/>
     </row>
     <row r="71" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="17">
@@ -6602,37 +6599,37 @@
         <f>IFERROR(Calculations!C71,"")</f>
         <v>0</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="23">
         <f>IFERROR(Calculations!F71,"")</f>
         <v>881079.8586403674</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
       <c r="G71" s="18">
         <f>IFERROR(Calculations!G71,"")</f>
         <v>55067.491165022962</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="23">
         <f>IFERROR(Calculations!H71,"")</f>
         <v>0</v>
       </c>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20">
+      <c r="I71" s="23"/>
+      <c r="J71" s="23">
         <f>IFERROR(Calculations!I71,"")</f>
         <v>105519.8420389321</v>
       </c>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
       <c r="M71" s="18">
         <f>IFERROR(Calculations!J71,"")</f>
         <v>0</v>
       </c>
-      <c r="N71" s="21">
+      <c r="N71" s="20">
         <f>IFERROR(Calculations!K71,"")</f>
         <v>830627.50776645821</v>
       </c>
-      <c r="O71" s="22"/>
-      <c r="P71" s="23"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="22"/>
     </row>
     <row r="72" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="17">
@@ -6643,37 +6640,37 @@
         <f>IFERROR(Calculations!C72,"")</f>
         <v>0</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="23">
         <f>IFERROR(Calculations!F72,"")</f>
         <v>830627.50776645821</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
       <c r="G72" s="18">
         <f>IFERROR(Calculations!G72,"")</f>
         <v>51914.219235403638</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="23">
         <f>IFERROR(Calculations!H72,"")</f>
         <v>0</v>
       </c>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20">
+      <c r="I72" s="23"/>
+      <c r="J72" s="23">
         <f>IFERROR(Calculations!I72,"")</f>
         <v>108685.43730010005</v>
       </c>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
       <c r="M72" s="18">
         <f>IFERROR(Calculations!J72,"")</f>
         <v>0</v>
       </c>
-      <c r="N72" s="21">
+      <c r="N72" s="20">
         <f>IFERROR(Calculations!K72,"")</f>
         <v>773856.28970176191</v>
       </c>
-      <c r="O72" s="22"/>
-      <c r="P72" s="23"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="22"/>
     </row>
     <row r="73" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="17">
@@ -6684,37 +6681,37 @@
         <f>IFERROR(Calculations!C73,"")</f>
         <v>0</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="23">
         <f>IFERROR(Calculations!F73,"")</f>
         <v>773856.28970176191</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
       <c r="G73" s="18">
         <f>IFERROR(Calculations!G73,"")</f>
         <v>48366.018106360119</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="23">
         <f>IFERROR(Calculations!H73,"")</f>
         <v>0</v>
       </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20">
+      <c r="I73" s="23"/>
+      <c r="J73" s="23">
         <f>IFERROR(Calculations!I73,"")</f>
         <v>111946.00041910303</v>
       </c>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
       <c r="M73" s="18">
         <f>IFERROR(Calculations!J73,"")</f>
         <v>0</v>
       </c>
-      <c r="N73" s="21">
+      <c r="N73" s="20">
         <f>IFERROR(Calculations!K73,"")</f>
         <v>710276.30738901894</v>
       </c>
-      <c r="O73" s="22"/>
-      <c r="P73" s="23"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="22"/>
     </row>
     <row r="74" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="17">
@@ -6725,37 +6722,37 @@
         <f>IFERROR(Calculations!C74,"")</f>
         <v>0</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="23">
         <f>IFERROR(Calculations!F74,"")</f>
         <v>710276.30738901894</v>
       </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="18">
         <f>IFERROR(Calculations!G74,"")</f>
         <v>44392.269211813684</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="23">
         <f>IFERROR(Calculations!H74,"")</f>
         <v>0</v>
       </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20">
+      <c r="I74" s="23"/>
+      <c r="J74" s="23">
         <f>IFERROR(Calculations!I74,"")</f>
         <v>115304.38043167612</v>
       </c>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
       <c r="M74" s="18">
         <f>IFERROR(Calculations!J74,"")</f>
         <v>0</v>
       </c>
-      <c r="N74" s="21">
+      <c r="N74" s="20">
         <f>IFERROR(Calculations!K74,"")</f>
         <v>639364.19616915646</v>
       </c>
-      <c r="O74" s="22"/>
-      <c r="P74" s="23"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="22"/>
     </row>
     <row r="75" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="17">
@@ -6766,37 +6763,37 @@
         <f>IFERROR(Calculations!C75,"")</f>
         <v>0</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="23">
         <f>IFERROR(Calculations!F75,"")</f>
         <v>639364.19616915646</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
       <c r="G75" s="18">
         <f>IFERROR(Calculations!G75,"")</f>
         <v>39960.262260572279</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="23">
         <f>IFERROR(Calculations!H75,"")</f>
         <v>0</v>
       </c>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20">
+      <c r="I75" s="23"/>
+      <c r="J75" s="23">
         <f>IFERROR(Calculations!I75,"")</f>
         <v>118763.51184462642</v>
       </c>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
       <c r="M75" s="18">
         <f>IFERROR(Calculations!J75,"")</f>
         <v>0</v>
       </c>
-      <c r="N75" s="21">
+      <c r="N75" s="20">
         <f>IFERROR(Calculations!K75,"")</f>
         <v>560560.94658510236</v>
       </c>
-      <c r="O75" s="22"/>
-      <c r="P75" s="23"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="22"/>
     </row>
     <row r="76" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="17">
@@ -6807,37 +6804,37 @@
         <f>IFERROR(Calculations!C76,"")</f>
         <v>0</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="23">
         <f>IFERROR(Calculations!F76,"")</f>
         <v>560560.94658510236</v>
       </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
       <c r="G76" s="18">
         <f>IFERROR(Calculations!G76,"")</f>
         <v>35035.059161568897</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="23">
         <f>IFERROR(Calculations!H76,"")</f>
         <v>0</v>
       </c>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20">
+      <c r="I76" s="23"/>
+      <c r="J76" s="23">
         <f>IFERROR(Calculations!I76,"")</f>
         <v>122326.4171999652</v>
       </c>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
       <c r="M76" s="18">
         <f>IFERROR(Calculations!J76,"")</f>
         <v>0</v>
       </c>
-      <c r="N76" s="21">
+      <c r="N76" s="20">
         <f>IFERROR(Calculations!K76,"")</f>
         <v>473269.58854670601</v>
       </c>
-      <c r="O76" s="22"/>
-      <c r="P76" s="23"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="22"/>
     </row>
     <row r="77" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="17">
@@ -6848,37 +6845,37 @@
         <f>IFERROR(Calculations!C77,"")</f>
         <v>0</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="23">
         <f>IFERROR(Calculations!F77,"")</f>
         <v>473269.58854670601</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
       <c r="G77" s="18">
         <f>IFERROR(Calculations!G77,"")</f>
         <v>29579.349284169126</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="23">
         <f>IFERROR(Calculations!H77,"")</f>
         <v>0</v>
       </c>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20">
+      <c r="I77" s="23"/>
+      <c r="J77" s="23">
         <f>IFERROR(Calculations!I77,"")</f>
         <v>125996.20971596417</v>
       </c>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
       <c r="M77" s="18">
         <f>IFERROR(Calculations!J77,"")</f>
         <v>0</v>
       </c>
-      <c r="N77" s="21">
+      <c r="N77" s="20">
         <f>IFERROR(Calculations!K77,"")</f>
         <v>376852.72811491101</v>
       </c>
-      <c r="O77" s="22"/>
-      <c r="P77" s="23"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="17">
@@ -6889,37 +6886,37 @@
         <f>IFERROR(Calculations!C78,"")</f>
         <v>0</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="23">
         <f>IFERROR(Calculations!F78,"")</f>
         <v>376852.72811491101</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
       <c r="G78" s="18">
         <f>IFERROR(Calculations!G78,"")</f>
         <v>23553.295507181938</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="23">
         <f>IFERROR(Calculations!H78,"")</f>
         <v>0</v>
       </c>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20">
+      <c r="I78" s="23"/>
+      <c r="J78" s="23">
         <f>IFERROR(Calculations!I78,"")</f>
         <v>129776.09600744309</v>
       </c>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
       <c r="M78" s="18">
         <f>IFERROR(Calculations!J78,"")</f>
         <v>0</v>
       </c>
-      <c r="N78" s="21">
+      <c r="N78" s="20">
         <f>IFERROR(Calculations!K78,"")</f>
         <v>270629.92761464987</v>
       </c>
-      <c r="O78" s="22"/>
-      <c r="P78" s="23"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="17">
@@ -6930,37 +6927,37 @@
         <f>IFERROR(Calculations!C79,"")</f>
         <v>0</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="23">
         <f>IFERROR(Calculations!F79,"")</f>
         <v>270629.92761464987</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
       <c r="G79" s="18">
         <f>IFERROR(Calculations!G79,"")</f>
         <v>16914.370475915617</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="23">
         <f>IFERROR(Calculations!H79,"")</f>
         <v>0</v>
       </c>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20">
+      <c r="I79" s="23"/>
+      <c r="J79" s="23">
         <f>IFERROR(Calculations!I79,"")</f>
         <v>133669.37888766639</v>
       </c>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
       <c r="M79" s="18">
         <f>IFERROR(Calculations!J79,"")</f>
         <v>0</v>
       </c>
-      <c r="N79" s="21">
+      <c r="N79" s="20">
         <f>IFERROR(Calculations!K79,"")</f>
         <v>153874.91920289909</v>
       </c>
-      <c r="O79" s="22"/>
-      <c r="P79" s="23"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="17">
@@ -6971,37 +6968,37 @@
         <f>IFERROR(Calculations!C80,"")</f>
         <v>0</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="23">
         <f>IFERROR(Calculations!F80,"")</f>
         <v>153874.91920289909</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
       <c r="G80" s="18">
         <f>IFERROR(Calculations!G80,"")</f>
         <v>9617.1824501811934</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="23">
         <f>IFERROR(Calculations!H80,"")</f>
         <v>0</v>
       </c>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20">
+      <c r="I80" s="23"/>
+      <c r="J80" s="23">
         <f>IFERROR(Calculations!I80,"")</f>
         <v>137679.46025429637</v>
       </c>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
       <c r="M80" s="18">
         <f>IFERROR(Calculations!J80,"")</f>
         <v>0</v>
       </c>
-      <c r="N80" s="21">
+      <c r="N80" s="20">
         <f>IFERROR(Calculations!K80,"")</f>
         <v>25812.641398783919</v>
       </c>
-      <c r="O80" s="22"/>
-      <c r="P80" s="23"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="22"/>
     </row>
     <row r="81" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="17" t="str">
@@ -7012,37 +7009,37 @@
         <f>IFERROR(Calculations!C81,"")</f>
         <v/>
       </c>
-      <c r="D81" s="20" t="str">
+      <c r="D81" s="23" t="str">
         <f>IFERROR(Calculations!F81,"")</f>
         <v/>
       </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
       <c r="G81" s="18" t="str">
         <f>IFERROR(Calculations!G81,"")</f>
         <v/>
       </c>
-      <c r="H81" s="20" t="str">
+      <c r="H81" s="23" t="str">
         <f>IFERROR(Calculations!H81,"")</f>
         <v/>
       </c>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20" t="str">
+      <c r="I81" s="23"/>
+      <c r="J81" s="23" t="str">
         <f>IFERROR(Calculations!I81,"")</f>
         <v/>
       </c>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
       <c r="M81" s="18" t="str">
         <f>IFERROR(Calculations!J81,"")</f>
         <v/>
       </c>
-      <c r="N81" s="21" t="str">
+      <c r="N81" s="20" t="str">
         <f>IFERROR(Calculations!K81,"")</f>
         <v/>
       </c>
-      <c r="O81" s="22"/>
-      <c r="P81" s="23"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="22"/>
     </row>
     <row r="82" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="17" t="str">
@@ -7053,37 +7050,37 @@
         <f>IFERROR(Calculations!C82,"")</f>
         <v/>
       </c>
-      <c r="D82" s="20" t="str">
+      <c r="D82" s="23" t="str">
         <f>IFERROR(Calculations!F82,"")</f>
         <v/>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
       <c r="G82" s="18" t="str">
         <f>IFERROR(Calculations!G82,"")</f>
         <v/>
       </c>
-      <c r="H82" s="20" t="str">
+      <c r="H82" s="23" t="str">
         <f>IFERROR(Calculations!H82,"")</f>
         <v/>
       </c>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20" t="str">
+      <c r="I82" s="23"/>
+      <c r="J82" s="23" t="str">
         <f>IFERROR(Calculations!I82,"")</f>
         <v/>
       </c>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
       <c r="M82" s="18" t="str">
         <f>IFERROR(Calculations!J82,"")</f>
         <v/>
       </c>
-      <c r="N82" s="21" t="str">
+      <c r="N82" s="20" t="str">
         <f>IFERROR(Calculations!K82,"")</f>
         <v/>
       </c>
-      <c r="O82" s="22"/>
-      <c r="P82" s="23"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="22"/>
     </row>
     <row r="83" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="17" t="str">
@@ -7094,37 +7091,37 @@
         <f>IFERROR(Calculations!C83,"")</f>
         <v/>
       </c>
-      <c r="D83" s="20" t="str">
+      <c r="D83" s="23" t="str">
         <f>IFERROR(Calculations!F83,"")</f>
         <v/>
       </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
       <c r="G83" s="18" t="str">
         <f>IFERROR(Calculations!G83,"")</f>
         <v/>
       </c>
-      <c r="H83" s="20" t="str">
+      <c r="H83" s="23" t="str">
         <f>IFERROR(Calculations!H83,"")</f>
         <v/>
       </c>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20" t="str">
+      <c r="I83" s="23"/>
+      <c r="J83" s="23" t="str">
         <f>IFERROR(Calculations!I83,"")</f>
         <v/>
       </c>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
       <c r="M83" s="18" t="str">
         <f>IFERROR(Calculations!J83,"")</f>
         <v/>
       </c>
-      <c r="N83" s="21" t="str">
+      <c r="N83" s="20" t="str">
         <f>IFERROR(Calculations!K83,"")</f>
         <v/>
       </c>
-      <c r="O83" s="22"/>
-      <c r="P83" s="23"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="22"/>
     </row>
     <row r="84" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="17" t="str">
@@ -7135,37 +7132,37 @@
         <f>IFERROR(Calculations!C84,"")</f>
         <v/>
       </c>
-      <c r="D84" s="20" t="str">
+      <c r="D84" s="23" t="str">
         <f>IFERROR(Calculations!F84,"")</f>
         <v/>
       </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
       <c r="G84" s="18" t="str">
         <f>IFERROR(Calculations!G84,"")</f>
         <v/>
       </c>
-      <c r="H84" s="20" t="str">
+      <c r="H84" s="23" t="str">
         <f>IFERROR(Calculations!H84,"")</f>
         <v/>
       </c>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20" t="str">
+      <c r="I84" s="23"/>
+      <c r="J84" s="23" t="str">
         <f>IFERROR(Calculations!I84,"")</f>
         <v/>
       </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
       <c r="M84" s="18" t="str">
         <f>IFERROR(Calculations!J84,"")</f>
         <v/>
       </c>
-      <c r="N84" s="21" t="str">
+      <c r="N84" s="20" t="str">
         <f>IFERROR(Calculations!K84,"")</f>
         <v/>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="23"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="22"/>
     </row>
     <row r="85" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="17" t="str">
@@ -7176,37 +7173,37 @@
         <f>IFERROR(Calculations!C85,"")</f>
         <v/>
       </c>
-      <c r="D85" s="20" t="str">
+      <c r="D85" s="23" t="str">
         <f>IFERROR(Calculations!F85,"")</f>
         <v/>
       </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
       <c r="G85" s="18" t="str">
         <f>IFERROR(Calculations!G85,"")</f>
         <v/>
       </c>
-      <c r="H85" s="20" t="str">
+      <c r="H85" s="23" t="str">
         <f>IFERROR(Calculations!H85,"")</f>
         <v/>
       </c>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20" t="str">
+      <c r="I85" s="23"/>
+      <c r="J85" s="23" t="str">
         <f>IFERROR(Calculations!I85,"")</f>
         <v/>
       </c>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
       <c r="M85" s="18" t="str">
         <f>IFERROR(Calculations!J85,"")</f>
         <v/>
       </c>
-      <c r="N85" s="21" t="str">
+      <c r="N85" s="20" t="str">
         <f>IFERROR(Calculations!K85,"")</f>
         <v/>
       </c>
-      <c r="O85" s="22"/>
-      <c r="P85" s="23"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="22"/>
     </row>
     <row r="86" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="17" t="str">
@@ -7217,37 +7214,37 @@
         <f>IFERROR(Calculations!C86,"")</f>
         <v/>
       </c>
-      <c r="D86" s="20" t="str">
+      <c r="D86" s="23" t="str">
         <f>IFERROR(Calculations!F86,"")</f>
         <v/>
       </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
       <c r="G86" s="18" t="str">
         <f>IFERROR(Calculations!G86,"")</f>
         <v/>
       </c>
-      <c r="H86" s="20" t="str">
+      <c r="H86" s="23" t="str">
         <f>IFERROR(Calculations!H86,"")</f>
         <v/>
       </c>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20" t="str">
+      <c r="I86" s="23"/>
+      <c r="J86" s="23" t="str">
         <f>IFERROR(Calculations!I86,"")</f>
         <v/>
       </c>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
       <c r="M86" s="18" t="str">
         <f>IFERROR(Calculations!J86,"")</f>
         <v/>
       </c>
-      <c r="N86" s="21" t="str">
+      <c r="N86" s="20" t="str">
         <f>IFERROR(Calculations!K86,"")</f>
         <v/>
       </c>
-      <c r="O86" s="22"/>
-      <c r="P86" s="23"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="22"/>
     </row>
     <row r="87" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="17" t="str">
@@ -7258,37 +7255,37 @@
         <f>IFERROR(Calculations!C87,"")</f>
         <v/>
       </c>
-      <c r="D87" s="20" t="str">
+      <c r="D87" s="23" t="str">
         <f>IFERROR(Calculations!F87,"")</f>
         <v/>
       </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
       <c r="G87" s="18" t="str">
         <f>IFERROR(Calculations!G87,"")</f>
         <v/>
       </c>
-      <c r="H87" s="20" t="str">
+      <c r="H87" s="23" t="str">
         <f>IFERROR(Calculations!H87,"")</f>
         <v/>
       </c>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20" t="str">
+      <c r="I87" s="23"/>
+      <c r="J87" s="23" t="str">
         <f>IFERROR(Calculations!I87,"")</f>
         <v/>
       </c>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
       <c r="M87" s="18" t="str">
         <f>IFERROR(Calculations!J87,"")</f>
         <v/>
       </c>
-      <c r="N87" s="21" t="str">
+      <c r="N87" s="20" t="str">
         <f>IFERROR(Calculations!K87,"")</f>
         <v/>
       </c>
-      <c r="O87" s="22"/>
-      <c r="P87" s="23"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="22"/>
     </row>
     <row r="88" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="17" t="str">
@@ -7299,37 +7296,37 @@
         <f>IFERROR(Calculations!C88,"")</f>
         <v/>
       </c>
-      <c r="D88" s="20" t="str">
+      <c r="D88" s="23" t="str">
         <f>IFERROR(Calculations!F88,"")</f>
         <v/>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
       <c r="G88" s="18" t="str">
         <f>IFERROR(Calculations!G88,"")</f>
         <v/>
       </c>
-      <c r="H88" s="20" t="str">
+      <c r="H88" s="23" t="str">
         <f>IFERROR(Calculations!H88,"")</f>
         <v/>
       </c>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20" t="str">
+      <c r="I88" s="23"/>
+      <c r="J88" s="23" t="str">
         <f>IFERROR(Calculations!I88,"")</f>
         <v/>
       </c>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
       <c r="M88" s="18" t="str">
         <f>IFERROR(Calculations!J88,"")</f>
         <v/>
       </c>
-      <c r="N88" s="21" t="str">
+      <c r="N88" s="20" t="str">
         <f>IFERROR(Calculations!K88,"")</f>
         <v/>
       </c>
-      <c r="O88" s="22"/>
-      <c r="P88" s="23"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="22"/>
     </row>
     <row r="89" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="17" t="str">
@@ -7340,37 +7337,37 @@
         <f>IFERROR(Calculations!C89,"")</f>
         <v/>
       </c>
-      <c r="D89" s="20" t="str">
+      <c r="D89" s="23" t="str">
         <f>IFERROR(Calculations!F89,"")</f>
         <v/>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="18" t="str">
         <f>IFERROR(Calculations!G89,"")</f>
         <v/>
       </c>
-      <c r="H89" s="20" t="str">
+      <c r="H89" s="23" t="str">
         <f>IFERROR(Calculations!H89,"")</f>
         <v/>
       </c>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20" t="str">
+      <c r="I89" s="23"/>
+      <c r="J89" s="23" t="str">
         <f>IFERROR(Calculations!I89,"")</f>
         <v/>
       </c>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
       <c r="M89" s="18" t="str">
         <f>IFERROR(Calculations!J89,"")</f>
         <v/>
       </c>
-      <c r="N89" s="21" t="str">
+      <c r="N89" s="20" t="str">
         <f>IFERROR(Calculations!K89,"")</f>
         <v/>
       </c>
-      <c r="O89" s="22"/>
-      <c r="P89" s="23"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="22"/>
     </row>
     <row r="90" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="17" t="str">
@@ -7381,37 +7378,37 @@
         <f>IFERROR(Calculations!C90,"")</f>
         <v/>
       </c>
-      <c r="D90" s="20" t="str">
+      <c r="D90" s="23" t="str">
         <f>IFERROR(Calculations!F90,"")</f>
         <v/>
       </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
       <c r="G90" s="18" t="str">
         <f>IFERROR(Calculations!G90,"")</f>
         <v/>
       </c>
-      <c r="H90" s="20" t="str">
+      <c r="H90" s="23" t="str">
         <f>IFERROR(Calculations!H90,"")</f>
         <v/>
       </c>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20" t="str">
+      <c r="I90" s="23"/>
+      <c r="J90" s="23" t="str">
         <f>IFERROR(Calculations!I90,"")</f>
         <v/>
       </c>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
       <c r="M90" s="18" t="str">
         <f>IFERROR(Calculations!J90,"")</f>
         <v/>
       </c>
-      <c r="N90" s="21" t="str">
+      <c r="N90" s="20" t="str">
         <f>IFERROR(Calculations!K90,"")</f>
         <v/>
       </c>
-      <c r="O90" s="22"/>
-      <c r="P90" s="23"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="22"/>
     </row>
     <row r="91" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="17" t="str">
@@ -7422,37 +7419,37 @@
         <f>IFERROR(Calculations!C91,"")</f>
         <v/>
       </c>
-      <c r="D91" s="20" t="str">
+      <c r="D91" s="23" t="str">
         <f>IFERROR(Calculations!F91,"")</f>
         <v/>
       </c>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
       <c r="G91" s="18" t="str">
         <f>IFERROR(Calculations!G91,"")</f>
         <v/>
       </c>
-      <c r="H91" s="20" t="str">
+      <c r="H91" s="23" t="str">
         <f>IFERROR(Calculations!H91,"")</f>
         <v/>
       </c>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20" t="str">
+      <c r="I91" s="23"/>
+      <c r="J91" s="23" t="str">
         <f>IFERROR(Calculations!I91,"")</f>
         <v/>
       </c>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
       <c r="M91" s="18" t="str">
         <f>IFERROR(Calculations!J91,"")</f>
         <v/>
       </c>
-      <c r="N91" s="21" t="str">
+      <c r="N91" s="20" t="str">
         <f>IFERROR(Calculations!K91,"")</f>
         <v/>
       </c>
-      <c r="O91" s="22"/>
-      <c r="P91" s="23"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="22"/>
     </row>
     <row r="92" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="17" t="str">
@@ -7463,37 +7460,37 @@
         <f>IFERROR(Calculations!C92,"")</f>
         <v/>
       </c>
-      <c r="D92" s="20" t="str">
+      <c r="D92" s="23" t="str">
         <f>IFERROR(Calculations!F92,"")</f>
         <v/>
       </c>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
       <c r="G92" s="18" t="str">
         <f>IFERROR(Calculations!G92,"")</f>
         <v/>
       </c>
-      <c r="H92" s="20" t="str">
+      <c r="H92" s="23" t="str">
         <f>IFERROR(Calculations!H92,"")</f>
         <v/>
       </c>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20" t="str">
+      <c r="I92" s="23"/>
+      <c r="J92" s="23" t="str">
         <f>IFERROR(Calculations!I92,"")</f>
         <v/>
       </c>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
       <c r="M92" s="18" t="str">
         <f>IFERROR(Calculations!J92,"")</f>
         <v/>
       </c>
-      <c r="N92" s="21" t="str">
+      <c r="N92" s="20" t="str">
         <f>IFERROR(Calculations!K92,"")</f>
         <v/>
       </c>
-      <c r="O92" s="22"/>
-      <c r="P92" s="23"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="22"/>
     </row>
     <row r="93" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="17" t="str">
@@ -7504,37 +7501,37 @@
         <f>IFERROR(Calculations!C93,"")</f>
         <v/>
       </c>
-      <c r="D93" s="20" t="str">
+      <c r="D93" s="23" t="str">
         <f>IFERROR(Calculations!F93,"")</f>
         <v/>
       </c>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
       <c r="G93" s="18" t="str">
         <f>IFERROR(Calculations!G93,"")</f>
         <v/>
       </c>
-      <c r="H93" s="20" t="str">
+      <c r="H93" s="23" t="str">
         <f>IFERROR(Calculations!H93,"")</f>
         <v/>
       </c>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20" t="str">
+      <c r="I93" s="23"/>
+      <c r="J93" s="23" t="str">
         <f>IFERROR(Calculations!I93,"")</f>
         <v/>
       </c>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
       <c r="M93" s="18" t="str">
         <f>IFERROR(Calculations!J93,"")</f>
         <v/>
       </c>
-      <c r="N93" s="21" t="str">
+      <c r="N93" s="20" t="str">
         <f>IFERROR(Calculations!K93,"")</f>
         <v/>
       </c>
-      <c r="O93" s="22"/>
-      <c r="P93" s="23"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="22"/>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="17" t="str">
@@ -7545,37 +7542,37 @@
         <f>IFERROR(Calculations!C94,"")</f>
         <v/>
       </c>
-      <c r="D94" s="20" t="str">
+      <c r="D94" s="23" t="str">
         <f>IFERROR(Calculations!F94,"")</f>
         <v/>
       </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="18" t="str">
         <f>IFERROR(Calculations!G94,"")</f>
         <v/>
       </c>
-      <c r="H94" s="20" t="str">
+      <c r="H94" s="23" t="str">
         <f>IFERROR(Calculations!H94,"")</f>
         <v/>
       </c>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20" t="str">
+      <c r="I94" s="23"/>
+      <c r="J94" s="23" t="str">
         <f>IFERROR(Calculations!I94,"")</f>
         <v/>
       </c>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
       <c r="M94" s="18" t="str">
         <f>IFERROR(Calculations!J94,"")</f>
         <v/>
       </c>
-      <c r="N94" s="21" t="str">
+      <c r="N94" s="20" t="str">
         <f>IFERROR(Calculations!K94,"")</f>
         <v/>
       </c>
-      <c r="O94" s="22"/>
-      <c r="P94" s="23"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="22"/>
     </row>
     <row r="95" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="17" t="str">
@@ -7586,37 +7583,37 @@
         <f>IFERROR(Calculations!C95,"")</f>
         <v/>
       </c>
-      <c r="D95" s="20" t="str">
+      <c r="D95" s="23" t="str">
         <f>IFERROR(Calculations!F95,"")</f>
         <v/>
       </c>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="18" t="str">
         <f>IFERROR(Calculations!G95,"")</f>
         <v/>
       </c>
-      <c r="H95" s="20" t="str">
+      <c r="H95" s="23" t="str">
         <f>IFERROR(Calculations!H95,"")</f>
         <v/>
       </c>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20" t="str">
+      <c r="I95" s="23"/>
+      <c r="J95" s="23" t="str">
         <f>IFERROR(Calculations!I95,"")</f>
         <v/>
       </c>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
       <c r="M95" s="18" t="str">
         <f>IFERROR(Calculations!J95,"")</f>
         <v/>
       </c>
-      <c r="N95" s="21" t="str">
+      <c r="N95" s="20" t="str">
         <f>IFERROR(Calculations!K95,"")</f>
         <v/>
       </c>
-      <c r="O95" s="22"/>
-      <c r="P95" s="23"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="22"/>
     </row>
     <row r="96" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="17" t="str">
@@ -7627,37 +7624,37 @@
         <f>IFERROR(Calculations!C96,"")</f>
         <v/>
       </c>
-      <c r="D96" s="20" t="str">
+      <c r="D96" s="23" t="str">
         <f>IFERROR(Calculations!F96,"")</f>
         <v/>
       </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
       <c r="G96" s="18" t="str">
         <f>IFERROR(Calculations!G96,"")</f>
         <v/>
       </c>
-      <c r="H96" s="20" t="str">
+      <c r="H96" s="23" t="str">
         <f>IFERROR(Calculations!H96,"")</f>
         <v/>
       </c>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20" t="str">
+      <c r="I96" s="23"/>
+      <c r="J96" s="23" t="str">
         <f>IFERROR(Calculations!I96,"")</f>
         <v/>
       </c>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
       <c r="M96" s="18" t="str">
         <f>IFERROR(Calculations!J96,"")</f>
         <v/>
       </c>
-      <c r="N96" s="21" t="str">
+      <c r="N96" s="20" t="str">
         <f>IFERROR(Calculations!K96,"")</f>
         <v/>
       </c>
-      <c r="O96" s="22"/>
-      <c r="P96" s="23"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="22"/>
     </row>
     <row r="97" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="17" t="str">
@@ -7668,37 +7665,37 @@
         <f>IFERROR(Calculations!C97,"")</f>
         <v/>
       </c>
-      <c r="D97" s="20" t="str">
+      <c r="D97" s="23" t="str">
         <f>IFERROR(Calculations!F97,"")</f>
         <v/>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
       <c r="G97" s="18" t="str">
         <f>IFERROR(Calculations!G97,"")</f>
         <v/>
       </c>
-      <c r="H97" s="20" t="str">
+      <c r="H97" s="23" t="str">
         <f>IFERROR(Calculations!H97,"")</f>
         <v/>
       </c>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20" t="str">
+      <c r="I97" s="23"/>
+      <c r="J97" s="23" t="str">
         <f>IFERROR(Calculations!I97,"")</f>
         <v/>
       </c>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
       <c r="M97" s="18" t="str">
         <f>IFERROR(Calculations!J97,"")</f>
         <v/>
       </c>
-      <c r="N97" s="21" t="str">
+      <c r="N97" s="20" t="str">
         <f>IFERROR(Calculations!K97,"")</f>
         <v/>
       </c>
-      <c r="O97" s="22"/>
-      <c r="P97" s="23"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="22"/>
     </row>
     <row r="98" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="17" t="str">
@@ -7709,37 +7706,37 @@
         <f>IFERROR(Calculations!C98,"")</f>
         <v/>
       </c>
-      <c r="D98" s="20" t="str">
+      <c r="D98" s="23" t="str">
         <f>IFERROR(Calculations!F98,"")</f>
         <v/>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
       <c r="G98" s="18" t="str">
         <f>IFERROR(Calculations!G98,"")</f>
         <v/>
       </c>
-      <c r="H98" s="20" t="str">
+      <c r="H98" s="23" t="str">
         <f>IFERROR(Calculations!H98,"")</f>
         <v/>
       </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20" t="str">
+      <c r="I98" s="23"/>
+      <c r="J98" s="23" t="str">
         <f>IFERROR(Calculations!I98,"")</f>
         <v/>
       </c>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
       <c r="M98" s="18" t="str">
         <f>IFERROR(Calculations!J98,"")</f>
         <v/>
       </c>
-      <c r="N98" s="21" t="str">
+      <c r="N98" s="20" t="str">
         <f>IFERROR(Calculations!K98,"")</f>
         <v/>
       </c>
-      <c r="O98" s="22"/>
-      <c r="P98" s="23"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="22"/>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="17" t="str">
@@ -7750,37 +7747,37 @@
         <f>IFERROR(Calculations!C99,"")</f>
         <v/>
       </c>
-      <c r="D99" s="20" t="str">
+      <c r="D99" s="23" t="str">
         <f>IFERROR(Calculations!F99,"")</f>
         <v/>
       </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
       <c r="G99" s="18" t="str">
         <f>IFERROR(Calculations!G99,"")</f>
         <v/>
       </c>
-      <c r="H99" s="20" t="str">
+      <c r="H99" s="23" t="str">
         <f>IFERROR(Calculations!H99,"")</f>
         <v/>
       </c>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20" t="str">
+      <c r="I99" s="23"/>
+      <c r="J99" s="23" t="str">
         <f>IFERROR(Calculations!I99,"")</f>
         <v/>
       </c>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
       <c r="M99" s="18" t="str">
         <f>IFERROR(Calculations!J99,"")</f>
         <v/>
       </c>
-      <c r="N99" s="21" t="str">
+      <c r="N99" s="20" t="str">
         <f>IFERROR(Calculations!K99,"")</f>
         <v/>
       </c>
-      <c r="O99" s="22"/>
-      <c r="P99" s="23"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="22"/>
     </row>
     <row r="100" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="17" t="str">
@@ -7791,37 +7788,37 @@
         <f>IFERROR(Calculations!C100,"")</f>
         <v/>
       </c>
-      <c r="D100" s="20" t="str">
+      <c r="D100" s="23" t="str">
         <f>IFERROR(Calculations!F100,"")</f>
         <v/>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
       <c r="G100" s="18" t="str">
         <f>IFERROR(Calculations!G100,"")</f>
         <v/>
       </c>
-      <c r="H100" s="20" t="str">
+      <c r="H100" s="23" t="str">
         <f>IFERROR(Calculations!H100,"")</f>
         <v/>
       </c>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20" t="str">
+      <c r="I100" s="23"/>
+      <c r="J100" s="23" t="str">
         <f>IFERROR(Calculations!I100,"")</f>
         <v/>
       </c>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
       <c r="M100" s="18" t="str">
         <f>IFERROR(Calculations!J100,"")</f>
         <v/>
       </c>
-      <c r="N100" s="21" t="str">
+      <c r="N100" s="20" t="str">
         <f>IFERROR(Calculations!K100,"")</f>
         <v/>
       </c>
-      <c r="O100" s="22"/>
-      <c r="P100" s="23"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="22"/>
     </row>
     <row r="101" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="17" t="str">
@@ -7832,37 +7829,37 @@
         <f>IFERROR(Calculations!C101,"")</f>
         <v/>
       </c>
-      <c r="D101" s="20" t="str">
+      <c r="D101" s="23" t="str">
         <f>IFERROR(Calculations!F101,"")</f>
         <v/>
       </c>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
       <c r="G101" s="18" t="str">
         <f>IFERROR(Calculations!G101,"")</f>
         <v/>
       </c>
-      <c r="H101" s="20" t="str">
+      <c r="H101" s="23" t="str">
         <f>IFERROR(Calculations!H101,"")</f>
         <v/>
       </c>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20" t="str">
+      <c r="I101" s="23"/>
+      <c r="J101" s="23" t="str">
         <f>IFERROR(Calculations!I101,"")</f>
         <v/>
       </c>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
       <c r="M101" s="18" t="str">
         <f>IFERROR(Calculations!J101,"")</f>
         <v/>
       </c>
-      <c r="N101" s="21" t="str">
+      <c r="N101" s="20" t="str">
         <f>IFERROR(Calculations!K101,"")</f>
         <v/>
       </c>
-      <c r="O101" s="22"/>
-      <c r="P101" s="23"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="22"/>
     </row>
     <row r="102" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="17" t="str">
@@ -7873,37 +7870,37 @@
         <f>IFERROR(Calculations!C102,"")</f>
         <v/>
       </c>
-      <c r="D102" s="20" t="str">
+      <c r="D102" s="23" t="str">
         <f>IFERROR(Calculations!F102,"")</f>
         <v/>
       </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
       <c r="G102" s="18" t="str">
         <f>IFERROR(Calculations!G102,"")</f>
         <v/>
       </c>
-      <c r="H102" s="20" t="str">
+      <c r="H102" s="23" t="str">
         <f>IFERROR(Calculations!H102,"")</f>
         <v/>
       </c>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20" t="str">
+      <c r="I102" s="23"/>
+      <c r="J102" s="23" t="str">
         <f>IFERROR(Calculations!I102,"")</f>
         <v/>
       </c>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
       <c r="M102" s="18" t="str">
         <f>IFERROR(Calculations!J102,"")</f>
         <v/>
       </c>
-      <c r="N102" s="21" t="str">
+      <c r="N102" s="20" t="str">
         <f>IFERROR(Calculations!K102,"")</f>
         <v/>
       </c>
-      <c r="O102" s="22"/>
-      <c r="P102" s="23"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="22"/>
     </row>
     <row r="103" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="17" t="str">
@@ -7914,37 +7911,37 @@
         <f>IFERROR(Calculations!C103,"")</f>
         <v/>
       </c>
-      <c r="D103" s="20" t="str">
+      <c r="D103" s="23" t="str">
         <f>IFERROR(Calculations!F103,"")</f>
         <v/>
       </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
       <c r="G103" s="18" t="str">
         <f>IFERROR(Calculations!G103,"")</f>
         <v/>
       </c>
-      <c r="H103" s="20" t="str">
+      <c r="H103" s="23" t="str">
         <f>IFERROR(Calculations!H103,"")</f>
         <v/>
       </c>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20" t="str">
+      <c r="I103" s="23"/>
+      <c r="J103" s="23" t="str">
         <f>IFERROR(Calculations!I103,"")</f>
         <v/>
       </c>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
       <c r="M103" s="18" t="str">
         <f>IFERROR(Calculations!J103,"")</f>
         <v/>
       </c>
-      <c r="N103" s="21" t="str">
+      <c r="N103" s="20" t="str">
         <f>IFERROR(Calculations!K103,"")</f>
         <v/>
       </c>
-      <c r="O103" s="22"/>
-      <c r="P103" s="23"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="22"/>
     </row>
     <row r="104" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="17" t="str">
@@ -7955,37 +7952,37 @@
         <f>IFERROR(Calculations!C104,"")</f>
         <v/>
       </c>
-      <c r="D104" s="20" t="str">
+      <c r="D104" s="23" t="str">
         <f>IFERROR(Calculations!F104,"")</f>
         <v/>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
       <c r="G104" s="18" t="str">
         <f>IFERROR(Calculations!G104,"")</f>
         <v/>
       </c>
-      <c r="H104" s="20" t="str">
+      <c r="H104" s="23" t="str">
         <f>IFERROR(Calculations!H104,"")</f>
         <v/>
       </c>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20" t="str">
+      <c r="I104" s="23"/>
+      <c r="J104" s="23" t="str">
         <f>IFERROR(Calculations!I104,"")</f>
         <v/>
       </c>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
       <c r="M104" s="18" t="str">
         <f>IFERROR(Calculations!J104,"")</f>
         <v/>
       </c>
-      <c r="N104" s="21" t="str">
+      <c r="N104" s="20" t="str">
         <f>IFERROR(Calculations!K104,"")</f>
         <v/>
       </c>
-      <c r="O104" s="22"/>
-      <c r="P104" s="23"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="22"/>
     </row>
     <row r="105" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="17" t="str">
@@ -7996,37 +7993,37 @@
         <f>IFERROR(Calculations!C105,"")</f>
         <v/>
       </c>
-      <c r="D105" s="20" t="str">
+      <c r="D105" s="23" t="str">
         <f>IFERROR(Calculations!F105,"")</f>
         <v/>
       </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
       <c r="G105" s="18" t="str">
         <f>IFERROR(Calculations!G105,"")</f>
         <v/>
       </c>
-      <c r="H105" s="20" t="str">
+      <c r="H105" s="23" t="str">
         <f>IFERROR(Calculations!H105,"")</f>
         <v/>
       </c>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20" t="str">
+      <c r="I105" s="23"/>
+      <c r="J105" s="23" t="str">
         <f>IFERROR(Calculations!I105,"")</f>
         <v/>
       </c>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
       <c r="M105" s="18" t="str">
         <f>IFERROR(Calculations!J105,"")</f>
         <v/>
       </c>
-      <c r="N105" s="21" t="str">
+      <c r="N105" s="20" t="str">
         <f>IFERROR(Calculations!K105,"")</f>
         <v/>
       </c>
-      <c r="O105" s="22"/>
-      <c r="P105" s="23"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="22"/>
     </row>
     <row r="106" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="17" t="str">
@@ -8037,37 +8034,37 @@
         <f>IFERROR(Calculations!C106,"")</f>
         <v/>
       </c>
-      <c r="D106" s="20" t="str">
+      <c r="D106" s="23" t="str">
         <f>IFERROR(Calculations!F106,"")</f>
         <v/>
       </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
       <c r="G106" s="18" t="str">
         <f>IFERROR(Calculations!G106,"")</f>
         <v/>
       </c>
-      <c r="H106" s="20" t="str">
+      <c r="H106" s="23" t="str">
         <f>IFERROR(Calculations!H106,"")</f>
         <v/>
       </c>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20" t="str">
+      <c r="I106" s="23"/>
+      <c r="J106" s="23" t="str">
         <f>IFERROR(Calculations!I106,"")</f>
         <v/>
       </c>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
       <c r="M106" s="18" t="str">
         <f>IFERROR(Calculations!J106,"")</f>
         <v/>
       </c>
-      <c r="N106" s="21" t="str">
+      <c r="N106" s="20" t="str">
         <f>IFERROR(Calculations!K106,"")</f>
         <v/>
       </c>
-      <c r="O106" s="22"/>
-      <c r="P106" s="23"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="22"/>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="17" t="str">
@@ -8078,37 +8075,37 @@
         <f>IFERROR(Calculations!C107,"")</f>
         <v/>
       </c>
-      <c r="D107" s="20" t="str">
+      <c r="D107" s="23" t="str">
         <f>IFERROR(Calculations!F107,"")</f>
         <v/>
       </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
       <c r="G107" s="18" t="str">
         <f>IFERROR(Calculations!G107,"")</f>
         <v/>
       </c>
-      <c r="H107" s="20" t="str">
+      <c r="H107" s="23" t="str">
         <f>IFERROR(Calculations!H107,"")</f>
         <v/>
       </c>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20" t="str">
+      <c r="I107" s="23"/>
+      <c r="J107" s="23" t="str">
         <f>IFERROR(Calculations!I107,"")</f>
         <v/>
       </c>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
       <c r="M107" s="18" t="str">
         <f>IFERROR(Calculations!J107,"")</f>
         <v/>
       </c>
-      <c r="N107" s="21" t="str">
+      <c r="N107" s="20" t="str">
         <f>IFERROR(Calculations!K107,"")</f>
         <v/>
       </c>
-      <c r="O107" s="22"/>
-      <c r="P107" s="23"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="22"/>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="17" t="str">
@@ -8119,37 +8116,37 @@
         <f>IFERROR(Calculations!C108,"")</f>
         <v/>
       </c>
-      <c r="D108" s="20" t="str">
+      <c r="D108" s="23" t="str">
         <f>IFERROR(Calculations!F108,"")</f>
         <v/>
       </c>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
       <c r="G108" s="18" t="str">
         <f>IFERROR(Calculations!G108,"")</f>
         <v/>
       </c>
-      <c r="H108" s="20" t="str">
+      <c r="H108" s="23" t="str">
         <f>IFERROR(Calculations!H108,"")</f>
         <v/>
       </c>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20" t="str">
+      <c r="I108" s="23"/>
+      <c r="J108" s="23" t="str">
         <f>IFERROR(Calculations!I108,"")</f>
         <v/>
       </c>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
       <c r="M108" s="18" t="str">
         <f>IFERROR(Calculations!J108,"")</f>
         <v/>
       </c>
-      <c r="N108" s="21" t="str">
+      <c r="N108" s="20" t="str">
         <f>IFERROR(Calculations!K108,"")</f>
         <v/>
       </c>
-      <c r="O108" s="22"/>
-      <c r="P108" s="23"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="22"/>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="17" t="str">
@@ -8160,37 +8157,37 @@
         <f>IFERROR(Calculations!C109,"")</f>
         <v/>
       </c>
-      <c r="D109" s="20" t="str">
+      <c r="D109" s="23" t="str">
         <f>IFERROR(Calculations!F109,"")</f>
         <v/>
       </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
       <c r="G109" s="18" t="str">
         <f>IFERROR(Calculations!G109,"")</f>
         <v/>
       </c>
-      <c r="H109" s="20" t="str">
+      <c r="H109" s="23" t="str">
         <f>IFERROR(Calculations!H109,"")</f>
         <v/>
       </c>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20" t="str">
+      <c r="I109" s="23"/>
+      <c r="J109" s="23" t="str">
         <f>IFERROR(Calculations!I109,"")</f>
         <v/>
       </c>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
       <c r="M109" s="18" t="str">
         <f>IFERROR(Calculations!J109,"")</f>
         <v/>
       </c>
-      <c r="N109" s="21" t="str">
+      <c r="N109" s="20" t="str">
         <f>IFERROR(Calculations!K109,"")</f>
         <v/>
       </c>
-      <c r="O109" s="22"/>
-      <c r="P109" s="23"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="22"/>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="17" t="str">
@@ -8201,37 +8198,37 @@
         <f>IFERROR(Calculations!C110,"")</f>
         <v/>
       </c>
-      <c r="D110" s="20" t="str">
+      <c r="D110" s="23" t="str">
         <f>IFERROR(Calculations!F110,"")</f>
         <v/>
       </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
       <c r="G110" s="18" t="str">
         <f>IFERROR(Calculations!G110,"")</f>
         <v/>
       </c>
-      <c r="H110" s="20" t="str">
+      <c r="H110" s="23" t="str">
         <f>IFERROR(Calculations!H110,"")</f>
         <v/>
       </c>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20" t="str">
+      <c r="I110" s="23"/>
+      <c r="J110" s="23" t="str">
         <f>IFERROR(Calculations!I110,"")</f>
         <v/>
       </c>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
       <c r="M110" s="18" t="str">
         <f>IFERROR(Calculations!J110,"")</f>
         <v/>
       </c>
-      <c r="N110" s="21" t="str">
+      <c r="N110" s="20" t="str">
         <f>IFERROR(Calculations!K110,"")</f>
         <v/>
       </c>
-      <c r="O110" s="22"/>
-      <c r="P110" s="23"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="22"/>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="17" t="str">
@@ -8242,37 +8239,37 @@
         <f>IFERROR(Calculations!C111,"")</f>
         <v/>
       </c>
-      <c r="D111" s="20" t="str">
+      <c r="D111" s="23" t="str">
         <f>IFERROR(Calculations!F111,"")</f>
         <v/>
       </c>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
       <c r="G111" s="18" t="str">
         <f>IFERROR(Calculations!G111,"")</f>
         <v/>
       </c>
-      <c r="H111" s="20" t="str">
+      <c r="H111" s="23" t="str">
         <f>IFERROR(Calculations!H111,"")</f>
         <v/>
       </c>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20" t="str">
+      <c r="I111" s="23"/>
+      <c r="J111" s="23" t="str">
         <f>IFERROR(Calculations!I111,"")</f>
         <v/>
       </c>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
       <c r="M111" s="18" t="str">
         <f>IFERROR(Calculations!J111,"")</f>
         <v/>
       </c>
-      <c r="N111" s="21" t="str">
+      <c r="N111" s="20" t="str">
         <f>IFERROR(Calculations!K111,"")</f>
         <v/>
       </c>
-      <c r="O111" s="22"/>
-      <c r="P111" s="23"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="22"/>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="17" t="str">
@@ -8283,37 +8280,37 @@
         <f>IFERROR(Calculations!C112,"")</f>
         <v/>
       </c>
-      <c r="D112" s="20" t="str">
+      <c r="D112" s="23" t="str">
         <f>IFERROR(Calculations!F112,"")</f>
         <v/>
       </c>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
       <c r="G112" s="18" t="str">
         <f>IFERROR(Calculations!G112,"")</f>
         <v/>
       </c>
-      <c r="H112" s="20" t="str">
+      <c r="H112" s="23" t="str">
         <f>IFERROR(Calculations!H112,"")</f>
         <v/>
       </c>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20" t="str">
+      <c r="I112" s="23"/>
+      <c r="J112" s="23" t="str">
         <f>IFERROR(Calculations!I112,"")</f>
         <v/>
       </c>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
       <c r="M112" s="18" t="str">
         <f>IFERROR(Calculations!J112,"")</f>
         <v/>
       </c>
-      <c r="N112" s="21" t="str">
+      <c r="N112" s="20" t="str">
         <f>IFERROR(Calculations!K112,"")</f>
         <v/>
       </c>
-      <c r="O112" s="22"/>
-      <c r="P112" s="23"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="22"/>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="17" t="str">
@@ -8324,37 +8321,37 @@
         <f>IFERROR(Calculations!C113,"")</f>
         <v/>
       </c>
-      <c r="D113" s="20" t="str">
+      <c r="D113" s="23" t="str">
         <f>IFERROR(Calculations!F113,"")</f>
         <v/>
       </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
       <c r="G113" s="18" t="str">
         <f>IFERROR(Calculations!G113,"")</f>
         <v/>
       </c>
-      <c r="H113" s="20" t="str">
+      <c r="H113" s="23" t="str">
         <f>IFERROR(Calculations!H113,"")</f>
         <v/>
       </c>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20" t="str">
+      <c r="I113" s="23"/>
+      <c r="J113" s="23" t="str">
         <f>IFERROR(Calculations!I113,"")</f>
         <v/>
       </c>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
       <c r="M113" s="18" t="str">
         <f>IFERROR(Calculations!J113,"")</f>
         <v/>
       </c>
-      <c r="N113" s="21" t="str">
+      <c r="N113" s="20" t="str">
         <f>IFERROR(Calculations!K113,"")</f>
         <v/>
       </c>
-      <c r="O113" s="22"/>
-      <c r="P113" s="23"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="22"/>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="17" t="str">
@@ -8365,37 +8362,37 @@
         <f>IFERROR(Calculations!C114,"")</f>
         <v/>
       </c>
-      <c r="D114" s="20" t="str">
+      <c r="D114" s="23" t="str">
         <f>IFERROR(Calculations!F114,"")</f>
         <v/>
       </c>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
       <c r="G114" s="18" t="str">
         <f>IFERROR(Calculations!G114,"")</f>
         <v/>
       </c>
-      <c r="H114" s="20" t="str">
+      <c r="H114" s="23" t="str">
         <f>IFERROR(Calculations!H114,"")</f>
         <v/>
       </c>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20" t="str">
+      <c r="I114" s="23"/>
+      <c r="J114" s="23" t="str">
         <f>IFERROR(Calculations!I114,"")</f>
         <v/>
       </c>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
       <c r="M114" s="18" t="str">
         <f>IFERROR(Calculations!J114,"")</f>
         <v/>
       </c>
-      <c r="N114" s="21" t="str">
+      <c r="N114" s="20" t="str">
         <f>IFERROR(Calculations!K114,"")</f>
         <v/>
       </c>
-      <c r="O114" s="22"/>
-      <c r="P114" s="23"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="22"/>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="17" t="str">
@@ -8406,37 +8403,37 @@
         <f>IFERROR(Calculations!C115,"")</f>
         <v/>
       </c>
-      <c r="D115" s="20" t="str">
+      <c r="D115" s="23" t="str">
         <f>IFERROR(Calculations!F115,"")</f>
         <v/>
       </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
       <c r="G115" s="18" t="str">
         <f>IFERROR(Calculations!G115,"")</f>
         <v/>
       </c>
-      <c r="H115" s="20" t="str">
+      <c r="H115" s="23" t="str">
         <f>IFERROR(Calculations!H115,"")</f>
         <v/>
       </c>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20" t="str">
+      <c r="I115" s="23"/>
+      <c r="J115" s="23" t="str">
         <f>IFERROR(Calculations!I115,"")</f>
         <v/>
       </c>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
       <c r="M115" s="18" t="str">
         <f>IFERROR(Calculations!J115,"")</f>
         <v/>
       </c>
-      <c r="N115" s="21" t="str">
+      <c r="N115" s="20" t="str">
         <f>IFERROR(Calculations!K115,"")</f>
         <v/>
       </c>
-      <c r="O115" s="22"/>
-      <c r="P115" s="23"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="22"/>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="17" t="str">
@@ -8447,37 +8444,37 @@
         <f>IFERROR(Calculations!C116,"")</f>
         <v/>
       </c>
-      <c r="D116" s="20" t="str">
+      <c r="D116" s="23" t="str">
         <f>IFERROR(Calculations!F116,"")</f>
         <v/>
       </c>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
       <c r="G116" s="18" t="str">
         <f>IFERROR(Calculations!G116,"")</f>
         <v/>
       </c>
-      <c r="H116" s="20" t="str">
+      <c r="H116" s="23" t="str">
         <f>IFERROR(Calculations!H116,"")</f>
         <v/>
       </c>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20" t="str">
+      <c r="I116" s="23"/>
+      <c r="J116" s="23" t="str">
         <f>IFERROR(Calculations!I116,"")</f>
         <v/>
       </c>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
       <c r="M116" s="18" t="str">
         <f>IFERROR(Calculations!J116,"")</f>
         <v/>
       </c>
-      <c r="N116" s="21" t="str">
+      <c r="N116" s="20" t="str">
         <f>IFERROR(Calculations!K116,"")</f>
         <v/>
       </c>
-      <c r="O116" s="22"/>
-      <c r="P116" s="23"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="22"/>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="17" t="str">
@@ -8488,37 +8485,37 @@
         <f>IFERROR(Calculations!C117,"")</f>
         <v/>
       </c>
-      <c r="D117" s="20" t="str">
+      <c r="D117" s="23" t="str">
         <f>IFERROR(Calculations!F117,"")</f>
         <v/>
       </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
       <c r="G117" s="18" t="str">
         <f>IFERROR(Calculations!G117,"")</f>
         <v/>
       </c>
-      <c r="H117" s="20" t="str">
+      <c r="H117" s="23" t="str">
         <f>IFERROR(Calculations!H117,"")</f>
         <v/>
       </c>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20" t="str">
+      <c r="I117" s="23"/>
+      <c r="J117" s="23" t="str">
         <f>IFERROR(Calculations!I117,"")</f>
         <v/>
       </c>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
       <c r="M117" s="18" t="str">
         <f>IFERROR(Calculations!J117,"")</f>
         <v/>
       </c>
-      <c r="N117" s="21" t="str">
+      <c r="N117" s="20" t="str">
         <f>IFERROR(Calculations!K117,"")</f>
         <v/>
       </c>
-      <c r="O117" s="22"/>
-      <c r="P117" s="23"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="22"/>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="17" t="str">
@@ -8529,37 +8526,37 @@
         <f>IFERROR(Calculations!C118,"")</f>
         <v/>
       </c>
-      <c r="D118" s="20" t="str">
+      <c r="D118" s="23" t="str">
         <f>IFERROR(Calculations!F118,"")</f>
         <v/>
       </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
       <c r="G118" s="18" t="str">
         <f>IFERROR(Calculations!G118,"")</f>
         <v/>
       </c>
-      <c r="H118" s="20" t="str">
+      <c r="H118" s="23" t="str">
         <f>IFERROR(Calculations!H118,"")</f>
         <v/>
       </c>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20" t="str">
+      <c r="I118" s="23"/>
+      <c r="J118" s="23" t="str">
         <f>IFERROR(Calculations!I118,"")</f>
         <v/>
       </c>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
       <c r="M118" s="18" t="str">
         <f>IFERROR(Calculations!J118,"")</f>
         <v/>
       </c>
-      <c r="N118" s="21" t="str">
+      <c r="N118" s="20" t="str">
         <f>IFERROR(Calculations!K118,"")</f>
         <v/>
       </c>
-      <c r="O118" s="22"/>
-      <c r="P118" s="23"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="22"/>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="17" t="str">
@@ -8570,37 +8567,37 @@
         <f>IFERROR(Calculations!C119,"")</f>
         <v/>
       </c>
-      <c r="D119" s="20" t="str">
+      <c r="D119" s="23" t="str">
         <f>IFERROR(Calculations!F119,"")</f>
         <v/>
       </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
       <c r="G119" s="18" t="str">
         <f>IFERROR(Calculations!G119,"")</f>
         <v/>
       </c>
-      <c r="H119" s="20" t="str">
+      <c r="H119" s="23" t="str">
         <f>IFERROR(Calculations!H119,"")</f>
         <v/>
       </c>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20" t="str">
+      <c r="I119" s="23"/>
+      <c r="J119" s="23" t="str">
         <f>IFERROR(Calculations!I119,"")</f>
         <v/>
       </c>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
       <c r="M119" s="18" t="str">
         <f>IFERROR(Calculations!J119,"")</f>
         <v/>
       </c>
-      <c r="N119" s="21" t="str">
+      <c r="N119" s="20" t="str">
         <f>IFERROR(Calculations!K119,"")</f>
         <v/>
       </c>
-      <c r="O119" s="22"/>
-      <c r="P119" s="23"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="22"/>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="17" t="str">
@@ -8611,37 +8608,37 @@
         <f>IFERROR(Calculations!C120,"")</f>
         <v/>
       </c>
-      <c r="D120" s="20" t="str">
+      <c r="D120" s="23" t="str">
         <f>IFERROR(Calculations!F120,"")</f>
         <v/>
       </c>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
       <c r="G120" s="18" t="str">
         <f>IFERROR(Calculations!G120,"")</f>
         <v/>
       </c>
-      <c r="H120" s="20" t="str">
+      <c r="H120" s="23" t="str">
         <f>IFERROR(Calculations!H120,"")</f>
         <v/>
       </c>
-      <c r="I120" s="20"/>
-      <c r="J120" s="20" t="str">
+      <c r="I120" s="23"/>
+      <c r="J120" s="23" t="str">
         <f>IFERROR(Calculations!I120,"")</f>
         <v/>
       </c>
-      <c r="K120" s="20"/>
-      <c r="L120" s="20"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
       <c r="M120" s="18" t="str">
         <f>IFERROR(Calculations!J120,"")</f>
         <v/>
       </c>
-      <c r="N120" s="21" t="str">
+      <c r="N120" s="20" t="str">
         <f>IFERROR(Calculations!K120,"")</f>
         <v/>
       </c>
-      <c r="O120" s="22"/>
-      <c r="P120" s="23"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="22"/>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="17" t="str">
@@ -8652,37 +8649,37 @@
         <f>IFERROR(Calculations!C121,"")</f>
         <v/>
       </c>
-      <c r="D121" s="20" t="str">
+      <c r="D121" s="23" t="str">
         <f>IFERROR(Calculations!F121,"")</f>
         <v/>
       </c>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
       <c r="G121" s="18" t="str">
         <f>IFERROR(Calculations!G121,"")</f>
         <v/>
       </c>
-      <c r="H121" s="20" t="str">
+      <c r="H121" s="23" t="str">
         <f>IFERROR(Calculations!H121,"")</f>
         <v/>
       </c>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20" t="str">
+      <c r="I121" s="23"/>
+      <c r="J121" s="23" t="str">
         <f>IFERROR(Calculations!I121,"")</f>
         <v/>
       </c>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
       <c r="M121" s="18" t="str">
         <f>IFERROR(Calculations!J121,"")</f>
         <v/>
       </c>
-      <c r="N121" s="21" t="str">
+      <c r="N121" s="20" t="str">
         <f>IFERROR(Calculations!K121,"")</f>
         <v/>
       </c>
-      <c r="O121" s="22"/>
-      <c r="P121" s="23"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="22"/>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="17" t="str">
@@ -8693,37 +8690,37 @@
         <f>IFERROR(Calculations!C122,"")</f>
         <v/>
       </c>
-      <c r="D122" s="20" t="str">
+      <c r="D122" s="23" t="str">
         <f>IFERROR(Calculations!F122,"")</f>
         <v/>
       </c>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
       <c r="G122" s="18" t="str">
         <f>IFERROR(Calculations!G122,"")</f>
         <v/>
       </c>
-      <c r="H122" s="20" t="str">
+      <c r="H122" s="23" t="str">
         <f>IFERROR(Calculations!H122,"")</f>
         <v/>
       </c>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20" t="str">
+      <c r="I122" s="23"/>
+      <c r="J122" s="23" t="str">
         <f>IFERROR(Calculations!I122,"")</f>
         <v/>
       </c>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
       <c r="M122" s="18" t="str">
         <f>IFERROR(Calculations!J122,"")</f>
         <v/>
       </c>
-      <c r="N122" s="21" t="str">
+      <c r="N122" s="20" t="str">
         <f>IFERROR(Calculations!K122,"")</f>
         <v/>
       </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="23"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="22"/>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="17" t="str">
@@ -8734,37 +8731,37 @@
         <f>IFERROR(Calculations!C123,"")</f>
         <v/>
       </c>
-      <c r="D123" s="20" t="str">
+      <c r="D123" s="23" t="str">
         <f>IFERROR(Calculations!F123,"")</f>
         <v/>
       </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
       <c r="G123" s="18" t="str">
         <f>IFERROR(Calculations!G123,"")</f>
         <v/>
       </c>
-      <c r="H123" s="20" t="str">
+      <c r="H123" s="23" t="str">
         <f>IFERROR(Calculations!H123,"")</f>
         <v/>
       </c>
-      <c r="I123" s="20"/>
-      <c r="J123" s="20" t="str">
+      <c r="I123" s="23"/>
+      <c r="J123" s="23" t="str">
         <f>IFERROR(Calculations!I123,"")</f>
         <v/>
       </c>
-      <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
       <c r="M123" s="18" t="str">
         <f>IFERROR(Calculations!J123,"")</f>
         <v/>
       </c>
-      <c r="N123" s="21" t="str">
+      <c r="N123" s="20" t="str">
         <f>IFERROR(Calculations!K123,"")</f>
         <v/>
       </c>
-      <c r="O123" s="22"/>
-      <c r="P123" s="23"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="22"/>
     </row>
     <row r="124" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="17" t="str">
@@ -8775,37 +8772,37 @@
         <f>IFERROR(Calculations!C124,"")</f>
         <v/>
       </c>
-      <c r="D124" s="20" t="str">
+      <c r="D124" s="23" t="str">
         <f>IFERROR(Calculations!F124,"")</f>
         <v/>
       </c>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
       <c r="G124" s="18" t="str">
         <f>IFERROR(Calculations!G124,"")</f>
         <v/>
       </c>
-      <c r="H124" s="20" t="str">
+      <c r="H124" s="23" t="str">
         <f>IFERROR(Calculations!H124,"")</f>
         <v/>
       </c>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20" t="str">
+      <c r="I124" s="23"/>
+      <c r="J124" s="23" t="str">
         <f>IFERROR(Calculations!I124,"")</f>
         <v/>
       </c>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
       <c r="M124" s="18" t="str">
         <f>IFERROR(Calculations!J124,"")</f>
         <v/>
       </c>
-      <c r="N124" s="21" t="str">
+      <c r="N124" s="20" t="str">
         <f>IFERROR(Calculations!K124,"")</f>
         <v/>
       </c>
-      <c r="O124" s="22"/>
-      <c r="P124" s="23"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="22"/>
     </row>
     <row r="125" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="17" t="str">
@@ -8816,37 +8813,37 @@
         <f>IFERROR(Calculations!C125,"")</f>
         <v/>
       </c>
-      <c r="D125" s="20" t="str">
+      <c r="D125" s="23" t="str">
         <f>IFERROR(Calculations!F125,"")</f>
         <v/>
       </c>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
       <c r="G125" s="18" t="str">
         <f>IFERROR(Calculations!G125,"")</f>
         <v/>
       </c>
-      <c r="H125" s="20" t="str">
+      <c r="H125" s="23" t="str">
         <f>IFERROR(Calculations!H125,"")</f>
         <v/>
       </c>
-      <c r="I125" s="20"/>
-      <c r="J125" s="20" t="str">
+      <c r="I125" s="23"/>
+      <c r="J125" s="23" t="str">
         <f>IFERROR(Calculations!I125,"")</f>
         <v/>
       </c>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
       <c r="M125" s="18" t="str">
         <f>IFERROR(Calculations!J125,"")</f>
         <v/>
       </c>
-      <c r="N125" s="21" t="str">
+      <c r="N125" s="20" t="str">
         <f>IFERROR(Calculations!K125,"")</f>
         <v/>
       </c>
-      <c r="O125" s="22"/>
-      <c r="P125" s="23"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="22"/>
     </row>
     <row r="126" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="17" t="str">
@@ -8857,37 +8854,37 @@
         <f>IFERROR(Calculations!C126,"")</f>
         <v/>
       </c>
-      <c r="D126" s="20" t="str">
+      <c r="D126" s="23" t="str">
         <f>IFERROR(Calculations!F126,"")</f>
         <v/>
       </c>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
       <c r="G126" s="18" t="str">
         <f>IFERROR(Calculations!G126,"")</f>
         <v/>
       </c>
-      <c r="H126" s="20" t="str">
+      <c r="H126" s="23" t="str">
         <f>IFERROR(Calculations!H126,"")</f>
         <v/>
       </c>
-      <c r="I126" s="20"/>
-      <c r="J126" s="20" t="str">
+      <c r="I126" s="23"/>
+      <c r="J126" s="23" t="str">
         <f>IFERROR(Calculations!I126,"")</f>
         <v/>
       </c>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
       <c r="M126" s="18" t="str">
         <f>IFERROR(Calculations!J126,"")</f>
         <v/>
       </c>
-      <c r="N126" s="21" t="str">
+      <c r="N126" s="20" t="str">
         <f>IFERROR(Calculations!K126,"")</f>
         <v/>
       </c>
-      <c r="O126" s="22"/>
-      <c r="P126" s="23"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="22"/>
     </row>
     <row r="127" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="str">
@@ -8898,37 +8895,37 @@
         <f>IFERROR(Calculations!C127,"")</f>
         <v/>
       </c>
-      <c r="D127" s="20" t="str">
+      <c r="D127" s="23" t="str">
         <f>IFERROR(Calculations!F127,"")</f>
         <v/>
       </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
       <c r="G127" s="18" t="str">
         <f>IFERROR(Calculations!G127,"")</f>
         <v/>
       </c>
-      <c r="H127" s="20" t="str">
+      <c r="H127" s="23" t="str">
         <f>IFERROR(Calculations!H127,"")</f>
         <v/>
       </c>
-      <c r="I127" s="20"/>
-      <c r="J127" s="20" t="str">
+      <c r="I127" s="23"/>
+      <c r="J127" s="23" t="str">
         <f>IFERROR(Calculations!I127,"")</f>
         <v/>
       </c>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
       <c r="M127" s="18" t="str">
         <f>IFERROR(Calculations!J127,"")</f>
         <v/>
       </c>
-      <c r="N127" s="21" t="str">
+      <c r="N127" s="20" t="str">
         <f>IFERROR(Calculations!K127,"")</f>
         <v/>
       </c>
-      <c r="O127" s="22"/>
-      <c r="P127" s="23"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="22"/>
     </row>
     <row r="128" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="17" t="str">
@@ -8939,37 +8936,37 @@
         <f>IFERROR(Calculations!C128,"")</f>
         <v/>
       </c>
-      <c r="D128" s="20" t="str">
+      <c r="D128" s="23" t="str">
         <f>IFERROR(Calculations!F128,"")</f>
         <v/>
       </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
       <c r="G128" s="18" t="str">
         <f>IFERROR(Calculations!G128,"")</f>
         <v/>
       </c>
-      <c r="H128" s="20" t="str">
+      <c r="H128" s="23" t="str">
         <f>IFERROR(Calculations!H128,"")</f>
         <v/>
       </c>
-      <c r="I128" s="20"/>
-      <c r="J128" s="20" t="str">
+      <c r="I128" s="23"/>
+      <c r="J128" s="23" t="str">
         <f>IFERROR(Calculations!I128,"")</f>
         <v/>
       </c>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
       <c r="M128" s="18" t="str">
         <f>IFERROR(Calculations!J128,"")</f>
         <v/>
       </c>
-      <c r="N128" s="21" t="str">
+      <c r="N128" s="20" t="str">
         <f>IFERROR(Calculations!K128,"")</f>
         <v/>
       </c>
-      <c r="O128" s="22"/>
-      <c r="P128" s="23"/>
+      <c r="O128" s="21"/>
+      <c r="P128" s="22"/>
     </row>
     <row r="129" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="17" t="str">
@@ -8980,37 +8977,37 @@
         <f>IFERROR(Calculations!C129,"")</f>
         <v/>
       </c>
-      <c r="D129" s="20" t="str">
+      <c r="D129" s="23" t="str">
         <f>IFERROR(Calculations!F129,"")</f>
         <v/>
       </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
       <c r="G129" s="18" t="str">
         <f>IFERROR(Calculations!G129,"")</f>
         <v/>
       </c>
-      <c r="H129" s="20" t="str">
+      <c r="H129" s="23" t="str">
         <f>IFERROR(Calculations!H129,"")</f>
         <v/>
       </c>
-      <c r="I129" s="20"/>
-      <c r="J129" s="20" t="str">
+      <c r="I129" s="23"/>
+      <c r="J129" s="23" t="str">
         <f>IFERROR(Calculations!I129,"")</f>
         <v/>
       </c>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
       <c r="M129" s="18" t="str">
         <f>IFERROR(Calculations!J129,"")</f>
         <v/>
       </c>
-      <c r="N129" s="21" t="str">
+      <c r="N129" s="20" t="str">
         <f>IFERROR(Calculations!K129,"")</f>
         <v/>
       </c>
-      <c r="O129" s="22"/>
-      <c r="P129" s="23"/>
+      <c r="O129" s="21"/>
+      <c r="P129" s="22"/>
     </row>
     <row r="130" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="17" t="str">
@@ -9021,37 +9018,37 @@
         <f>IFERROR(Calculations!C130,"")</f>
         <v/>
       </c>
-      <c r="D130" s="20" t="str">
+      <c r="D130" s="23" t="str">
         <f>IFERROR(Calculations!F130,"")</f>
         <v/>
       </c>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
       <c r="G130" s="18" t="str">
         <f>IFERROR(Calculations!G130,"")</f>
         <v/>
       </c>
-      <c r="H130" s="20" t="str">
+      <c r="H130" s="23" t="str">
         <f>IFERROR(Calculations!H130,"")</f>
         <v/>
       </c>
-      <c r="I130" s="20"/>
-      <c r="J130" s="20" t="str">
+      <c r="I130" s="23"/>
+      <c r="J130" s="23" t="str">
         <f>IFERROR(Calculations!I130,"")</f>
         <v/>
       </c>
-      <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
       <c r="M130" s="18" t="str">
         <f>IFERROR(Calculations!J130,"")</f>
         <v/>
       </c>
-      <c r="N130" s="21" t="str">
+      <c r="N130" s="20" t="str">
         <f>IFERROR(Calculations!K130,"")</f>
         <v/>
       </c>
-      <c r="O130" s="22"/>
-      <c r="P130" s="23"/>
+      <c r="O130" s="21"/>
+      <c r="P130" s="22"/>
     </row>
     <row r="131" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="17" t="str">
@@ -9062,37 +9059,37 @@
         <f>IFERROR(Calculations!C131,"")</f>
         <v/>
       </c>
-      <c r="D131" s="20" t="str">
+      <c r="D131" s="23" t="str">
         <f>IFERROR(Calculations!F131,"")</f>
         <v/>
       </c>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
       <c r="G131" s="18" t="str">
         <f>IFERROR(Calculations!G131,"")</f>
         <v/>
       </c>
-      <c r="H131" s="20" t="str">
+      <c r="H131" s="23" t="str">
         <f>IFERROR(Calculations!H131,"")</f>
         <v/>
       </c>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20" t="str">
+      <c r="I131" s="23"/>
+      <c r="J131" s="23" t="str">
         <f>IFERROR(Calculations!I131,"")</f>
         <v/>
       </c>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
       <c r="M131" s="18" t="str">
         <f>IFERROR(Calculations!J131,"")</f>
         <v/>
       </c>
-      <c r="N131" s="21" t="str">
+      <c r="N131" s="20" t="str">
         <f>IFERROR(Calculations!K131,"")</f>
         <v/>
       </c>
-      <c r="O131" s="22"/>
-      <c r="P131" s="23"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="22"/>
     </row>
     <row r="132" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="17" t="str">
@@ -9103,37 +9100,37 @@
         <f>IFERROR(Calculations!C132,"")</f>
         <v/>
       </c>
-      <c r="D132" s="20" t="str">
+      <c r="D132" s="23" t="str">
         <f>IFERROR(Calculations!F132,"")</f>
         <v/>
       </c>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
       <c r="G132" s="18" t="str">
         <f>IFERROR(Calculations!G132,"")</f>
         <v/>
       </c>
-      <c r="H132" s="20" t="str">
+      <c r="H132" s="23" t="str">
         <f>IFERROR(Calculations!H132,"")</f>
         <v/>
       </c>
-      <c r="I132" s="20"/>
-      <c r="J132" s="20" t="str">
+      <c r="I132" s="23"/>
+      <c r="J132" s="23" t="str">
         <f>IFERROR(Calculations!I132,"")</f>
         <v/>
       </c>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
       <c r="M132" s="18" t="str">
         <f>IFERROR(Calculations!J132,"")</f>
         <v/>
       </c>
-      <c r="N132" s="21" t="str">
+      <c r="N132" s="20" t="str">
         <f>IFERROR(Calculations!K132,"")</f>
         <v/>
       </c>
-      <c r="O132" s="22"/>
-      <c r="P132" s="23"/>
+      <c r="O132" s="21"/>
+      <c r="P132" s="22"/>
     </row>
     <row r="133" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="17" t="str">
@@ -9144,37 +9141,37 @@
         <f>IFERROR(Calculations!C133,"")</f>
         <v/>
       </c>
-      <c r="D133" s="20" t="str">
+      <c r="D133" s="23" t="str">
         <f>IFERROR(Calculations!F133,"")</f>
         <v/>
       </c>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
       <c r="G133" s="18" t="str">
         <f>IFERROR(Calculations!G133,"")</f>
         <v/>
       </c>
-      <c r="H133" s="20" t="str">
+      <c r="H133" s="23" t="str">
         <f>IFERROR(Calculations!H133,"")</f>
         <v/>
       </c>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20" t="str">
+      <c r="I133" s="23"/>
+      <c r="J133" s="23" t="str">
         <f>IFERROR(Calculations!I133,"")</f>
         <v/>
       </c>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
       <c r="M133" s="18" t="str">
         <f>IFERROR(Calculations!J133,"")</f>
         <v/>
       </c>
-      <c r="N133" s="21" t="str">
+      <c r="N133" s="20" t="str">
         <f>IFERROR(Calculations!K133,"")</f>
         <v/>
       </c>
-      <c r="O133" s="22"/>
-      <c r="P133" s="23"/>
+      <c r="O133" s="21"/>
+      <c r="P133" s="22"/>
     </row>
     <row r="134" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="17" t="str">
@@ -9185,37 +9182,37 @@
         <f>IFERROR(Calculations!C134,"")</f>
         <v/>
       </c>
-      <c r="D134" s="20" t="str">
+      <c r="D134" s="23" t="str">
         <f>IFERROR(Calculations!F134,"")</f>
         <v/>
       </c>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
       <c r="G134" s="18" t="str">
         <f>IFERROR(Calculations!G134,"")</f>
         <v/>
       </c>
-      <c r="H134" s="20" t="str">
+      <c r="H134" s="23" t="str">
         <f>IFERROR(Calculations!H134,"")</f>
         <v/>
       </c>
-      <c r="I134" s="20"/>
-      <c r="J134" s="20" t="str">
+      <c r="I134" s="23"/>
+      <c r="J134" s="23" t="str">
         <f>IFERROR(Calculations!I134,"")</f>
         <v/>
       </c>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="23"/>
       <c r="M134" s="18" t="str">
         <f>IFERROR(Calculations!J134,"")</f>
         <v/>
       </c>
-      <c r="N134" s="21" t="str">
+      <c r="N134" s="20" t="str">
         <f>IFERROR(Calculations!K134,"")</f>
         <v/>
       </c>
-      <c r="O134" s="22"/>
-      <c r="P134" s="23"/>
+      <c r="O134" s="21"/>
+      <c r="P134" s="22"/>
     </row>
     <row r="135" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="17" t="str">
@@ -9226,122 +9223,334 @@
         <f>IFERROR(Calculations!C135,"")</f>
         <v/>
       </c>
-      <c r="D135" s="20" t="str">
+      <c r="D135" s="23" t="str">
         <f>IFERROR(Calculations!F135,"")</f>
         <v/>
       </c>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
       <c r="G135" s="18" t="str">
         <f>IFERROR(Calculations!G135,"")</f>
         <v/>
       </c>
-      <c r="H135" s="20" t="str">
+      <c r="H135" s="23" t="str">
         <f>IFERROR(Calculations!H135,"")</f>
         <v/>
       </c>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20" t="str">
+      <c r="I135" s="23"/>
+      <c r="J135" s="23" t="str">
         <f>IFERROR(Calculations!I135,"")</f>
         <v/>
       </c>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
       <c r="M135" s="18" t="str">
         <f>IFERROR(Calculations!J135,"")</f>
         <v/>
       </c>
-      <c r="N135" s="21" t="str">
+      <c r="N135" s="20" t="str">
         <f>IFERROR(Calculations!K135,"")</f>
         <v/>
       </c>
-      <c r="O135" s="22"/>
-      <c r="P135" s="23"/>
+      <c r="O135" s="21"/>
+      <c r="P135" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="400">
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="N133:P133"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="N135:P135"/>
-    <mergeCell ref="N126:P126"/>
-    <mergeCell ref="N127:P127"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="N130:P130"/>
-    <mergeCell ref="N131:P131"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="N121:P121"/>
-    <mergeCell ref="N122:P122"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="N124:P124"/>
-    <mergeCell ref="N125:P125"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="N119:P119"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="J127:L127"/>
+    <mergeCell ref="J128:L128"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="J120:L120"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="J122:L122"/>
     <mergeCell ref="N48:P48"/>
     <mergeCell ref="N49:P49"/>
     <mergeCell ref="N50:P50"/>
@@ -9366,300 +9575,88 @@
     <mergeCell ref="J134:L134"/>
     <mergeCell ref="J123:L123"/>
     <mergeCell ref="J124:L124"/>
-    <mergeCell ref="J125:L125"/>
-    <mergeCell ref="J126:L126"/>
-    <mergeCell ref="J127:L127"/>
-    <mergeCell ref="J128:L128"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="J118:L118"/>
-    <mergeCell ref="J119:L119"/>
-    <mergeCell ref="J120:L120"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="N105:P105"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="N121:P121"/>
+    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="N124:P124"/>
+    <mergeCell ref="N125:P125"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="N119:P119"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="N133:P133"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="N135:P135"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="N131:P131"/>
   </mergeCells>
   <conditionalFormatting sqref="C36:C135">
     <cfRule type="expression" dxfId="7" priority="2">

--- a/Excel/Excel test3.xlsx
+++ b/Excel/Excel test3.xlsx
@@ -251,7 +251,7 @@
     <t>This sheet should remain hidden. Any modifications may result in errors in the Retirement Planner.</t>
   </si>
   <si>
-    <t>rr</t>
+    <t>fefefeferfref</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="4" tint="-0.499984740745262"/>
@@ -326,6 +326,13 @@
       <name val="Century"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -436,7 +443,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -507,6 +514,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -615,8 +625,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.2397859651968917E-2"/>
-          <c:y val="0.10239512653510904"/>
+          <c:x val="1.5025164927922078E-2"/>
+          <c:y val="8.4474077837044567E-2"/>
           <c:w val="0.92419733842713492"/>
           <c:h val="0.78879284533877714"/>
         </c:manualLayout>
@@ -1568,8 +1578,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239842984"/>
-        <c:axId val="239840632"/>
+        <c:axId val="245017320"/>
+        <c:axId val="245019672"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1756,8 +1766,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-1"/>
-        <c:axId val="239842984"/>
-        <c:axId val="239840632"/>
+        <c:axId val="245017320"/>
+        <c:axId val="245019672"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2110,11 +2120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239842984"/>
-        <c:axId val="239840632"/>
+        <c:axId val="245017320"/>
+        <c:axId val="245019672"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="239842984"/>
+        <c:axId val="245017320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239840632"/>
+        <c:crossAx val="245019672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239840632"/>
+        <c:axId val="245019672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2202,7 +2212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239842984"/>
+        <c:crossAx val="245017320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2258,15 +2268,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>514351</xdr:rowOff>
+      <xdr:rowOff>533401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2736,7 +2746,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4352925" y="4686300"/>
-          <a:ext cx="2638995" cy="200025"/>
+          <a:ext cx="3934395" cy="200025"/>
           <a:chOff x="4962525" y="4448175"/>
           <a:chExt cx="2629470" cy="200025"/>
         </a:xfrm>
@@ -2948,7 +2958,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6829425" y="4686300"/>
+          <a:off x="8124825" y="4686300"/>
           <a:ext cx="2629470" cy="200025"/>
           <a:chOff x="7629525" y="4448175"/>
           <a:chExt cx="2629470" cy="200025"/>
@@ -3175,7 +3185,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="266700" y="736876"/>
-          <a:ext cx="7677157" cy="231217"/>
+          <a:ext cx="8972557" cy="231217"/>
           <a:chOff x="5486400" y="4744386"/>
           <a:chExt cx="7667605" cy="217204"/>
         </a:xfrm>
@@ -3969,7 +3979,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="247650" y="727351"/>
-          <a:ext cx="9029701" cy="231217"/>
+          <a:ext cx="10325101" cy="231217"/>
           <a:chOff x="5486399" y="4201461"/>
           <a:chExt cx="9020176" cy="217204"/>
         </a:xfrm>
@@ -4879,7 +4889,7 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4891,7 +4901,7 @@
     <col min="5" max="5" width="6.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="2.85546875" style="5" customWidth="1"/>
@@ -4903,19 +4913,19 @@
     <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="5">
+      <c r="L2" s="5">
         <v>7</v>
       </c>
     </row>

--- a/Excel/Excel test3.xlsx
+++ b/Excel/Excel test3.xlsx
@@ -251,7 +251,7 @@
     <t>This sheet should remain hidden. Any modifications may result in errors in the Retirement Planner.</t>
   </si>
   <si>
-    <t>fefefeferfref</t>
+    <t>wdwdwqd</t>
   </si>
 </sst>
 </file>
@@ -504,6 +504,12 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -511,12 +517,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -1578,8 +1578,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245017320"/>
-        <c:axId val="245019672"/>
+        <c:axId val="247791488"/>
+        <c:axId val="247788352"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1766,8 +1766,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-1"/>
-        <c:axId val="245017320"/>
-        <c:axId val="245019672"/>
+        <c:axId val="247791488"/>
+        <c:axId val="247788352"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2120,11 +2120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245017320"/>
-        <c:axId val="245019672"/>
+        <c:axId val="247791488"/>
+        <c:axId val="247788352"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="245017320"/>
+        <c:axId val="247791488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245019672"/>
+        <c:crossAx val="247788352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2168,7 +2168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245019672"/>
+        <c:axId val="247788352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2212,7 +2212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245017320"/>
+        <c:crossAx val="247791488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4922,7 +4922,7 @@
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="5">
@@ -5174,37 +5174,37 @@
         <f>IFERROR(Calculations!C36,"")</f>
         <v>50000</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="21">
         <f>IFERROR(Calculations!F36,"")</f>
         <v>60000</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="18">
         <f>IFERROR(Calculations!G36,"")</f>
         <v>3750</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="21">
         <f>IFERROR(Calculations!H36,"")</f>
         <v>15000</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23">
+      <c r="I36" s="21"/>
+      <c r="J36" s="21">
         <f>IFERROR(Calculations!I36,"")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="18">
         <f>IFERROR(Calculations!J36,"")</f>
         <v>0</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="22">
         <f>IFERROR(Calculations!K36,"")</f>
         <v>78750</v>
       </c>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
     </row>
     <row r="37" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="17">
@@ -5215,37 +5215,37 @@
         <f>IFERROR(Calculations!C37,"")</f>
         <v>51500</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="21">
         <f>IFERROR(Calculations!F37,"")</f>
         <v>78750</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="18">
         <f>IFERROR(Calculations!G37,"")</f>
         <v>4921.875</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="21">
         <f>IFERROR(Calculations!H37,"")</f>
         <v>15000</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23">
+      <c r="I37" s="21"/>
+      <c r="J37" s="21">
         <f>IFERROR(Calculations!I37,"")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="18">
         <f>IFERROR(Calculations!J37,"")</f>
         <v>0</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N37" s="22">
         <f>IFERROR(Calculations!K37,"")</f>
         <v>98671.875</v>
       </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
     </row>
     <row r="38" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17">
@@ -5256,37 +5256,37 @@
         <f>IFERROR(Calculations!C38,"")</f>
         <v>53045</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="21">
         <f>IFERROR(Calculations!F38,"")</f>
         <v>98671.875</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="18">
         <f>IFERROR(Calculations!G38,"")</f>
         <v>6166.9921875</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="21">
         <f>IFERROR(Calculations!H38,"")</f>
         <v>15000</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23">
+      <c r="I38" s="21"/>
+      <c r="J38" s="21">
         <f>IFERROR(Calculations!I38,"")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
       <c r="M38" s="18">
         <f>IFERROR(Calculations!J38,"")</f>
         <v>0</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N38" s="22">
         <f>IFERROR(Calculations!K38,"")</f>
         <v>119838.8671875</v>
       </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="22"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="24"/>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17">
@@ -5297,37 +5297,37 @@
         <f>IFERROR(Calculations!C39,"")</f>
         <v>54636.35</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="21">
         <f>IFERROR(Calculations!F39,"")</f>
         <v>119838.8671875</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="18">
         <f>IFERROR(Calculations!G39,"")</f>
         <v>7489.92919921875</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="21">
         <f>IFERROR(Calculations!H39,"")</f>
         <v>15000</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23">
+      <c r="I39" s="21"/>
+      <c r="J39" s="21">
         <f>IFERROR(Calculations!I39,"")</f>
         <v>0</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
       <c r="M39" s="18">
         <f>IFERROR(Calculations!J39,"")</f>
         <v>0</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="22">
         <f>IFERROR(Calculations!K39,"")</f>
         <v>142328.79638671875</v>
       </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="22"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="24"/>
     </row>
     <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="17">
@@ -5338,37 +5338,37 @@
         <f>IFERROR(Calculations!C40,"")</f>
         <v>56275.440499999997</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="21">
         <f>IFERROR(Calculations!F40,"")</f>
         <v>142328.79638671875</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="18">
         <f>IFERROR(Calculations!G40,"")</f>
         <v>8895.5497741699219</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="21">
         <f>IFERROR(Calculations!H40,"")</f>
         <v>15000</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23">
+      <c r="I40" s="21"/>
+      <c r="J40" s="21">
         <f>IFERROR(Calculations!I40,"")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
       <c r="M40" s="18">
         <f>IFERROR(Calculations!J40,"")</f>
         <v>0</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="22">
         <f>IFERROR(Calculations!K40,"")</f>
         <v>166224.34616088867</v>
       </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="24"/>
     </row>
     <row r="41" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="17">
@@ -5379,37 +5379,37 @@
         <f>IFERROR(Calculations!C41,"")</f>
         <v>57963.703714999996</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="21">
         <f>IFERROR(Calculations!F41,"")</f>
         <v>166224.34616088867</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="18">
         <f>IFERROR(Calculations!G41,"")</f>
         <v>10389.021635055542</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="21">
         <f>IFERROR(Calculations!H41,"")</f>
         <v>15000</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23">
+      <c r="I41" s="21"/>
+      <c r="J41" s="21">
         <f>IFERROR(Calculations!I41,"")</f>
         <v>0</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="18">
         <f>IFERROR(Calculations!J41,"")</f>
         <v>0</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N41" s="22">
         <f>IFERROR(Calculations!K41,"")</f>
         <v>191613.36779594421</v>
       </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="22"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="24"/>
     </row>
     <row r="42" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="17">
@@ -5420,37 +5420,37 @@
         <f>IFERROR(Calculations!C42,"")</f>
         <v>59702.614826449993</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="21">
         <f>IFERROR(Calculations!F42,"")</f>
         <v>191613.36779594421</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="18">
         <f>IFERROR(Calculations!G42,"")</f>
         <v>11975.835487246513</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="21">
         <f>IFERROR(Calculations!H42,"")</f>
         <v>15000</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21">
         <f>IFERROR(Calculations!I42,"")</f>
         <v>0</v>
       </c>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
       <c r="M42" s="18">
         <f>IFERROR(Calculations!J42,"")</f>
         <v>0</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="22">
         <f>IFERROR(Calculations!K42,"")</f>
         <v>218589.20328319073</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="22"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
     </row>
     <row r="43" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17">
@@ -5461,37 +5461,37 @@
         <f>IFERROR(Calculations!C43,"")</f>
         <v>61493.693271243494</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="21">
         <f>IFERROR(Calculations!F43,"")</f>
         <v>218589.20328319073</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="18">
         <f>IFERROR(Calculations!G43,"")</f>
         <v>13661.82520519942</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="21">
         <f>IFERROR(Calculations!H43,"")</f>
         <v>15000</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23">
+      <c r="I43" s="21"/>
+      <c r="J43" s="21">
         <f>IFERROR(Calculations!I43,"")</f>
         <v>0</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
       <c r="M43" s="18">
         <f>IFERROR(Calculations!J43,"")</f>
         <v>0</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="22">
         <f>IFERROR(Calculations!K43,"")</f>
         <v>247251.02848839015</v>
       </c>
-      <c r="O43" s="21"/>
-      <c r="P43" s="22"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
     </row>
     <row r="44" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="17">
@@ -5502,37 +5502,37 @@
         <f>IFERROR(Calculations!C44,"")</f>
         <v>63338.504069380797</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="21">
         <f>IFERROR(Calculations!F44,"")</f>
         <v>247251.02848839015</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="18">
         <f>IFERROR(Calculations!G44,"")</f>
         <v>15453.189280524384</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="21">
         <f>IFERROR(Calculations!H44,"")</f>
         <v>15000</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23">
+      <c r="I44" s="21"/>
+      <c r="J44" s="21">
         <f>IFERROR(Calculations!I44,"")</f>
         <v>0</v>
       </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="18">
         <f>IFERROR(Calculations!J44,"")</f>
         <v>0</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N44" s="22">
         <f>IFERROR(Calculations!K44,"")</f>
         <v>277704.21776891453</v>
       </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="22"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="24"/>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17">
@@ -5543,37 +5543,37 @@
         <f>IFERROR(Calculations!C45,"")</f>
         <v>65238.659191462219</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="21">
         <f>IFERROR(Calculations!F45,"")</f>
         <v>277704.21776891453</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="18">
         <f>IFERROR(Calculations!G45,"")</f>
         <v>17356.513610557158</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="21">
         <f>IFERROR(Calculations!H45,"")</f>
         <v>15000</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23">
+      <c r="I45" s="21"/>
+      <c r="J45" s="21">
         <f>IFERROR(Calculations!I45,"")</f>
         <v>0</v>
       </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
       <c r="M45" s="18">
         <f>IFERROR(Calculations!J45,"")</f>
         <v>0</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="22">
         <f>IFERROR(Calculations!K45,"")</f>
         <v>310060.73137947172</v>
       </c>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17">
@@ -5584,37 +5584,37 @@
         <f>IFERROR(Calculations!C46,"")</f>
         <v>67195.818967206083</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="21">
         <f>IFERROR(Calculations!F46,"")</f>
         <v>310060.73137947172</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="18">
         <f>IFERROR(Calculations!G46,"")</f>
         <v>19378.795711216982</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="21">
         <f>IFERROR(Calculations!H46,"")</f>
         <v>15000</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23">
+      <c r="I46" s="21"/>
+      <c r="J46" s="21">
         <f>IFERROR(Calculations!I46,"")</f>
         <v>0</v>
       </c>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
       <c r="M46" s="18">
         <f>IFERROR(Calculations!J46,"")</f>
         <v>0</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="22">
         <f>IFERROR(Calculations!K46,"")</f>
         <v>344439.5270906887</v>
       </c>
-      <c r="O46" s="21"/>
-      <c r="P46" s="22"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="24"/>
     </row>
     <row r="47" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17">
@@ -5625,37 +5625,37 @@
         <f>IFERROR(Calculations!C47,"")</f>
         <v>69211.693536222272</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="21">
         <f>IFERROR(Calculations!F47,"")</f>
         <v>344439.5270906887</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="18">
         <f>IFERROR(Calculations!G47,"")</f>
         <v>21527.470443168044</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="21">
         <f>IFERROR(Calculations!H47,"")</f>
         <v>15000</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23">
+      <c r="I47" s="21"/>
+      <c r="J47" s="21">
         <f>IFERROR(Calculations!I47,"")</f>
         <v>0</v>
       </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
       <c r="M47" s="18">
         <f>IFERROR(Calculations!J47,"")</f>
         <v>0</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N47" s="22">
         <f>IFERROR(Calculations!K47,"")</f>
         <v>380966.99753385677</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="22"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="24"/>
     </row>
     <row r="48" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="17">
@@ -5666,37 +5666,37 @@
         <f>IFERROR(Calculations!C48,"")</f>
         <v>71288.044342308945</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="21">
         <f>IFERROR(Calculations!F48,"")</f>
         <v>380966.99753385677</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="18">
         <f>IFERROR(Calculations!G48,"")</f>
         <v>23810.437345866048</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="21">
         <f>IFERROR(Calculations!H48,"")</f>
         <v>15000</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23">
+      <c r="I48" s="21"/>
+      <c r="J48" s="21">
         <f>IFERROR(Calculations!I48,"")</f>
         <v>0</v>
       </c>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
       <c r="M48" s="18">
         <f>IFERROR(Calculations!J48,"")</f>
         <v>0</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="22">
         <f>IFERROR(Calculations!K48,"")</f>
         <v>419777.43487972283</v>
       </c>
-      <c r="O48" s="21"/>
-      <c r="P48" s="22"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="24"/>
     </row>
     <row r="49" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="17">
@@ -5707,37 +5707,37 @@
         <f>IFERROR(Calculations!C49,"")</f>
         <v>73426.685672578213</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="21">
         <f>IFERROR(Calculations!F49,"")</f>
         <v>419777.43487972283</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="18">
         <f>IFERROR(Calculations!G49,"")</f>
         <v>26236.089679982677</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="21">
         <f>IFERROR(Calculations!H49,"")</f>
         <v>15000</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23">
+      <c r="I49" s="21"/>
+      <c r="J49" s="21">
         <f>IFERROR(Calculations!I49,"")</f>
         <v>0</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
       <c r="M49" s="18">
         <f>IFERROR(Calculations!J49,"")</f>
         <v>0</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N49" s="22">
         <f>IFERROR(Calculations!K49,"")</f>
         <v>461013.52455970552</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
     </row>
     <row r="50" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -5748,37 +5748,37 @@
         <f>IFERROR(Calculations!C50,"")</f>
         <v>75629.486242755564</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="21">
         <f>IFERROR(Calculations!F50,"")</f>
         <v>461013.52455970552</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="18">
         <f>IFERROR(Calculations!G50,"")</f>
         <v>28813.345284981595</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="21">
         <f>IFERROR(Calculations!H50,"")</f>
         <v>15000</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23">
+      <c r="I50" s="21"/>
+      <c r="J50" s="21">
         <f>IFERROR(Calculations!I50,"")</f>
         <v>0</v>
       </c>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
       <c r="M50" s="18">
         <f>IFERROR(Calculations!J50,"")</f>
         <v>0</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="22">
         <f>IFERROR(Calculations!K50,"")</f>
         <v>504826.86984468711</v>
       </c>
-      <c r="O50" s="21"/>
-      <c r="P50" s="22"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="24"/>
     </row>
     <row r="51" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -5789,37 +5789,37 @@
         <f>IFERROR(Calculations!C51,"")</f>
         <v>77898.370830038228</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="21">
         <f>IFERROR(Calculations!F51,"")</f>
         <v>504826.86984468711</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="18">
         <f>IFERROR(Calculations!G51,"")</f>
         <v>31551.679365292945</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="21">
         <f>IFERROR(Calculations!H51,"")</f>
         <v>15000</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23">
+      <c r="I51" s="21"/>
+      <c r="J51" s="21">
         <f>IFERROR(Calculations!I51,"")</f>
         <v>0</v>
       </c>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
       <c r="M51" s="18">
         <f>IFERROR(Calculations!J51,"")</f>
         <v>0</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="22">
         <f>IFERROR(Calculations!K51,"")</f>
         <v>551378.54920998006</v>
       </c>
-      <c r="O51" s="21"/>
-      <c r="P51" s="22"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="24"/>
     </row>
     <row r="52" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="17">
@@ -5830,37 +5830,37 @@
         <f>IFERROR(Calculations!C52,"")</f>
         <v>80235.321954939369</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="21">
         <f>IFERROR(Calculations!F52,"")</f>
         <v>551378.54920998006</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="18">
         <f>IFERROR(Calculations!G52,"")</f>
         <v>34461.159325623754</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="21">
         <f>IFERROR(Calculations!H52,"")</f>
         <v>15000</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23">
+      <c r="I52" s="21"/>
+      <c r="J52" s="21">
         <f>IFERROR(Calculations!I52,"")</f>
         <v>0</v>
       </c>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
       <c r="M52" s="18">
         <f>IFERROR(Calculations!J52,"")</f>
         <v>0</v>
       </c>
-      <c r="N52" s="20">
+      <c r="N52" s="22">
         <f>IFERROR(Calculations!K52,"")</f>
         <v>600839.70853560383</v>
       </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="22"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="24"/>
     </row>
     <row r="53" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="17">
@@ -5871,37 +5871,37 @@
         <f>IFERROR(Calculations!C53,"")</f>
         <v>82642.381613587553</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="21">
         <f>IFERROR(Calculations!F53,"")</f>
         <v>600839.70853560383</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="18">
         <f>IFERROR(Calculations!G53,"")</f>
         <v>37552.481783475239</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="21">
         <f>IFERROR(Calculations!H53,"")</f>
         <v>15000</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23">
+      <c r="I53" s="21"/>
+      <c r="J53" s="21">
         <f>IFERROR(Calculations!I53,"")</f>
         <v>0</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
       <c r="M53" s="18">
         <f>IFERROR(Calculations!J53,"")</f>
         <v>0</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="22">
         <f>IFERROR(Calculations!K53,"")</f>
         <v>653392.19031907909</v>
       </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="22"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="24"/>
     </row>
     <row r="54" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17">
@@ -5912,37 +5912,37 @@
         <f>IFERROR(Calculations!C54,"")</f>
         <v>85121.653061995181</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="21">
         <f>IFERROR(Calculations!F54,"")</f>
         <v>653392.19031907909</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="18">
         <f>IFERROR(Calculations!G54,"")</f>
         <v>40837.011894942443</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="21">
         <f>IFERROR(Calculations!H54,"")</f>
         <v>15000</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23">
+      <c r="I54" s="21"/>
+      <c r="J54" s="21">
         <f>IFERROR(Calculations!I54,"")</f>
         <v>0</v>
       </c>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
       <c r="M54" s="18">
         <f>IFERROR(Calculations!J54,"")</f>
         <v>0</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="22">
         <f>IFERROR(Calculations!K54,"")</f>
         <v>709229.20221402158</v>
       </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="22"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="24"/>
     </row>
     <row r="55" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="17">
@@ -5953,37 +5953,37 @@
         <f>IFERROR(Calculations!C55,"")</f>
         <v>87675.302653855033</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="21">
         <f>IFERROR(Calculations!F55,"")</f>
         <v>709229.20221402158</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="18">
         <f>IFERROR(Calculations!G55,"")</f>
         <v>44326.825138376349</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="21">
         <f>IFERROR(Calculations!H55,"")</f>
         <v>15000</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23">
+      <c r="I55" s="21"/>
+      <c r="J55" s="21">
         <f>IFERROR(Calculations!I55,"")</f>
         <v>0</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
       <c r="M55" s="18">
         <f>IFERROR(Calculations!J55,"")</f>
         <v>0</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N55" s="22">
         <f>IFERROR(Calculations!K55,"")</f>
         <v>768556.02735239791</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="22"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="24"/>
     </row>
     <row r="56" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
@@ -5994,37 +5994,37 @@
         <f>IFERROR(Calculations!C56,"")</f>
         <v>90305.561733470677</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="21">
         <f>IFERROR(Calculations!F56,"")</f>
         <v>768556.02735239791</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="18">
         <f>IFERROR(Calculations!G56,"")</f>
         <v>48034.75170952487</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="21">
         <f>IFERROR(Calculations!H56,"")</f>
         <v>15000</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23">
+      <c r="I56" s="21"/>
+      <c r="J56" s="21">
         <f>IFERROR(Calculations!I56,"")</f>
         <v>0</v>
       </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
       <c r="M56" s="18">
         <f>IFERROR(Calculations!J56,"")</f>
         <v>0</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="22">
         <f>IFERROR(Calculations!K56,"")</f>
         <v>831590.7790619228</v>
       </c>
-      <c r="O56" s="21"/>
-      <c r="P56" s="22"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="24"/>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
@@ -6035,37 +6035,37 @@
         <f>IFERROR(Calculations!C57,"")</f>
         <v>93014.728585474804</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="21">
         <f>IFERROR(Calculations!F57,"")</f>
         <v>831590.7790619228</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="18">
         <f>IFERROR(Calculations!G57,"")</f>
         <v>51974.423691370175</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="21">
         <f>IFERROR(Calculations!H57,"")</f>
         <v>15000</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23">
+      <c r="I57" s="21"/>
+      <c r="J57" s="21">
         <f>IFERROR(Calculations!I57,"")</f>
         <v>0</v>
       </c>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
       <c r="M57" s="18">
         <f>IFERROR(Calculations!J57,"")</f>
         <v>0</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="22">
         <f>IFERROR(Calculations!K57,"")</f>
         <v>898565.20275329298</v>
       </c>
-      <c r="O57" s="21"/>
-      <c r="P57" s="22"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="24"/>
     </row>
     <row r="58" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
@@ -6076,37 +6076,37 @@
         <f>IFERROR(Calculations!C58,"")</f>
         <v>95805.170443039053</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="21">
         <f>IFERROR(Calculations!F58,"")</f>
         <v>898565.20275329298</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
       <c r="G58" s="18">
         <f>IFERROR(Calculations!G58,"")</f>
         <v>56160.325172080811</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="21">
         <f>IFERROR(Calculations!H58,"")</f>
         <v>15000</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23">
+      <c r="I58" s="21"/>
+      <c r="J58" s="21">
         <f>IFERROR(Calculations!I58,"")</f>
         <v>0</v>
       </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
       <c r="M58" s="18">
         <f>IFERROR(Calculations!J58,"")</f>
         <v>0</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="22">
         <f>IFERROR(Calculations!K58,"")</f>
         <v>969725.52792537375</v>
       </c>
-      <c r="O58" s="21"/>
-      <c r="P58" s="22"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="24"/>
     </row>
     <row r="59" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="17">
@@ -6117,37 +6117,37 @@
         <f>IFERROR(Calculations!C59,"")</f>
         <v>98679.325556330223</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="21">
         <f>IFERROR(Calculations!F59,"")</f>
         <v>969725.52792537375</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="18">
         <f>IFERROR(Calculations!G59,"")</f>
         <v>60607.84549533586</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="21">
         <f>IFERROR(Calculations!H59,"")</f>
         <v>15000</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23">
+      <c r="I59" s="21"/>
+      <c r="J59" s="21">
         <f>IFERROR(Calculations!I59,"")</f>
         <v>0</v>
       </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
       <c r="M59" s="18">
         <f>IFERROR(Calculations!J59,"")</f>
         <v>0</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="22">
         <f>IFERROR(Calculations!K59,"")</f>
         <v>1045333.3734207096</v>
       </c>
-      <c r="O59" s="21"/>
-      <c r="P59" s="22"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="24"/>
     </row>
     <row r="60" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="17">
@@ -6158,37 +6158,37 @@
         <f>IFERROR(Calculations!C60,"")</f>
         <v>101639.70532302013</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="21">
         <f>IFERROR(Calculations!F60,"")</f>
         <v>1045333.3734207096</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="18">
         <f>IFERROR(Calculations!G60,"")</f>
         <v>65333.335838794352</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="21">
         <f>IFERROR(Calculations!H60,"")</f>
         <v>15000</v>
       </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23">
+      <c r="I60" s="21"/>
+      <c r="J60" s="21">
         <f>IFERROR(Calculations!I60,"")</f>
         <v>0</v>
       </c>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
       <c r="M60" s="18">
         <f>IFERROR(Calculations!J60,"")</f>
         <v>0</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="22">
         <f>IFERROR(Calculations!K60,"")</f>
         <v>1125666.709259504</v>
       </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="22"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="24"/>
     </row>
     <row r="61" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="17">
@@ -6199,37 +6199,37 @@
         <f>IFERROR(Calculations!C61,"")</f>
         <v>0</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="21">
         <f>IFERROR(Calculations!F61,"")</f>
         <v>1125666.709259504</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
       <c r="G61" s="18">
         <f>IFERROR(Calculations!G61,"")</f>
         <v>70354.169328718999</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="21">
         <f>IFERROR(Calculations!H61,"")</f>
         <v>0</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23">
+      <c r="I61" s="21"/>
+      <c r="J61" s="21">
         <f>IFERROR(Calculations!I61,"")</f>
         <v>78516.672362033016</v>
       </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
       <c r="M61" s="18">
         <f>IFERROR(Calculations!J61,"")</f>
         <v>0</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="22">
         <f>IFERROR(Calculations!K61,"")</f>
         <v>1117504.2062261899</v>
       </c>
-      <c r="O61" s="21"/>
-      <c r="P61" s="22"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="24"/>
     </row>
     <row r="62" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="17">
@@ -6240,37 +6240,37 @@
         <f>IFERROR(Calculations!C62,"")</f>
         <v>0</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="21">
         <f>IFERROR(Calculations!F62,"")</f>
         <v>1117504.2062261899</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="18">
         <f>IFERROR(Calculations!G62,"")</f>
         <v>69844.012889136866</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="21">
         <f>IFERROR(Calculations!H62,"")</f>
         <v>0</v>
       </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23">
+      <c r="I62" s="21"/>
+      <c r="J62" s="21">
         <f>IFERROR(Calculations!I62,"")</f>
         <v>80872.172532894023</v>
       </c>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
       <c r="M62" s="18">
         <f>IFERROR(Calculations!J62,"")</f>
         <v>0</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N62" s="22">
         <f>IFERROR(Calculations!K62,"")</f>
         <v>1106476.0465824327</v>
       </c>
-      <c r="O62" s="21"/>
-      <c r="P62" s="22"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="24"/>
     </row>
     <row r="63" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="17">
@@ -6281,37 +6281,37 @@
         <f>IFERROR(Calculations!C63,"")</f>
         <v>0</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="21">
         <f>IFERROR(Calculations!F63,"")</f>
         <v>1106476.0465824327</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
       <c r="G63" s="18">
         <f>IFERROR(Calculations!G63,"")</f>
         <v>69154.752911402044</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="21">
         <f>IFERROR(Calculations!H63,"")</f>
         <v>0</v>
       </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23">
+      <c r="I63" s="21"/>
+      <c r="J63" s="21">
         <f>IFERROR(Calculations!I63,"")</f>
         <v>83298.337708880834</v>
       </c>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
       <c r="M63" s="18">
         <f>IFERROR(Calculations!J63,"")</f>
         <v>0</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="22">
         <f>IFERROR(Calculations!K63,"")</f>
         <v>1092332.4617849539</v>
       </c>
-      <c r="O63" s="21"/>
-      <c r="P63" s="22"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="24"/>
     </row>
     <row r="64" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="17">
@@ -6322,37 +6322,37 @@
         <f>IFERROR(Calculations!C64,"")</f>
         <v>0</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="21">
         <f>IFERROR(Calculations!F64,"")</f>
         <v>1092332.4617849539</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="18">
         <f>IFERROR(Calculations!G64,"")</f>
         <v>68270.778861559622</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="21">
         <f>IFERROR(Calculations!H64,"")</f>
         <v>0</v>
       </c>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23">
+      <c r="I64" s="21"/>
+      <c r="J64" s="21">
         <f>IFERROR(Calculations!I64,"")</f>
         <v>85797.287840147255</v>
       </c>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
       <c r="M64" s="18">
         <f>IFERROR(Calculations!J64,"")</f>
         <v>0</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N64" s="22">
         <f>IFERROR(Calculations!K64,"")</f>
         <v>1074805.9528063664</v>
       </c>
-      <c r="O64" s="21"/>
-      <c r="P64" s="22"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="24"/>
     </row>
     <row r="65" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="17">
@@ -6363,37 +6363,37 @@
         <f>IFERROR(Calculations!C65,"")</f>
         <v>0</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="21">
         <f>IFERROR(Calculations!F65,"")</f>
         <v>1074805.9528063664</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
       <c r="G65" s="18">
         <f>IFERROR(Calculations!G65,"")</f>
         <v>67175.372050397898</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="21">
         <f>IFERROR(Calculations!H65,"")</f>
         <v>0</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23">
+      <c r="I65" s="21"/>
+      <c r="J65" s="21">
         <f>IFERROR(Calculations!I65,"")</f>
         <v>88371.206475351661</v>
       </c>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
       <c r="M65" s="18">
         <f>IFERROR(Calculations!J65,"")</f>
         <v>0</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="22">
         <f>IFERROR(Calculations!K65,"")</f>
         <v>1053610.1183814125</v>
       </c>
-      <c r="O65" s="21"/>
-      <c r="P65" s="22"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="24"/>
     </row>
     <row r="66" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="17">
@@ -6404,37 +6404,37 @@
         <f>IFERROR(Calculations!C66,"")</f>
         <v>0</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="21">
         <f>IFERROR(Calculations!F66,"")</f>
         <v>1053610.1183814125</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
       <c r="G66" s="18">
         <f>IFERROR(Calculations!G66,"")</f>
         <v>65850.632398838279</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="21">
         <f>IFERROR(Calculations!H66,"")</f>
         <v>0</v>
       </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23">
+      <c r="I66" s="21"/>
+      <c r="J66" s="21">
         <f>IFERROR(Calculations!I66,"")</f>
         <v>91022.342669612219</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
       <c r="M66" s="18">
         <f>IFERROR(Calculations!J66,"")</f>
         <v>0</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="22">
         <f>IFERROR(Calculations!K66,"")</f>
         <v>1028438.4081106384</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="22"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="24"/>
     </row>
     <row r="67" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="17">
@@ -6445,37 +6445,37 @@
         <f>IFERROR(Calculations!C67,"")</f>
         <v>0</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="21">
         <f>IFERROR(Calculations!F67,"")</f>
         <v>1028438.4081106384</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="18">
         <f>IFERROR(Calculations!G67,"")</f>
         <v>64277.400506914899</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="21">
         <f>IFERROR(Calculations!H67,"")</f>
         <v>0</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23">
+      <c r="I67" s="21"/>
+      <c r="J67" s="21">
         <f>IFERROR(Calculations!I67,"")</f>
         <v>93753.012949700598</v>
       </c>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
       <c r="M67" s="18">
         <f>IFERROR(Calculations!J67,"")</f>
         <v>0</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="22">
         <f>IFERROR(Calculations!K67,"")</f>
         <v>998962.79566785262</v>
       </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="22"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="24"/>
     </row>
     <row r="68" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="17">
@@ -6486,37 +6486,37 @@
         <f>IFERROR(Calculations!C68,"")</f>
         <v>0</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="21">
         <f>IFERROR(Calculations!F68,"")</f>
         <v>998962.79566785262</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
       <c r="G68" s="18">
         <f>IFERROR(Calculations!G68,"")</f>
         <v>62435.174729240789</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="21">
         <f>IFERROR(Calculations!H68,"")</f>
         <v>0</v>
       </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23">
+      <c r="I68" s="21"/>
+      <c r="J68" s="21">
         <f>IFERROR(Calculations!I68,"")</f>
         <v>96565.603338191591</v>
       </c>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
       <c r="M68" s="18">
         <f>IFERROR(Calculations!J68,"")</f>
         <v>0</v>
       </c>
-      <c r="N68" s="20">
+      <c r="N68" s="22">
         <f>IFERROR(Calculations!K68,"")</f>
         <v>964832.3670589017</v>
       </c>
-      <c r="O68" s="21"/>
-      <c r="P68" s="22"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="24"/>
     </row>
     <row r="69" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="17">
@@ -6527,37 +6527,37 @@
         <f>IFERROR(Calculations!C69,"")</f>
         <v>0</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="21">
         <f>IFERROR(Calculations!F69,"")</f>
         <v>964832.3670589017</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
       <c r="G69" s="18">
         <f>IFERROR(Calculations!G69,"")</f>
         <v>60302.022941181356</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="21">
         <f>IFERROR(Calculations!H69,"")</f>
         <v>0</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23">
+      <c r="I69" s="21"/>
+      <c r="J69" s="21">
         <f>IFERROR(Calculations!I69,"")</f>
         <v>99462.571438337356</v>
       </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
       <c r="M69" s="18">
         <f>IFERROR(Calculations!J69,"")</f>
         <v>0</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N69" s="22">
         <f>IFERROR(Calculations!K69,"")</f>
         <v>925671.81856174569</v>
       </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="22"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="24"/>
     </row>
     <row r="70" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="17">
@@ -6568,37 +6568,37 @@
         <f>IFERROR(Calculations!C70,"")</f>
         <v>0</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="21">
         <f>IFERROR(Calculations!F70,"")</f>
         <v>925671.81856174569</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
       <c r="G70" s="18">
         <f>IFERROR(Calculations!G70,"")</f>
         <v>57854.488660109106</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="21">
         <f>IFERROR(Calculations!H70,"")</f>
         <v>0</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23">
+      <c r="I70" s="21"/>
+      <c r="J70" s="21">
         <f>IFERROR(Calculations!I70,"")</f>
         <v>102446.44858148745</v>
       </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
       <c r="M70" s="18">
         <f>IFERROR(Calculations!J70,"")</f>
         <v>0</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="22">
         <f>IFERROR(Calculations!K70,"")</f>
         <v>881079.8586403674</v>
       </c>
-      <c r="O70" s="21"/>
-      <c r="P70" s="22"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="24"/>
     </row>
     <row r="71" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="17">
@@ -6609,37 +6609,37 @@
         <f>IFERROR(Calculations!C71,"")</f>
         <v>0</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="21">
         <f>IFERROR(Calculations!F71,"")</f>
         <v>881079.8586403674</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
       <c r="G71" s="18">
         <f>IFERROR(Calculations!G71,"")</f>
         <v>55067.491165022962</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="21">
         <f>IFERROR(Calculations!H71,"")</f>
         <v>0</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23">
+      <c r="I71" s="21"/>
+      <c r="J71" s="21">
         <f>IFERROR(Calculations!I71,"")</f>
         <v>105519.8420389321</v>
       </c>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
       <c r="M71" s="18">
         <f>IFERROR(Calculations!J71,"")</f>
         <v>0</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N71" s="22">
         <f>IFERROR(Calculations!K71,"")</f>
         <v>830627.50776645821</v>
       </c>
-      <c r="O71" s="21"/>
-      <c r="P71" s="22"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="24"/>
     </row>
     <row r="72" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="17">
@@ -6650,37 +6650,37 @@
         <f>IFERROR(Calculations!C72,"")</f>
         <v>0</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="21">
         <f>IFERROR(Calculations!F72,"")</f>
         <v>830627.50776645821</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
       <c r="G72" s="18">
         <f>IFERROR(Calculations!G72,"")</f>
         <v>51914.219235403638</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="21">
         <f>IFERROR(Calculations!H72,"")</f>
         <v>0</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23">
+      <c r="I72" s="21"/>
+      <c r="J72" s="21">
         <f>IFERROR(Calculations!I72,"")</f>
         <v>108685.43730010005</v>
       </c>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
       <c r="M72" s="18">
         <f>IFERROR(Calculations!J72,"")</f>
         <v>0</v>
       </c>
-      <c r="N72" s="20">
+      <c r="N72" s="22">
         <f>IFERROR(Calculations!K72,"")</f>
         <v>773856.28970176191</v>
       </c>
-      <c r="O72" s="21"/>
-      <c r="P72" s="22"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="24"/>
     </row>
     <row r="73" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="17">
@@ -6691,37 +6691,37 @@
         <f>IFERROR(Calculations!C73,"")</f>
         <v>0</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="21">
         <f>IFERROR(Calculations!F73,"")</f>
         <v>773856.28970176191</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
       <c r="G73" s="18">
         <f>IFERROR(Calculations!G73,"")</f>
         <v>48366.018106360119</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="21">
         <f>IFERROR(Calculations!H73,"")</f>
         <v>0</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23">
+      <c r="I73" s="21"/>
+      <c r="J73" s="21">
         <f>IFERROR(Calculations!I73,"")</f>
         <v>111946.00041910303</v>
       </c>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
       <c r="M73" s="18">
         <f>IFERROR(Calculations!J73,"")</f>
         <v>0</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="22">
         <f>IFERROR(Calculations!K73,"")</f>
         <v>710276.30738901894</v>
       </c>
-      <c r="O73" s="21"/>
-      <c r="P73" s="22"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="24"/>
     </row>
     <row r="74" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="17">
@@ -6732,37 +6732,37 @@
         <f>IFERROR(Calculations!C74,"")</f>
         <v>0</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="21">
         <f>IFERROR(Calculations!F74,"")</f>
         <v>710276.30738901894</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
       <c r="G74" s="18">
         <f>IFERROR(Calculations!G74,"")</f>
         <v>44392.269211813684</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="21">
         <f>IFERROR(Calculations!H74,"")</f>
         <v>0</v>
       </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23">
+      <c r="I74" s="21"/>
+      <c r="J74" s="21">
         <f>IFERROR(Calculations!I74,"")</f>
         <v>115304.38043167612</v>
       </c>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
       <c r="M74" s="18">
         <f>IFERROR(Calculations!J74,"")</f>
         <v>0</v>
       </c>
-      <c r="N74" s="20">
+      <c r="N74" s="22">
         <f>IFERROR(Calculations!K74,"")</f>
         <v>639364.19616915646</v>
       </c>
-      <c r="O74" s="21"/>
-      <c r="P74" s="22"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="24"/>
     </row>
     <row r="75" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="17">
@@ -6773,37 +6773,37 @@
         <f>IFERROR(Calculations!C75,"")</f>
         <v>0</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="21">
         <f>IFERROR(Calculations!F75,"")</f>
         <v>639364.19616915646</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
       <c r="G75" s="18">
         <f>IFERROR(Calculations!G75,"")</f>
         <v>39960.262260572279</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="21">
         <f>IFERROR(Calculations!H75,"")</f>
         <v>0</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23">
+      <c r="I75" s="21"/>
+      <c r="J75" s="21">
         <f>IFERROR(Calculations!I75,"")</f>
         <v>118763.51184462642</v>
       </c>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
       <c r="M75" s="18">
         <f>IFERROR(Calculations!J75,"")</f>
         <v>0</v>
       </c>
-      <c r="N75" s="20">
+      <c r="N75" s="22">
         <f>IFERROR(Calculations!K75,"")</f>
         <v>560560.94658510236</v>
       </c>
-      <c r="O75" s="21"/>
-      <c r="P75" s="22"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="24"/>
     </row>
     <row r="76" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="17">
@@ -6814,37 +6814,37 @@
         <f>IFERROR(Calculations!C76,"")</f>
         <v>0</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="21">
         <f>IFERROR(Calculations!F76,"")</f>
         <v>560560.94658510236</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
       <c r="G76" s="18">
         <f>IFERROR(Calculations!G76,"")</f>
         <v>35035.059161568897</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="21">
         <f>IFERROR(Calculations!H76,"")</f>
         <v>0</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23">
+      <c r="I76" s="21"/>
+      <c r="J76" s="21">
         <f>IFERROR(Calculations!I76,"")</f>
         <v>122326.4171999652</v>
       </c>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
       <c r="M76" s="18">
         <f>IFERROR(Calculations!J76,"")</f>
         <v>0</v>
       </c>
-      <c r="N76" s="20">
+      <c r="N76" s="22">
         <f>IFERROR(Calculations!K76,"")</f>
         <v>473269.58854670601</v>
       </c>
-      <c r="O76" s="21"/>
-      <c r="P76" s="22"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="24"/>
     </row>
     <row r="77" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="17">
@@ -6855,37 +6855,37 @@
         <f>IFERROR(Calculations!C77,"")</f>
         <v>0</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="21">
         <f>IFERROR(Calculations!F77,"")</f>
         <v>473269.58854670601</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
       <c r="G77" s="18">
         <f>IFERROR(Calculations!G77,"")</f>
         <v>29579.349284169126</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="21">
         <f>IFERROR(Calculations!H77,"")</f>
         <v>0</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23">
+      <c r="I77" s="21"/>
+      <c r="J77" s="21">
         <f>IFERROR(Calculations!I77,"")</f>
         <v>125996.20971596417</v>
       </c>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
       <c r="M77" s="18">
         <f>IFERROR(Calculations!J77,"")</f>
         <v>0</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="22">
         <f>IFERROR(Calculations!K77,"")</f>
         <v>376852.72811491101</v>
       </c>
-      <c r="O77" s="21"/>
-      <c r="P77" s="22"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="24"/>
     </row>
     <row r="78" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="17">
@@ -6896,37 +6896,37 @@
         <f>IFERROR(Calculations!C78,"")</f>
         <v>0</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="21">
         <f>IFERROR(Calculations!F78,"")</f>
         <v>376852.72811491101</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
       <c r="G78" s="18">
         <f>IFERROR(Calculations!G78,"")</f>
         <v>23553.295507181938</v>
       </c>
-      <c r="H78" s="23">
+      <c r="H78" s="21">
         <f>IFERROR(Calculations!H78,"")</f>
         <v>0</v>
       </c>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23">
+      <c r="I78" s="21"/>
+      <c r="J78" s="21">
         <f>IFERROR(Calculations!I78,"")</f>
         <v>129776.09600744309</v>
       </c>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
       <c r="M78" s="18">
         <f>IFERROR(Calculations!J78,"")</f>
         <v>0</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="22">
         <f>IFERROR(Calculations!K78,"")</f>
         <v>270629.92761464987</v>
       </c>
-      <c r="O78" s="21"/>
-      <c r="P78" s="22"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="24"/>
     </row>
     <row r="79" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="17">
@@ -6937,37 +6937,37 @@
         <f>IFERROR(Calculations!C79,"")</f>
         <v>0</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="21">
         <f>IFERROR(Calculations!F79,"")</f>
         <v>270629.92761464987</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
       <c r="G79" s="18">
         <f>IFERROR(Calculations!G79,"")</f>
         <v>16914.370475915617</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="21">
         <f>IFERROR(Calculations!H79,"")</f>
         <v>0</v>
       </c>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23">
+      <c r="I79" s="21"/>
+      <c r="J79" s="21">
         <f>IFERROR(Calculations!I79,"")</f>
         <v>133669.37888766639</v>
       </c>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
       <c r="M79" s="18">
         <f>IFERROR(Calculations!J79,"")</f>
         <v>0</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N79" s="22">
         <f>IFERROR(Calculations!K79,"")</f>
         <v>153874.91920289909</v>
       </c>
-      <c r="O79" s="21"/>
-      <c r="P79" s="22"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="24"/>
     </row>
     <row r="80" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="17">
@@ -6978,37 +6978,37 @@
         <f>IFERROR(Calculations!C80,"")</f>
         <v>0</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="21">
         <f>IFERROR(Calculations!F80,"")</f>
         <v>153874.91920289909</v>
       </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
       <c r="G80" s="18">
         <f>IFERROR(Calculations!G80,"")</f>
         <v>9617.1824501811934</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H80" s="21">
         <f>IFERROR(Calculations!H80,"")</f>
         <v>0</v>
       </c>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23">
+      <c r="I80" s="21"/>
+      <c r="J80" s="21">
         <f>IFERROR(Calculations!I80,"")</f>
         <v>137679.46025429637</v>
       </c>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
       <c r="M80" s="18">
         <f>IFERROR(Calculations!J80,"")</f>
         <v>0</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="22">
         <f>IFERROR(Calculations!K80,"")</f>
         <v>25812.641398783919</v>
       </c>
-      <c r="O80" s="21"/>
-      <c r="P80" s="22"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="24"/>
     </row>
     <row r="81" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="17" t="str">
@@ -7019,37 +7019,37 @@
         <f>IFERROR(Calculations!C81,"")</f>
         <v/>
       </c>
-      <c r="D81" s="23" t="str">
+      <c r="D81" s="21" t="str">
         <f>IFERROR(Calculations!F81,"")</f>
         <v/>
       </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
       <c r="G81" s="18" t="str">
         <f>IFERROR(Calculations!G81,"")</f>
         <v/>
       </c>
-      <c r="H81" s="23" t="str">
+      <c r="H81" s="21" t="str">
         <f>IFERROR(Calculations!H81,"")</f>
         <v/>
       </c>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23" t="str">
+      <c r="I81" s="21"/>
+      <c r="J81" s="21" t="str">
         <f>IFERROR(Calculations!I81,"")</f>
         <v/>
       </c>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
       <c r="M81" s="18" t="str">
         <f>IFERROR(Calculations!J81,"")</f>
         <v/>
       </c>
-      <c r="N81" s="20" t="str">
+      <c r="N81" s="22" t="str">
         <f>IFERROR(Calculations!K81,"")</f>
         <v/>
       </c>
-      <c r="O81" s="21"/>
-      <c r="P81" s="22"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="24"/>
     </row>
     <row r="82" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="17" t="str">
@@ -7060,37 +7060,37 @@
         <f>IFERROR(Calculations!C82,"")</f>
         <v/>
       </c>
-      <c r="D82" s="23" t="str">
+      <c r="D82" s="21" t="str">
         <f>IFERROR(Calculations!F82,"")</f>
         <v/>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
       <c r="G82" s="18" t="str">
         <f>IFERROR(Calculations!G82,"")</f>
         <v/>
       </c>
-      <c r="H82" s="23" t="str">
+      <c r="H82" s="21" t="str">
         <f>IFERROR(Calculations!H82,"")</f>
         <v/>
       </c>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23" t="str">
+      <c r="I82" s="21"/>
+      <c r="J82" s="21" t="str">
         <f>IFERROR(Calculations!I82,"")</f>
         <v/>
       </c>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
       <c r="M82" s="18" t="str">
         <f>IFERROR(Calculations!J82,"")</f>
         <v/>
       </c>
-      <c r="N82" s="20" t="str">
+      <c r="N82" s="22" t="str">
         <f>IFERROR(Calculations!K82,"")</f>
         <v/>
       </c>
-      <c r="O82" s="21"/>
-      <c r="P82" s="22"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="24"/>
     </row>
     <row r="83" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="17" t="str">
@@ -7101,37 +7101,37 @@
         <f>IFERROR(Calculations!C83,"")</f>
         <v/>
       </c>
-      <c r="D83" s="23" t="str">
+      <c r="D83" s="21" t="str">
         <f>IFERROR(Calculations!F83,"")</f>
         <v/>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
       <c r="G83" s="18" t="str">
         <f>IFERROR(Calculations!G83,"")</f>
         <v/>
       </c>
-      <c r="H83" s="23" t="str">
+      <c r="H83" s="21" t="str">
         <f>IFERROR(Calculations!H83,"")</f>
         <v/>
       </c>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23" t="str">
+      <c r="I83" s="21"/>
+      <c r="J83" s="21" t="str">
         <f>IFERROR(Calculations!I83,"")</f>
         <v/>
       </c>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
       <c r="M83" s="18" t="str">
         <f>IFERROR(Calculations!J83,"")</f>
         <v/>
       </c>
-      <c r="N83" s="20" t="str">
+      <c r="N83" s="22" t="str">
         <f>IFERROR(Calculations!K83,"")</f>
         <v/>
       </c>
-      <c r="O83" s="21"/>
-      <c r="P83" s="22"/>
+      <c r="O83" s="23"/>
+      <c r="P83" s="24"/>
     </row>
     <row r="84" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="17" t="str">
@@ -7142,37 +7142,37 @@
         <f>IFERROR(Calculations!C84,"")</f>
         <v/>
       </c>
-      <c r="D84" s="23" t="str">
+      <c r="D84" s="21" t="str">
         <f>IFERROR(Calculations!F84,"")</f>
         <v/>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
       <c r="G84" s="18" t="str">
         <f>IFERROR(Calculations!G84,"")</f>
         <v/>
       </c>
-      <c r="H84" s="23" t="str">
+      <c r="H84" s="21" t="str">
         <f>IFERROR(Calculations!H84,"")</f>
         <v/>
       </c>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23" t="str">
+      <c r="I84" s="21"/>
+      <c r="J84" s="21" t="str">
         <f>IFERROR(Calculations!I84,"")</f>
         <v/>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
       <c r="M84" s="18" t="str">
         <f>IFERROR(Calculations!J84,"")</f>
         <v/>
       </c>
-      <c r="N84" s="20" t="str">
+      <c r="N84" s="22" t="str">
         <f>IFERROR(Calculations!K84,"")</f>
         <v/>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="22"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="24"/>
     </row>
     <row r="85" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="17" t="str">
@@ -7183,37 +7183,37 @@
         <f>IFERROR(Calculations!C85,"")</f>
         <v/>
       </c>
-      <c r="D85" s="23" t="str">
+      <c r="D85" s="21" t="str">
         <f>IFERROR(Calculations!F85,"")</f>
         <v/>
       </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
       <c r="G85" s="18" t="str">
         <f>IFERROR(Calculations!G85,"")</f>
         <v/>
       </c>
-      <c r="H85" s="23" t="str">
+      <c r="H85" s="21" t="str">
         <f>IFERROR(Calculations!H85,"")</f>
         <v/>
       </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23" t="str">
+      <c r="I85" s="21"/>
+      <c r="J85" s="21" t="str">
         <f>IFERROR(Calculations!I85,"")</f>
         <v/>
       </c>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
       <c r="M85" s="18" t="str">
         <f>IFERROR(Calculations!J85,"")</f>
         <v/>
       </c>
-      <c r="N85" s="20" t="str">
+      <c r="N85" s="22" t="str">
         <f>IFERROR(Calculations!K85,"")</f>
         <v/>
       </c>
-      <c r="O85" s="21"/>
-      <c r="P85" s="22"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="24"/>
     </row>
     <row r="86" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="17" t="str">
@@ -7224,37 +7224,37 @@
         <f>IFERROR(Calculations!C86,"")</f>
         <v/>
       </c>
-      <c r="D86" s="23" t="str">
+      <c r="D86" s="21" t="str">
         <f>IFERROR(Calculations!F86,"")</f>
         <v/>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
       <c r="G86" s="18" t="str">
         <f>IFERROR(Calculations!G86,"")</f>
         <v/>
       </c>
-      <c r="H86" s="23" t="str">
+      <c r="H86" s="21" t="str">
         <f>IFERROR(Calculations!H86,"")</f>
         <v/>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23" t="str">
+      <c r="I86" s="21"/>
+      <c r="J86" s="21" t="str">
         <f>IFERROR(Calculations!I86,"")</f>
         <v/>
       </c>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
       <c r="M86" s="18" t="str">
         <f>IFERROR(Calculations!J86,"")</f>
         <v/>
       </c>
-      <c r="N86" s="20" t="str">
+      <c r="N86" s="22" t="str">
         <f>IFERROR(Calculations!K86,"")</f>
         <v/>
       </c>
-      <c r="O86" s="21"/>
-      <c r="P86" s="22"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="24"/>
     </row>
     <row r="87" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="17" t="str">
@@ -7265,37 +7265,37 @@
         <f>IFERROR(Calculations!C87,"")</f>
         <v/>
       </c>
-      <c r="D87" s="23" t="str">
+      <c r="D87" s="21" t="str">
         <f>IFERROR(Calculations!F87,"")</f>
         <v/>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
       <c r="G87" s="18" t="str">
         <f>IFERROR(Calculations!G87,"")</f>
         <v/>
       </c>
-      <c r="H87" s="23" t="str">
+      <c r="H87" s="21" t="str">
         <f>IFERROR(Calculations!H87,"")</f>
         <v/>
       </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23" t="str">
+      <c r="I87" s="21"/>
+      <c r="J87" s="21" t="str">
         <f>IFERROR(Calculations!I87,"")</f>
         <v/>
       </c>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
       <c r="M87" s="18" t="str">
         <f>IFERROR(Calculations!J87,"")</f>
         <v/>
       </c>
-      <c r="N87" s="20" t="str">
+      <c r="N87" s="22" t="str">
         <f>IFERROR(Calculations!K87,"")</f>
         <v/>
       </c>
-      <c r="O87" s="21"/>
-      <c r="P87" s="22"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="24"/>
     </row>
     <row r="88" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="17" t="str">
@@ -7306,37 +7306,37 @@
         <f>IFERROR(Calculations!C88,"")</f>
         <v/>
       </c>
-      <c r="D88" s="23" t="str">
+      <c r="D88" s="21" t="str">
         <f>IFERROR(Calculations!F88,"")</f>
         <v/>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
       <c r="G88" s="18" t="str">
         <f>IFERROR(Calculations!G88,"")</f>
         <v/>
       </c>
-      <c r="H88" s="23" t="str">
+      <c r="H88" s="21" t="str">
         <f>IFERROR(Calculations!H88,"")</f>
         <v/>
       </c>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23" t="str">
+      <c r="I88" s="21"/>
+      <c r="J88" s="21" t="str">
         <f>IFERROR(Calculations!I88,"")</f>
         <v/>
       </c>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
       <c r="M88" s="18" t="str">
         <f>IFERROR(Calculations!J88,"")</f>
         <v/>
       </c>
-      <c r="N88" s="20" t="str">
+      <c r="N88" s="22" t="str">
         <f>IFERROR(Calculations!K88,"")</f>
         <v/>
       </c>
-      <c r="O88" s="21"/>
-      <c r="P88" s="22"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="24"/>
     </row>
     <row r="89" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="17" t="str">
@@ -7347,37 +7347,37 @@
         <f>IFERROR(Calculations!C89,"")</f>
         <v/>
       </c>
-      <c r="D89" s="23" t="str">
+      <c r="D89" s="21" t="str">
         <f>IFERROR(Calculations!F89,"")</f>
         <v/>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="18" t="str">
         <f>IFERROR(Calculations!G89,"")</f>
         <v/>
       </c>
-      <c r="H89" s="23" t="str">
+      <c r="H89" s="21" t="str">
         <f>IFERROR(Calculations!H89,"")</f>
         <v/>
       </c>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23" t="str">
+      <c r="I89" s="21"/>
+      <c r="J89" s="21" t="str">
         <f>IFERROR(Calculations!I89,"")</f>
         <v/>
       </c>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
       <c r="M89" s="18" t="str">
         <f>IFERROR(Calculations!J89,"")</f>
         <v/>
       </c>
-      <c r="N89" s="20" t="str">
+      <c r="N89" s="22" t="str">
         <f>IFERROR(Calculations!K89,"")</f>
         <v/>
       </c>
-      <c r="O89" s="21"/>
-      <c r="P89" s="22"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="24"/>
     </row>
     <row r="90" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="17" t="str">
@@ -7388,37 +7388,37 @@
         <f>IFERROR(Calculations!C90,"")</f>
         <v/>
       </c>
-      <c r="D90" s="23" t="str">
+      <c r="D90" s="21" t="str">
         <f>IFERROR(Calculations!F90,"")</f>
         <v/>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
       <c r="G90" s="18" t="str">
         <f>IFERROR(Calculations!G90,"")</f>
         <v/>
       </c>
-      <c r="H90" s="23" t="str">
+      <c r="H90" s="21" t="str">
         <f>IFERROR(Calculations!H90,"")</f>
         <v/>
       </c>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23" t="str">
+      <c r="I90" s="21"/>
+      <c r="J90" s="21" t="str">
         <f>IFERROR(Calculations!I90,"")</f>
         <v/>
       </c>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
       <c r="M90" s="18" t="str">
         <f>IFERROR(Calculations!J90,"")</f>
         <v/>
       </c>
-      <c r="N90" s="20" t="str">
+      <c r="N90" s="22" t="str">
         <f>IFERROR(Calculations!K90,"")</f>
         <v/>
       </c>
-      <c r="O90" s="21"/>
-      <c r="P90" s="22"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="24"/>
     </row>
     <row r="91" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="17" t="str">
@@ -7429,37 +7429,37 @@
         <f>IFERROR(Calculations!C91,"")</f>
         <v/>
       </c>
-      <c r="D91" s="23" t="str">
+      <c r="D91" s="21" t="str">
         <f>IFERROR(Calculations!F91,"")</f>
         <v/>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
       <c r="G91" s="18" t="str">
         <f>IFERROR(Calculations!G91,"")</f>
         <v/>
       </c>
-      <c r="H91" s="23" t="str">
+      <c r="H91" s="21" t="str">
         <f>IFERROR(Calculations!H91,"")</f>
         <v/>
       </c>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23" t="str">
+      <c r="I91" s="21"/>
+      <c r="J91" s="21" t="str">
         <f>IFERROR(Calculations!I91,"")</f>
         <v/>
       </c>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
       <c r="M91" s="18" t="str">
         <f>IFERROR(Calculations!J91,"")</f>
         <v/>
       </c>
-      <c r="N91" s="20" t="str">
+      <c r="N91" s="22" t="str">
         <f>IFERROR(Calculations!K91,"")</f>
         <v/>
       </c>
-      <c r="O91" s="21"/>
-      <c r="P91" s="22"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="24"/>
     </row>
     <row r="92" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="17" t="str">
@@ -7470,37 +7470,37 @@
         <f>IFERROR(Calculations!C92,"")</f>
         <v/>
       </c>
-      <c r="D92" s="23" t="str">
+      <c r="D92" s="21" t="str">
         <f>IFERROR(Calculations!F92,"")</f>
         <v/>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
       <c r="G92" s="18" t="str">
         <f>IFERROR(Calculations!G92,"")</f>
         <v/>
       </c>
-      <c r="H92" s="23" t="str">
+      <c r="H92" s="21" t="str">
         <f>IFERROR(Calculations!H92,"")</f>
         <v/>
       </c>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23" t="str">
+      <c r="I92" s="21"/>
+      <c r="J92" s="21" t="str">
         <f>IFERROR(Calculations!I92,"")</f>
         <v/>
       </c>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
       <c r="M92" s="18" t="str">
         <f>IFERROR(Calculations!J92,"")</f>
         <v/>
       </c>
-      <c r="N92" s="20" t="str">
+      <c r="N92" s="22" t="str">
         <f>IFERROR(Calculations!K92,"")</f>
         <v/>
       </c>
-      <c r="O92" s="21"/>
-      <c r="P92" s="22"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="24"/>
     </row>
     <row r="93" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="17" t="str">
@@ -7511,37 +7511,37 @@
         <f>IFERROR(Calculations!C93,"")</f>
         <v/>
       </c>
-      <c r="D93" s="23" t="str">
+      <c r="D93" s="21" t="str">
         <f>IFERROR(Calculations!F93,"")</f>
         <v/>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="18" t="str">
         <f>IFERROR(Calculations!G93,"")</f>
         <v/>
       </c>
-      <c r="H93" s="23" t="str">
+      <c r="H93" s="21" t="str">
         <f>IFERROR(Calculations!H93,"")</f>
         <v/>
       </c>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23" t="str">
+      <c r="I93" s="21"/>
+      <c r="J93" s="21" t="str">
         <f>IFERROR(Calculations!I93,"")</f>
         <v/>
       </c>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
       <c r="M93" s="18" t="str">
         <f>IFERROR(Calculations!J93,"")</f>
         <v/>
       </c>
-      <c r="N93" s="20" t="str">
+      <c r="N93" s="22" t="str">
         <f>IFERROR(Calculations!K93,"")</f>
         <v/>
       </c>
-      <c r="O93" s="21"/>
-      <c r="P93" s="22"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="24"/>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="17" t="str">
@@ -7552,37 +7552,37 @@
         <f>IFERROR(Calculations!C94,"")</f>
         <v/>
       </c>
-      <c r="D94" s="23" t="str">
+      <c r="D94" s="21" t="str">
         <f>IFERROR(Calculations!F94,"")</f>
         <v/>
       </c>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
       <c r="G94" s="18" t="str">
         <f>IFERROR(Calculations!G94,"")</f>
         <v/>
       </c>
-      <c r="H94" s="23" t="str">
+      <c r="H94" s="21" t="str">
         <f>IFERROR(Calculations!H94,"")</f>
         <v/>
       </c>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23" t="str">
+      <c r="I94" s="21"/>
+      <c r="J94" s="21" t="str">
         <f>IFERROR(Calculations!I94,"")</f>
         <v/>
       </c>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
       <c r="M94" s="18" t="str">
         <f>IFERROR(Calculations!J94,"")</f>
         <v/>
       </c>
-      <c r="N94" s="20" t="str">
+      <c r="N94" s="22" t="str">
         <f>IFERROR(Calculations!K94,"")</f>
         <v/>
       </c>
-      <c r="O94" s="21"/>
-      <c r="P94" s="22"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="24"/>
     </row>
     <row r="95" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="17" t="str">
@@ -7593,37 +7593,37 @@
         <f>IFERROR(Calculations!C95,"")</f>
         <v/>
       </c>
-      <c r="D95" s="23" t="str">
+      <c r="D95" s="21" t="str">
         <f>IFERROR(Calculations!F95,"")</f>
         <v/>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
       <c r="G95" s="18" t="str">
         <f>IFERROR(Calculations!G95,"")</f>
         <v/>
       </c>
-      <c r="H95" s="23" t="str">
+      <c r="H95" s="21" t="str">
         <f>IFERROR(Calculations!H95,"")</f>
         <v/>
       </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23" t="str">
+      <c r="I95" s="21"/>
+      <c r="J95" s="21" t="str">
         <f>IFERROR(Calculations!I95,"")</f>
         <v/>
       </c>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
       <c r="M95" s="18" t="str">
         <f>IFERROR(Calculations!J95,"")</f>
         <v/>
       </c>
-      <c r="N95" s="20" t="str">
+      <c r="N95" s="22" t="str">
         <f>IFERROR(Calculations!K95,"")</f>
         <v/>
       </c>
-      <c r="O95" s="21"/>
-      <c r="P95" s="22"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="24"/>
     </row>
     <row r="96" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="17" t="str">
@@ -7634,37 +7634,37 @@
         <f>IFERROR(Calculations!C96,"")</f>
         <v/>
       </c>
-      <c r="D96" s="23" t="str">
+      <c r="D96" s="21" t="str">
         <f>IFERROR(Calculations!F96,"")</f>
         <v/>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
       <c r="G96" s="18" t="str">
         <f>IFERROR(Calculations!G96,"")</f>
         <v/>
       </c>
-      <c r="H96" s="23" t="str">
+      <c r="H96" s="21" t="str">
         <f>IFERROR(Calculations!H96,"")</f>
         <v/>
       </c>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23" t="str">
+      <c r="I96" s="21"/>
+      <c r="J96" s="21" t="str">
         <f>IFERROR(Calculations!I96,"")</f>
         <v/>
       </c>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
       <c r="M96" s="18" t="str">
         <f>IFERROR(Calculations!J96,"")</f>
         <v/>
       </c>
-      <c r="N96" s="20" t="str">
+      <c r="N96" s="22" t="str">
         <f>IFERROR(Calculations!K96,"")</f>
         <v/>
       </c>
-      <c r="O96" s="21"/>
-      <c r="P96" s="22"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="24"/>
     </row>
     <row r="97" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="17" t="str">
@@ -7675,37 +7675,37 @@
         <f>IFERROR(Calculations!C97,"")</f>
         <v/>
       </c>
-      <c r="D97" s="23" t="str">
+      <c r="D97" s="21" t="str">
         <f>IFERROR(Calculations!F97,"")</f>
         <v/>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
       <c r="G97" s="18" t="str">
         <f>IFERROR(Calculations!G97,"")</f>
         <v/>
       </c>
-      <c r="H97" s="23" t="str">
+      <c r="H97" s="21" t="str">
         <f>IFERROR(Calculations!H97,"")</f>
         <v/>
       </c>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23" t="str">
+      <c r="I97" s="21"/>
+      <c r="J97" s="21" t="str">
         <f>IFERROR(Calculations!I97,"")</f>
         <v/>
       </c>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
       <c r="M97" s="18" t="str">
         <f>IFERROR(Calculations!J97,"")</f>
         <v/>
       </c>
-      <c r="N97" s="20" t="str">
+      <c r="N97" s="22" t="str">
         <f>IFERROR(Calculations!K97,"")</f>
         <v/>
       </c>
-      <c r="O97" s="21"/>
-      <c r="P97" s="22"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="24"/>
     </row>
     <row r="98" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="17" t="str">
@@ -7716,37 +7716,37 @@
         <f>IFERROR(Calculations!C98,"")</f>
         <v/>
       </c>
-      <c r="D98" s="23" t="str">
+      <c r="D98" s="21" t="str">
         <f>IFERROR(Calculations!F98,"")</f>
         <v/>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
       <c r="G98" s="18" t="str">
         <f>IFERROR(Calculations!G98,"")</f>
         <v/>
       </c>
-      <c r="H98" s="23" t="str">
+      <c r="H98" s="21" t="str">
         <f>IFERROR(Calculations!H98,"")</f>
         <v/>
       </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23" t="str">
+      <c r="I98" s="21"/>
+      <c r="J98" s="21" t="str">
         <f>IFERROR(Calculations!I98,"")</f>
         <v/>
       </c>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
       <c r="M98" s="18" t="str">
         <f>IFERROR(Calculations!J98,"")</f>
         <v/>
       </c>
-      <c r="N98" s="20" t="str">
+      <c r="N98" s="22" t="str">
         <f>IFERROR(Calculations!K98,"")</f>
         <v/>
       </c>
-      <c r="O98" s="21"/>
-      <c r="P98" s="22"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="24"/>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="17" t="str">
@@ -7757,37 +7757,37 @@
         <f>IFERROR(Calculations!C99,"")</f>
         <v/>
       </c>
-      <c r="D99" s="23" t="str">
+      <c r="D99" s="21" t="str">
         <f>IFERROR(Calculations!F99,"")</f>
         <v/>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
       <c r="G99" s="18" t="str">
         <f>IFERROR(Calculations!G99,"")</f>
         <v/>
       </c>
-      <c r="H99" s="23" t="str">
+      <c r="H99" s="21" t="str">
         <f>IFERROR(Calculations!H99,"")</f>
         <v/>
       </c>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23" t="str">
+      <c r="I99" s="21"/>
+      <c r="J99" s="21" t="str">
         <f>IFERROR(Calculations!I99,"")</f>
         <v/>
       </c>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
       <c r="M99" s="18" t="str">
         <f>IFERROR(Calculations!J99,"")</f>
         <v/>
       </c>
-      <c r="N99" s="20" t="str">
+      <c r="N99" s="22" t="str">
         <f>IFERROR(Calculations!K99,"")</f>
         <v/>
       </c>
-      <c r="O99" s="21"/>
-      <c r="P99" s="22"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="24"/>
     </row>
     <row r="100" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="17" t="str">
@@ -7798,37 +7798,37 @@
         <f>IFERROR(Calculations!C100,"")</f>
         <v/>
       </c>
-      <c r="D100" s="23" t="str">
+      <c r="D100" s="21" t="str">
         <f>IFERROR(Calculations!F100,"")</f>
         <v/>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="18" t="str">
         <f>IFERROR(Calculations!G100,"")</f>
         <v/>
       </c>
-      <c r="H100" s="23" t="str">
+      <c r="H100" s="21" t="str">
         <f>IFERROR(Calculations!H100,"")</f>
         <v/>
       </c>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23" t="str">
+      <c r="I100" s="21"/>
+      <c r="J100" s="21" t="str">
         <f>IFERROR(Calculations!I100,"")</f>
         <v/>
       </c>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
       <c r="M100" s="18" t="str">
         <f>IFERROR(Calculations!J100,"")</f>
         <v/>
       </c>
-      <c r="N100" s="20" t="str">
+      <c r="N100" s="22" t="str">
         <f>IFERROR(Calculations!K100,"")</f>
         <v/>
       </c>
-      <c r="O100" s="21"/>
-      <c r="P100" s="22"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="24"/>
     </row>
     <row r="101" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="17" t="str">
@@ -7839,37 +7839,37 @@
         <f>IFERROR(Calculations!C101,"")</f>
         <v/>
       </c>
-      <c r="D101" s="23" t="str">
+      <c r="D101" s="21" t="str">
         <f>IFERROR(Calculations!F101,"")</f>
         <v/>
       </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
       <c r="G101" s="18" t="str">
         <f>IFERROR(Calculations!G101,"")</f>
         <v/>
       </c>
-      <c r="H101" s="23" t="str">
+      <c r="H101" s="21" t="str">
         <f>IFERROR(Calculations!H101,"")</f>
         <v/>
       </c>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23" t="str">
+      <c r="I101" s="21"/>
+      <c r="J101" s="21" t="str">
         <f>IFERROR(Calculations!I101,"")</f>
         <v/>
       </c>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
       <c r="M101" s="18" t="str">
         <f>IFERROR(Calculations!J101,"")</f>
         <v/>
       </c>
-      <c r="N101" s="20" t="str">
+      <c r="N101" s="22" t="str">
         <f>IFERROR(Calculations!K101,"")</f>
         <v/>
       </c>
-      <c r="O101" s="21"/>
-      <c r="P101" s="22"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="24"/>
     </row>
     <row r="102" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="17" t="str">
@@ -7880,37 +7880,37 @@
         <f>IFERROR(Calculations!C102,"")</f>
         <v/>
       </c>
-      <c r="D102" s="23" t="str">
+      <c r="D102" s="21" t="str">
         <f>IFERROR(Calculations!F102,"")</f>
         <v/>
       </c>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
       <c r="G102" s="18" t="str">
         <f>IFERROR(Calculations!G102,"")</f>
         <v/>
       </c>
-      <c r="H102" s="23" t="str">
+      <c r="H102" s="21" t="str">
         <f>IFERROR(Calculations!H102,"")</f>
         <v/>
       </c>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23" t="str">
+      <c r="I102" s="21"/>
+      <c r="J102" s="21" t="str">
         <f>IFERROR(Calculations!I102,"")</f>
         <v/>
       </c>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
       <c r="M102" s="18" t="str">
         <f>IFERROR(Calculations!J102,"")</f>
         <v/>
       </c>
-      <c r="N102" s="20" t="str">
+      <c r="N102" s="22" t="str">
         <f>IFERROR(Calculations!K102,"")</f>
         <v/>
       </c>
-      <c r="O102" s="21"/>
-      <c r="P102" s="22"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="24"/>
     </row>
     <row r="103" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="17" t="str">
@@ -7921,37 +7921,37 @@
         <f>IFERROR(Calculations!C103,"")</f>
         <v/>
       </c>
-      <c r="D103" s="23" t="str">
+      <c r="D103" s="21" t="str">
         <f>IFERROR(Calculations!F103,"")</f>
         <v/>
       </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
       <c r="G103" s="18" t="str">
         <f>IFERROR(Calculations!G103,"")</f>
         <v/>
       </c>
-      <c r="H103" s="23" t="str">
+      <c r="H103" s="21" t="str">
         <f>IFERROR(Calculations!H103,"")</f>
         <v/>
       </c>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23" t="str">
+      <c r="I103" s="21"/>
+      <c r="J103" s="21" t="str">
         <f>IFERROR(Calculations!I103,"")</f>
         <v/>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
       <c r="M103" s="18" t="str">
         <f>IFERROR(Calculations!J103,"")</f>
         <v/>
       </c>
-      <c r="N103" s="20" t="str">
+      <c r="N103" s="22" t="str">
         <f>IFERROR(Calculations!K103,"")</f>
         <v/>
       </c>
-      <c r="O103" s="21"/>
-      <c r="P103" s="22"/>
+      <c r="O103" s="23"/>
+      <c r="P103" s="24"/>
     </row>
     <row r="104" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="17" t="str">
@@ -7962,37 +7962,37 @@
         <f>IFERROR(Calculations!C104,"")</f>
         <v/>
       </c>
-      <c r="D104" s="23" t="str">
+      <c r="D104" s="21" t="str">
         <f>IFERROR(Calculations!F104,"")</f>
         <v/>
       </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
       <c r="G104" s="18" t="str">
         <f>IFERROR(Calculations!G104,"")</f>
         <v/>
       </c>
-      <c r="H104" s="23" t="str">
+      <c r="H104" s="21" t="str">
         <f>IFERROR(Calculations!H104,"")</f>
         <v/>
       </c>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23" t="str">
+      <c r="I104" s="21"/>
+      <c r="J104" s="21" t="str">
         <f>IFERROR(Calculations!I104,"")</f>
         <v/>
       </c>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
       <c r="M104" s="18" t="str">
         <f>IFERROR(Calculations!J104,"")</f>
         <v/>
       </c>
-      <c r="N104" s="20" t="str">
+      <c r="N104" s="22" t="str">
         <f>IFERROR(Calculations!K104,"")</f>
         <v/>
       </c>
-      <c r="O104" s="21"/>
-      <c r="P104" s="22"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="24"/>
     </row>
     <row r="105" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="17" t="str">
@@ -8003,37 +8003,37 @@
         <f>IFERROR(Calculations!C105,"")</f>
         <v/>
       </c>
-      <c r="D105" s="23" t="str">
+      <c r="D105" s="21" t="str">
         <f>IFERROR(Calculations!F105,"")</f>
         <v/>
       </c>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
       <c r="G105" s="18" t="str">
         <f>IFERROR(Calculations!G105,"")</f>
         <v/>
       </c>
-      <c r="H105" s="23" t="str">
+      <c r="H105" s="21" t="str">
         <f>IFERROR(Calculations!H105,"")</f>
         <v/>
       </c>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23" t="str">
+      <c r="I105" s="21"/>
+      <c r="J105" s="21" t="str">
         <f>IFERROR(Calculations!I105,"")</f>
         <v/>
       </c>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
       <c r="M105" s="18" t="str">
         <f>IFERROR(Calculations!J105,"")</f>
         <v/>
       </c>
-      <c r="N105" s="20" t="str">
+      <c r="N105" s="22" t="str">
         <f>IFERROR(Calculations!K105,"")</f>
         <v/>
       </c>
-      <c r="O105" s="21"/>
-      <c r="P105" s="22"/>
+      <c r="O105" s="23"/>
+      <c r="P105" s="24"/>
     </row>
     <row r="106" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="17" t="str">
@@ -8044,37 +8044,37 @@
         <f>IFERROR(Calculations!C106,"")</f>
         <v/>
       </c>
-      <c r="D106" s="23" t="str">
+      <c r="D106" s="21" t="str">
         <f>IFERROR(Calculations!F106,"")</f>
         <v/>
       </c>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="18" t="str">
         <f>IFERROR(Calculations!G106,"")</f>
         <v/>
       </c>
-      <c r="H106" s="23" t="str">
+      <c r="H106" s="21" t="str">
         <f>IFERROR(Calculations!H106,"")</f>
         <v/>
       </c>
-      <c r="I106" s="23"/>
-      <c r="J106" s="23" t="str">
+      <c r="I106" s="21"/>
+      <c r="J106" s="21" t="str">
         <f>IFERROR(Calculations!I106,"")</f>
         <v/>
       </c>
-      <c r="K106" s="23"/>
-      <c r="L106" s="23"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
       <c r="M106" s="18" t="str">
         <f>IFERROR(Calculations!J106,"")</f>
         <v/>
       </c>
-      <c r="N106" s="20" t="str">
+      <c r="N106" s="22" t="str">
         <f>IFERROR(Calculations!K106,"")</f>
         <v/>
       </c>
-      <c r="O106" s="21"/>
-      <c r="P106" s="22"/>
+      <c r="O106" s="23"/>
+      <c r="P106" s="24"/>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="17" t="str">
@@ -8085,37 +8085,37 @@
         <f>IFERROR(Calculations!C107,"")</f>
         <v/>
       </c>
-      <c r="D107" s="23" t="str">
+      <c r="D107" s="21" t="str">
         <f>IFERROR(Calculations!F107,"")</f>
         <v/>
       </c>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
       <c r="G107" s="18" t="str">
         <f>IFERROR(Calculations!G107,"")</f>
         <v/>
       </c>
-      <c r="H107" s="23" t="str">
+      <c r="H107" s="21" t="str">
         <f>IFERROR(Calculations!H107,"")</f>
         <v/>
       </c>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23" t="str">
+      <c r="I107" s="21"/>
+      <c r="J107" s="21" t="str">
         <f>IFERROR(Calculations!I107,"")</f>
         <v/>
       </c>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
       <c r="M107" s="18" t="str">
         <f>IFERROR(Calculations!J107,"")</f>
         <v/>
       </c>
-      <c r="N107" s="20" t="str">
+      <c r="N107" s="22" t="str">
         <f>IFERROR(Calculations!K107,"")</f>
         <v/>
       </c>
-      <c r="O107" s="21"/>
-      <c r="P107" s="22"/>
+      <c r="O107" s="23"/>
+      <c r="P107" s="24"/>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="17" t="str">
@@ -8126,37 +8126,37 @@
         <f>IFERROR(Calculations!C108,"")</f>
         <v/>
       </c>
-      <c r="D108" s="23" t="str">
+      <c r="D108" s="21" t="str">
         <f>IFERROR(Calculations!F108,"")</f>
         <v/>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
       <c r="G108" s="18" t="str">
         <f>IFERROR(Calculations!G108,"")</f>
         <v/>
       </c>
-      <c r="H108" s="23" t="str">
+      <c r="H108" s="21" t="str">
         <f>IFERROR(Calculations!H108,"")</f>
         <v/>
       </c>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23" t="str">
+      <c r="I108" s="21"/>
+      <c r="J108" s="21" t="str">
         <f>IFERROR(Calculations!I108,"")</f>
         <v/>
       </c>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
       <c r="M108" s="18" t="str">
         <f>IFERROR(Calculations!J108,"")</f>
         <v/>
       </c>
-      <c r="N108" s="20" t="str">
+      <c r="N108" s="22" t="str">
         <f>IFERROR(Calculations!K108,"")</f>
         <v/>
       </c>
-      <c r="O108" s="21"/>
-      <c r="P108" s="22"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="24"/>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="17" t="str">
@@ -8167,37 +8167,37 @@
         <f>IFERROR(Calculations!C109,"")</f>
         <v/>
       </c>
-      <c r="D109" s="23" t="str">
+      <c r="D109" s="21" t="str">
         <f>IFERROR(Calculations!F109,"")</f>
         <v/>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
       <c r="G109" s="18" t="str">
         <f>IFERROR(Calculations!G109,"")</f>
         <v/>
       </c>
-      <c r="H109" s="23" t="str">
+      <c r="H109" s="21" t="str">
         <f>IFERROR(Calculations!H109,"")</f>
         <v/>
       </c>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23" t="str">
+      <c r="I109" s="21"/>
+      <c r="J109" s="21" t="str">
         <f>IFERROR(Calculations!I109,"")</f>
         <v/>
       </c>
-      <c r="K109" s="23"/>
-      <c r="L109" s="23"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
       <c r="M109" s="18" t="str">
         <f>IFERROR(Calculations!J109,"")</f>
         <v/>
       </c>
-      <c r="N109" s="20" t="str">
+      <c r="N109" s="22" t="str">
         <f>IFERROR(Calculations!K109,"")</f>
         <v/>
       </c>
-      <c r="O109" s="21"/>
-      <c r="P109" s="22"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="24"/>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="17" t="str">
@@ -8208,37 +8208,37 @@
         <f>IFERROR(Calculations!C110,"")</f>
         <v/>
       </c>
-      <c r="D110" s="23" t="str">
+      <c r="D110" s="21" t="str">
         <f>IFERROR(Calculations!F110,"")</f>
         <v/>
       </c>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
       <c r="G110" s="18" t="str">
         <f>IFERROR(Calculations!G110,"")</f>
         <v/>
       </c>
-      <c r="H110" s="23" t="str">
+      <c r="H110" s="21" t="str">
         <f>IFERROR(Calculations!H110,"")</f>
         <v/>
       </c>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23" t="str">
+      <c r="I110" s="21"/>
+      <c r="J110" s="21" t="str">
         <f>IFERROR(Calculations!I110,"")</f>
         <v/>
       </c>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
       <c r="M110" s="18" t="str">
         <f>IFERROR(Calculations!J110,"")</f>
         <v/>
       </c>
-      <c r="N110" s="20" t="str">
+      <c r="N110" s="22" t="str">
         <f>IFERROR(Calculations!K110,"")</f>
         <v/>
       </c>
-      <c r="O110" s="21"/>
-      <c r="P110" s="22"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="24"/>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="17" t="str">
@@ -8249,37 +8249,37 @@
         <f>IFERROR(Calculations!C111,"")</f>
         <v/>
       </c>
-      <c r="D111" s="23" t="str">
+      <c r="D111" s="21" t="str">
         <f>IFERROR(Calculations!F111,"")</f>
         <v/>
       </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
       <c r="G111" s="18" t="str">
         <f>IFERROR(Calculations!G111,"")</f>
         <v/>
       </c>
-      <c r="H111" s="23" t="str">
+      <c r="H111" s="21" t="str">
         <f>IFERROR(Calculations!H111,"")</f>
         <v/>
       </c>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23" t="str">
+      <c r="I111" s="21"/>
+      <c r="J111" s="21" t="str">
         <f>IFERROR(Calculations!I111,"")</f>
         <v/>
       </c>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
       <c r="M111" s="18" t="str">
         <f>IFERROR(Calculations!J111,"")</f>
         <v/>
       </c>
-      <c r="N111" s="20" t="str">
+      <c r="N111" s="22" t="str">
         <f>IFERROR(Calculations!K111,"")</f>
         <v/>
       </c>
-      <c r="O111" s="21"/>
-      <c r="P111" s="22"/>
+      <c r="O111" s="23"/>
+      <c r="P111" s="24"/>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="17" t="str">
@@ -8290,37 +8290,37 @@
         <f>IFERROR(Calculations!C112,"")</f>
         <v/>
       </c>
-      <c r="D112" s="23" t="str">
+      <c r="D112" s="21" t="str">
         <f>IFERROR(Calculations!F112,"")</f>
         <v/>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
       <c r="G112" s="18" t="str">
         <f>IFERROR(Calculations!G112,"")</f>
         <v/>
       </c>
-      <c r="H112" s="23" t="str">
+      <c r="H112" s="21" t="str">
         <f>IFERROR(Calculations!H112,"")</f>
         <v/>
       </c>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23" t="str">
+      <c r="I112" s="21"/>
+      <c r="J112" s="21" t="str">
         <f>IFERROR(Calculations!I112,"")</f>
         <v/>
       </c>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
       <c r="M112" s="18" t="str">
         <f>IFERROR(Calculations!J112,"")</f>
         <v/>
       </c>
-      <c r="N112" s="20" t="str">
+      <c r="N112" s="22" t="str">
         <f>IFERROR(Calculations!K112,"")</f>
         <v/>
       </c>
-      <c r="O112" s="21"/>
-      <c r="P112" s="22"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="24"/>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="17" t="str">
@@ -8331,37 +8331,37 @@
         <f>IFERROR(Calculations!C113,"")</f>
         <v/>
       </c>
-      <c r="D113" s="23" t="str">
+      <c r="D113" s="21" t="str">
         <f>IFERROR(Calculations!F113,"")</f>
         <v/>
       </c>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
       <c r="G113" s="18" t="str">
         <f>IFERROR(Calculations!G113,"")</f>
         <v/>
       </c>
-      <c r="H113" s="23" t="str">
+      <c r="H113" s="21" t="str">
         <f>IFERROR(Calculations!H113,"")</f>
         <v/>
       </c>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23" t="str">
+      <c r="I113" s="21"/>
+      <c r="J113" s="21" t="str">
         <f>IFERROR(Calculations!I113,"")</f>
         <v/>
       </c>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
       <c r="M113" s="18" t="str">
         <f>IFERROR(Calculations!J113,"")</f>
         <v/>
       </c>
-      <c r="N113" s="20" t="str">
+      <c r="N113" s="22" t="str">
         <f>IFERROR(Calculations!K113,"")</f>
         <v/>
       </c>
-      <c r="O113" s="21"/>
-      <c r="P113" s="22"/>
+      <c r="O113" s="23"/>
+      <c r="P113" s="24"/>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="17" t="str">
@@ -8372,37 +8372,37 @@
         <f>IFERROR(Calculations!C114,"")</f>
         <v/>
       </c>
-      <c r="D114" s="23" t="str">
+      <c r="D114" s="21" t="str">
         <f>IFERROR(Calculations!F114,"")</f>
         <v/>
       </c>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
       <c r="G114" s="18" t="str">
         <f>IFERROR(Calculations!G114,"")</f>
         <v/>
       </c>
-      <c r="H114" s="23" t="str">
+      <c r="H114" s="21" t="str">
         <f>IFERROR(Calculations!H114,"")</f>
         <v/>
       </c>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23" t="str">
+      <c r="I114" s="21"/>
+      <c r="J114" s="21" t="str">
         <f>IFERROR(Calculations!I114,"")</f>
         <v/>
       </c>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
       <c r="M114" s="18" t="str">
         <f>IFERROR(Calculations!J114,"")</f>
         <v/>
       </c>
-      <c r="N114" s="20" t="str">
+      <c r="N114" s="22" t="str">
         <f>IFERROR(Calculations!K114,"")</f>
         <v/>
       </c>
-      <c r="O114" s="21"/>
-      <c r="P114" s="22"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="24"/>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="17" t="str">
@@ -8413,37 +8413,37 @@
         <f>IFERROR(Calculations!C115,"")</f>
         <v/>
       </c>
-      <c r="D115" s="23" t="str">
+      <c r="D115" s="21" t="str">
         <f>IFERROR(Calculations!F115,"")</f>
         <v/>
       </c>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
       <c r="G115" s="18" t="str">
         <f>IFERROR(Calculations!G115,"")</f>
         <v/>
       </c>
-      <c r="H115" s="23" t="str">
+      <c r="H115" s="21" t="str">
         <f>IFERROR(Calculations!H115,"")</f>
         <v/>
       </c>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23" t="str">
+      <c r="I115" s="21"/>
+      <c r="J115" s="21" t="str">
         <f>IFERROR(Calculations!I115,"")</f>
         <v/>
       </c>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
       <c r="M115" s="18" t="str">
         <f>IFERROR(Calculations!J115,"")</f>
         <v/>
       </c>
-      <c r="N115" s="20" t="str">
+      <c r="N115" s="22" t="str">
         <f>IFERROR(Calculations!K115,"")</f>
         <v/>
       </c>
-      <c r="O115" s="21"/>
-      <c r="P115" s="22"/>
+      <c r="O115" s="23"/>
+      <c r="P115" s="24"/>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="17" t="str">
@@ -8454,37 +8454,37 @@
         <f>IFERROR(Calculations!C116,"")</f>
         <v/>
       </c>
-      <c r="D116" s="23" t="str">
+      <c r="D116" s="21" t="str">
         <f>IFERROR(Calculations!F116,"")</f>
         <v/>
       </c>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
       <c r="G116" s="18" t="str">
         <f>IFERROR(Calculations!G116,"")</f>
         <v/>
       </c>
-      <c r="H116" s="23" t="str">
+      <c r="H116" s="21" t="str">
         <f>IFERROR(Calculations!H116,"")</f>
         <v/>
       </c>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23" t="str">
+      <c r="I116" s="21"/>
+      <c r="J116" s="21" t="str">
         <f>IFERROR(Calculations!I116,"")</f>
         <v/>
       </c>
-      <c r="K116" s="23"/>
-      <c r="L116" s="23"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
       <c r="M116" s="18" t="str">
         <f>IFERROR(Calculations!J116,"")</f>
         <v/>
       </c>
-      <c r="N116" s="20" t="str">
+      <c r="N116" s="22" t="str">
         <f>IFERROR(Calculations!K116,"")</f>
         <v/>
       </c>
-      <c r="O116" s="21"/>
-      <c r="P116" s="22"/>
+      <c r="O116" s="23"/>
+      <c r="P116" s="24"/>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="17" t="str">
@@ -8495,37 +8495,37 @@
         <f>IFERROR(Calculations!C117,"")</f>
         <v/>
       </c>
-      <c r="D117" s="23" t="str">
+      <c r="D117" s="21" t="str">
         <f>IFERROR(Calculations!F117,"")</f>
         <v/>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
       <c r="G117" s="18" t="str">
         <f>IFERROR(Calculations!G117,"")</f>
         <v/>
       </c>
-      <c r="H117" s="23" t="str">
+      <c r="H117" s="21" t="str">
         <f>IFERROR(Calculations!H117,"")</f>
         <v/>
       </c>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23" t="str">
+      <c r="I117" s="21"/>
+      <c r="J117" s="21" t="str">
         <f>IFERROR(Calculations!I117,"")</f>
         <v/>
       </c>
-      <c r="K117" s="23"/>
-      <c r="L117" s="23"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
       <c r="M117" s="18" t="str">
         <f>IFERROR(Calculations!J117,"")</f>
         <v/>
       </c>
-      <c r="N117" s="20" t="str">
+      <c r="N117" s="22" t="str">
         <f>IFERROR(Calculations!K117,"")</f>
         <v/>
       </c>
-      <c r="O117" s="21"/>
-      <c r="P117" s="22"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="24"/>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="17" t="str">
@@ -8536,37 +8536,37 @@
         <f>IFERROR(Calculations!C118,"")</f>
         <v/>
       </c>
-      <c r="D118" s="23" t="str">
+      <c r="D118" s="21" t="str">
         <f>IFERROR(Calculations!F118,"")</f>
         <v/>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="18" t="str">
         <f>IFERROR(Calculations!G118,"")</f>
         <v/>
       </c>
-      <c r="H118" s="23" t="str">
+      <c r="H118" s="21" t="str">
         <f>IFERROR(Calculations!H118,"")</f>
         <v/>
       </c>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23" t="str">
+      <c r="I118" s="21"/>
+      <c r="J118" s="21" t="str">
         <f>IFERROR(Calculations!I118,"")</f>
         <v/>
       </c>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
       <c r="M118" s="18" t="str">
         <f>IFERROR(Calculations!J118,"")</f>
         <v/>
       </c>
-      <c r="N118" s="20" t="str">
+      <c r="N118" s="22" t="str">
         <f>IFERROR(Calculations!K118,"")</f>
         <v/>
       </c>
-      <c r="O118" s="21"/>
-      <c r="P118" s="22"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="24"/>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="17" t="str">
@@ -8577,37 +8577,37 @@
         <f>IFERROR(Calculations!C119,"")</f>
         <v/>
       </c>
-      <c r="D119" s="23" t="str">
+      <c r="D119" s="21" t="str">
         <f>IFERROR(Calculations!F119,"")</f>
         <v/>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="18" t="str">
         <f>IFERROR(Calculations!G119,"")</f>
         <v/>
       </c>
-      <c r="H119" s="23" t="str">
+      <c r="H119" s="21" t="str">
         <f>IFERROR(Calculations!H119,"")</f>
         <v/>
       </c>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23" t="str">
+      <c r="I119" s="21"/>
+      <c r="J119" s="21" t="str">
         <f>IFERROR(Calculations!I119,"")</f>
         <v/>
       </c>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
       <c r="M119" s="18" t="str">
         <f>IFERROR(Calculations!J119,"")</f>
         <v/>
       </c>
-      <c r="N119" s="20" t="str">
+      <c r="N119" s="22" t="str">
         <f>IFERROR(Calculations!K119,"")</f>
         <v/>
       </c>
-      <c r="O119" s="21"/>
-      <c r="P119" s="22"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="24"/>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="17" t="str">
@@ -8618,37 +8618,37 @@
         <f>IFERROR(Calculations!C120,"")</f>
         <v/>
       </c>
-      <c r="D120" s="23" t="str">
+      <c r="D120" s="21" t="str">
         <f>IFERROR(Calculations!F120,"")</f>
         <v/>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
       <c r="G120" s="18" t="str">
         <f>IFERROR(Calculations!G120,"")</f>
         <v/>
       </c>
-      <c r="H120" s="23" t="str">
+      <c r="H120" s="21" t="str">
         <f>IFERROR(Calculations!H120,"")</f>
         <v/>
       </c>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23" t="str">
+      <c r="I120" s="21"/>
+      <c r="J120" s="21" t="str">
         <f>IFERROR(Calculations!I120,"")</f>
         <v/>
       </c>
-      <c r="K120" s="23"/>
-      <c r="L120" s="23"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
       <c r="M120" s="18" t="str">
         <f>IFERROR(Calculations!J120,"")</f>
         <v/>
       </c>
-      <c r="N120" s="20" t="str">
+      <c r="N120" s="22" t="str">
         <f>IFERROR(Calculations!K120,"")</f>
         <v/>
       </c>
-      <c r="O120" s="21"/>
-      <c r="P120" s="22"/>
+      <c r="O120" s="23"/>
+      <c r="P120" s="24"/>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="17" t="str">
@@ -8659,37 +8659,37 @@
         <f>IFERROR(Calculations!C121,"")</f>
         <v/>
       </c>
-      <c r="D121" s="23" t="str">
+      <c r="D121" s="21" t="str">
         <f>IFERROR(Calculations!F121,"")</f>
         <v/>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
       <c r="G121" s="18" t="str">
         <f>IFERROR(Calculations!G121,"")</f>
         <v/>
       </c>
-      <c r="H121" s="23" t="str">
+      <c r="H121" s="21" t="str">
         <f>IFERROR(Calculations!H121,"")</f>
         <v/>
       </c>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23" t="str">
+      <c r="I121" s="21"/>
+      <c r="J121" s="21" t="str">
         <f>IFERROR(Calculations!I121,"")</f>
         <v/>
       </c>
-      <c r="K121" s="23"/>
-      <c r="L121" s="23"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
       <c r="M121" s="18" t="str">
         <f>IFERROR(Calculations!J121,"")</f>
         <v/>
       </c>
-      <c r="N121" s="20" t="str">
+      <c r="N121" s="22" t="str">
         <f>IFERROR(Calculations!K121,"")</f>
         <v/>
       </c>
-      <c r="O121" s="21"/>
-      <c r="P121" s="22"/>
+      <c r="O121" s="23"/>
+      <c r="P121" s="24"/>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="17" t="str">
@@ -8700,37 +8700,37 @@
         <f>IFERROR(Calculations!C122,"")</f>
         <v/>
       </c>
-      <c r="D122" s="23" t="str">
+      <c r="D122" s="21" t="str">
         <f>IFERROR(Calculations!F122,"")</f>
         <v/>
       </c>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
       <c r="G122" s="18" t="str">
         <f>IFERROR(Calculations!G122,"")</f>
         <v/>
       </c>
-      <c r="H122" s="23" t="str">
+      <c r="H122" s="21" t="str">
         <f>IFERROR(Calculations!H122,"")</f>
         <v/>
       </c>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23" t="str">
+      <c r="I122" s="21"/>
+      <c r="J122" s="21" t="str">
         <f>IFERROR(Calculations!I122,"")</f>
         <v/>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
       <c r="M122" s="18" t="str">
         <f>IFERROR(Calculations!J122,"")</f>
         <v/>
       </c>
-      <c r="N122" s="20" t="str">
+      <c r="N122" s="22" t="str">
         <f>IFERROR(Calculations!K122,"")</f>
         <v/>
       </c>
-      <c r="O122" s="21"/>
-      <c r="P122" s="22"/>
+      <c r="O122" s="23"/>
+      <c r="P122" s="24"/>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="17" t="str">
@@ -8741,37 +8741,37 @@
         <f>IFERROR(Calculations!C123,"")</f>
         <v/>
       </c>
-      <c r="D123" s="23" t="str">
+      <c r="D123" s="21" t="str">
         <f>IFERROR(Calculations!F123,"")</f>
         <v/>
       </c>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
       <c r="G123" s="18" t="str">
         <f>IFERROR(Calculations!G123,"")</f>
         <v/>
       </c>
-      <c r="H123" s="23" t="str">
+      <c r="H123" s="21" t="str">
         <f>IFERROR(Calculations!H123,"")</f>
         <v/>
       </c>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23" t="str">
+      <c r="I123" s="21"/>
+      <c r="J123" s="21" t="str">
         <f>IFERROR(Calculations!I123,"")</f>
         <v/>
       </c>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
       <c r="M123" s="18" t="str">
         <f>IFERROR(Calculations!J123,"")</f>
         <v/>
       </c>
-      <c r="N123" s="20" t="str">
+      <c r="N123" s="22" t="str">
         <f>IFERROR(Calculations!K123,"")</f>
         <v/>
       </c>
-      <c r="O123" s="21"/>
-      <c r="P123" s="22"/>
+      <c r="O123" s="23"/>
+      <c r="P123" s="24"/>
     </row>
     <row r="124" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="17" t="str">
@@ -8782,37 +8782,37 @@
         <f>IFERROR(Calculations!C124,"")</f>
         <v/>
       </c>
-      <c r="D124" s="23" t="str">
+      <c r="D124" s="21" t="str">
         <f>IFERROR(Calculations!F124,"")</f>
         <v/>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="18" t="str">
         <f>IFERROR(Calculations!G124,"")</f>
         <v/>
       </c>
-      <c r="H124" s="23" t="str">
+      <c r="H124" s="21" t="str">
         <f>IFERROR(Calculations!H124,"")</f>
         <v/>
       </c>
-      <c r="I124" s="23"/>
-      <c r="J124" s="23" t="str">
+      <c r="I124" s="21"/>
+      <c r="J124" s="21" t="str">
         <f>IFERROR(Calculations!I124,"")</f>
         <v/>
       </c>
-      <c r="K124" s="23"/>
-      <c r="L124" s="23"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
       <c r="M124" s="18" t="str">
         <f>IFERROR(Calculations!J124,"")</f>
         <v/>
       </c>
-      <c r="N124" s="20" t="str">
+      <c r="N124" s="22" t="str">
         <f>IFERROR(Calculations!K124,"")</f>
         <v/>
       </c>
-      <c r="O124" s="21"/>
-      <c r="P124" s="22"/>
+      <c r="O124" s="23"/>
+      <c r="P124" s="24"/>
     </row>
     <row r="125" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="17" t="str">
@@ -8823,37 +8823,37 @@
         <f>IFERROR(Calculations!C125,"")</f>
         <v/>
       </c>
-      <c r="D125" s="23" t="str">
+      <c r="D125" s="21" t="str">
         <f>IFERROR(Calculations!F125,"")</f>
         <v/>
       </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
       <c r="G125" s="18" t="str">
         <f>IFERROR(Calculations!G125,"")</f>
         <v/>
       </c>
-      <c r="H125" s="23" t="str">
+      <c r="H125" s="21" t="str">
         <f>IFERROR(Calculations!H125,"")</f>
         <v/>
       </c>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23" t="str">
+      <c r="I125" s="21"/>
+      <c r="J125" s="21" t="str">
         <f>IFERROR(Calculations!I125,"")</f>
         <v/>
       </c>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
       <c r="M125" s="18" t="str">
         <f>IFERROR(Calculations!J125,"")</f>
         <v/>
       </c>
-      <c r="N125" s="20" t="str">
+      <c r="N125" s="22" t="str">
         <f>IFERROR(Calculations!K125,"")</f>
         <v/>
       </c>
-      <c r="O125" s="21"/>
-      <c r="P125" s="22"/>
+      <c r="O125" s="23"/>
+      <c r="P125" s="24"/>
     </row>
     <row r="126" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="17" t="str">
@@ -8864,37 +8864,37 @@
         <f>IFERROR(Calculations!C126,"")</f>
         <v/>
       </c>
-      <c r="D126" s="23" t="str">
+      <c r="D126" s="21" t="str">
         <f>IFERROR(Calculations!F126,"")</f>
         <v/>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
       <c r="G126" s="18" t="str">
         <f>IFERROR(Calculations!G126,"")</f>
         <v/>
       </c>
-      <c r="H126" s="23" t="str">
+      <c r="H126" s="21" t="str">
         <f>IFERROR(Calculations!H126,"")</f>
         <v/>
       </c>
-      <c r="I126" s="23"/>
-      <c r="J126" s="23" t="str">
+      <c r="I126" s="21"/>
+      <c r="J126" s="21" t="str">
         <f>IFERROR(Calculations!I126,"")</f>
         <v/>
       </c>
-      <c r="K126" s="23"/>
-      <c r="L126" s="23"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
       <c r="M126" s="18" t="str">
         <f>IFERROR(Calculations!J126,"")</f>
         <v/>
       </c>
-      <c r="N126" s="20" t="str">
+      <c r="N126" s="22" t="str">
         <f>IFERROR(Calculations!K126,"")</f>
         <v/>
       </c>
-      <c r="O126" s="21"/>
-      <c r="P126" s="22"/>
+      <c r="O126" s="23"/>
+      <c r="P126" s="24"/>
     </row>
     <row r="127" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="str">
@@ -8905,37 +8905,37 @@
         <f>IFERROR(Calculations!C127,"")</f>
         <v/>
       </c>
-      <c r="D127" s="23" t="str">
+      <c r="D127" s="21" t="str">
         <f>IFERROR(Calculations!F127,"")</f>
         <v/>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
       <c r="G127" s="18" t="str">
         <f>IFERROR(Calculations!G127,"")</f>
         <v/>
       </c>
-      <c r="H127" s="23" t="str">
+      <c r="H127" s="21" t="str">
         <f>IFERROR(Calculations!H127,"")</f>
         <v/>
       </c>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23" t="str">
+      <c r="I127" s="21"/>
+      <c r="J127" s="21" t="str">
         <f>IFERROR(Calculations!I127,"")</f>
         <v/>
       </c>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
       <c r="M127" s="18" t="str">
         <f>IFERROR(Calculations!J127,"")</f>
         <v/>
       </c>
-      <c r="N127" s="20" t="str">
+      <c r="N127" s="22" t="str">
         <f>IFERROR(Calculations!K127,"")</f>
         <v/>
       </c>
-      <c r="O127" s="21"/>
-      <c r="P127" s="22"/>
+      <c r="O127" s="23"/>
+      <c r="P127" s="24"/>
     </row>
     <row r="128" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="17" t="str">
@@ -8946,37 +8946,37 @@
         <f>IFERROR(Calculations!C128,"")</f>
         <v/>
       </c>
-      <c r="D128" s="23" t="str">
+      <c r="D128" s="21" t="str">
         <f>IFERROR(Calculations!F128,"")</f>
         <v/>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
       <c r="G128" s="18" t="str">
         <f>IFERROR(Calculations!G128,"")</f>
         <v/>
       </c>
-      <c r="H128" s="23" t="str">
+      <c r="H128" s="21" t="str">
         <f>IFERROR(Calculations!H128,"")</f>
         <v/>
       </c>
-      <c r="I128" s="23"/>
-      <c r="J128" s="23" t="str">
+      <c r="I128" s="21"/>
+      <c r="J128" s="21" t="str">
         <f>IFERROR(Calculations!I128,"")</f>
         <v/>
       </c>
-      <c r="K128" s="23"/>
-      <c r="L128" s="23"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
       <c r="M128" s="18" t="str">
         <f>IFERROR(Calculations!J128,"")</f>
         <v/>
       </c>
-      <c r="N128" s="20" t="str">
+      <c r="N128" s="22" t="str">
         <f>IFERROR(Calculations!K128,"")</f>
         <v/>
       </c>
-      <c r="O128" s="21"/>
-      <c r="P128" s="22"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="24"/>
     </row>
     <row r="129" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="17" t="str">
@@ -8987,37 +8987,37 @@
         <f>IFERROR(Calculations!C129,"")</f>
         <v/>
       </c>
-      <c r="D129" s="23" t="str">
+      <c r="D129" s="21" t="str">
         <f>IFERROR(Calculations!F129,"")</f>
         <v/>
       </c>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
       <c r="G129" s="18" t="str">
         <f>IFERROR(Calculations!G129,"")</f>
         <v/>
       </c>
-      <c r="H129" s="23" t="str">
+      <c r="H129" s="21" t="str">
         <f>IFERROR(Calculations!H129,"")</f>
         <v/>
       </c>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23" t="str">
+      <c r="I129" s="21"/>
+      <c r="J129" s="21" t="str">
         <f>IFERROR(Calculations!I129,"")</f>
         <v/>
       </c>
-      <c r="K129" s="23"/>
-      <c r="L129" s="23"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
       <c r="M129" s="18" t="str">
         <f>IFERROR(Calculations!J129,"")</f>
         <v/>
       </c>
-      <c r="N129" s="20" t="str">
+      <c r="N129" s="22" t="str">
         <f>IFERROR(Calculations!K129,"")</f>
         <v/>
       </c>
-      <c r="O129" s="21"/>
-      <c r="P129" s="22"/>
+      <c r="O129" s="23"/>
+      <c r="P129" s="24"/>
     </row>
     <row r="130" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="17" t="str">
@@ -9028,37 +9028,37 @@
         <f>IFERROR(Calculations!C130,"")</f>
         <v/>
       </c>
-      <c r="D130" s="23" t="str">
+      <c r="D130" s="21" t="str">
         <f>IFERROR(Calculations!F130,"")</f>
         <v/>
       </c>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="18" t="str">
         <f>IFERROR(Calculations!G130,"")</f>
         <v/>
       </c>
-      <c r="H130" s="23" t="str">
+      <c r="H130" s="21" t="str">
         <f>IFERROR(Calculations!H130,"")</f>
         <v/>
       </c>
-      <c r="I130" s="23"/>
-      <c r="J130" s="23" t="str">
+      <c r="I130" s="21"/>
+      <c r="J130" s="21" t="str">
         <f>IFERROR(Calculations!I130,"")</f>
         <v/>
       </c>
-      <c r="K130" s="23"/>
-      <c r="L130" s="23"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
       <c r="M130" s="18" t="str">
         <f>IFERROR(Calculations!J130,"")</f>
         <v/>
       </c>
-      <c r="N130" s="20" t="str">
+      <c r="N130" s="22" t="str">
         <f>IFERROR(Calculations!K130,"")</f>
         <v/>
       </c>
-      <c r="O130" s="21"/>
-      <c r="P130" s="22"/>
+      <c r="O130" s="23"/>
+      <c r="P130" s="24"/>
     </row>
     <row r="131" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="17" t="str">
@@ -9069,37 +9069,37 @@
         <f>IFERROR(Calculations!C131,"")</f>
         <v/>
       </c>
-      <c r="D131" s="23" t="str">
+      <c r="D131" s="21" t="str">
         <f>IFERROR(Calculations!F131,"")</f>
         <v/>
       </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
       <c r="G131" s="18" t="str">
         <f>IFERROR(Calculations!G131,"")</f>
         <v/>
       </c>
-      <c r="H131" s="23" t="str">
+      <c r="H131" s="21" t="str">
         <f>IFERROR(Calculations!H131,"")</f>
         <v/>
       </c>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23" t="str">
+      <c r="I131" s="21"/>
+      <c r="J131" s="21" t="str">
         <f>IFERROR(Calculations!I131,"")</f>
         <v/>
       </c>
-      <c r="K131" s="23"/>
-      <c r="L131" s="23"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
       <c r="M131" s="18" t="str">
         <f>IFERROR(Calculations!J131,"")</f>
         <v/>
       </c>
-      <c r="N131" s="20" t="str">
+      <c r="N131" s="22" t="str">
         <f>IFERROR(Calculations!K131,"")</f>
         <v/>
       </c>
-      <c r="O131" s="21"/>
-      <c r="P131" s="22"/>
+      <c r="O131" s="23"/>
+      <c r="P131" s="24"/>
     </row>
     <row r="132" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="17" t="str">
@@ -9110,37 +9110,37 @@
         <f>IFERROR(Calculations!C132,"")</f>
         <v/>
       </c>
-      <c r="D132" s="23" t="str">
+      <c r="D132" s="21" t="str">
         <f>IFERROR(Calculations!F132,"")</f>
         <v/>
       </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
       <c r="G132" s="18" t="str">
         <f>IFERROR(Calculations!G132,"")</f>
         <v/>
       </c>
-      <c r="H132" s="23" t="str">
+      <c r="H132" s="21" t="str">
         <f>IFERROR(Calculations!H132,"")</f>
         <v/>
       </c>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23" t="str">
+      <c r="I132" s="21"/>
+      <c r="J132" s="21" t="str">
         <f>IFERROR(Calculations!I132,"")</f>
         <v/>
       </c>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="21"/>
       <c r="M132" s="18" t="str">
         <f>IFERROR(Calculations!J132,"")</f>
         <v/>
       </c>
-      <c r="N132" s="20" t="str">
+      <c r="N132" s="22" t="str">
         <f>IFERROR(Calculations!K132,"")</f>
         <v/>
       </c>
-      <c r="O132" s="21"/>
-      <c r="P132" s="22"/>
+      <c r="O132" s="23"/>
+      <c r="P132" s="24"/>
     </row>
     <row r="133" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="17" t="str">
@@ -9151,37 +9151,37 @@
         <f>IFERROR(Calculations!C133,"")</f>
         <v/>
       </c>
-      <c r="D133" s="23" t="str">
+      <c r="D133" s="21" t="str">
         <f>IFERROR(Calculations!F133,"")</f>
         <v/>
       </c>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
       <c r="G133" s="18" t="str">
         <f>IFERROR(Calculations!G133,"")</f>
         <v/>
       </c>
-      <c r="H133" s="23" t="str">
+      <c r="H133" s="21" t="str">
         <f>IFERROR(Calculations!H133,"")</f>
         <v/>
       </c>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23" t="str">
+      <c r="I133" s="21"/>
+      <c r="J133" s="21" t="str">
         <f>IFERROR(Calculations!I133,"")</f>
         <v/>
       </c>
-      <c r="K133" s="23"/>
-      <c r="L133" s="23"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
       <c r="M133" s="18" t="str">
         <f>IFERROR(Calculations!J133,"")</f>
         <v/>
       </c>
-      <c r="N133" s="20" t="str">
+      <c r="N133" s="22" t="str">
         <f>IFERROR(Calculations!K133,"")</f>
         <v/>
       </c>
-      <c r="O133" s="21"/>
-      <c r="P133" s="22"/>
+      <c r="O133" s="23"/>
+      <c r="P133" s="24"/>
     </row>
     <row r="134" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="17" t="str">
@@ -9192,37 +9192,37 @@
         <f>IFERROR(Calculations!C134,"")</f>
         <v/>
       </c>
-      <c r="D134" s="23" t="str">
+      <c r="D134" s="21" t="str">
         <f>IFERROR(Calculations!F134,"")</f>
         <v/>
       </c>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
       <c r="G134" s="18" t="str">
         <f>IFERROR(Calculations!G134,"")</f>
         <v/>
       </c>
-      <c r="H134" s="23" t="str">
+      <c r="H134" s="21" t="str">
         <f>IFERROR(Calculations!H134,"")</f>
         <v/>
       </c>
-      <c r="I134" s="23"/>
-      <c r="J134" s="23" t="str">
+      <c r="I134" s="21"/>
+      <c r="J134" s="21" t="str">
         <f>IFERROR(Calculations!I134,"")</f>
         <v/>
       </c>
-      <c r="K134" s="23"/>
-      <c r="L134" s="23"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
       <c r="M134" s="18" t="str">
         <f>IFERROR(Calculations!J134,"")</f>
         <v/>
       </c>
-      <c r="N134" s="20" t="str">
+      <c r="N134" s="22" t="str">
         <f>IFERROR(Calculations!K134,"")</f>
         <v/>
       </c>
-      <c r="O134" s="21"/>
-      <c r="P134" s="22"/>
+      <c r="O134" s="23"/>
+      <c r="P134" s="24"/>
     </row>
     <row r="135" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="17" t="str">
@@ -9233,134 +9233,322 @@
         <f>IFERROR(Calculations!C135,"")</f>
         <v/>
       </c>
-      <c r="D135" s="23" t="str">
+      <c r="D135" s="21" t="str">
         <f>IFERROR(Calculations!F135,"")</f>
         <v/>
       </c>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
       <c r="G135" s="18" t="str">
         <f>IFERROR(Calculations!G135,"")</f>
         <v/>
       </c>
-      <c r="H135" s="23" t="str">
+      <c r="H135" s="21" t="str">
         <f>IFERROR(Calculations!H135,"")</f>
         <v/>
       </c>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23" t="str">
+      <c r="I135" s="21"/>
+      <c r="J135" s="21" t="str">
         <f>IFERROR(Calculations!I135,"")</f>
         <v/>
       </c>
-      <c r="K135" s="23"/>
-      <c r="L135" s="23"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
       <c r="M135" s="18" t="str">
         <f>IFERROR(Calculations!J135,"")</f>
         <v/>
       </c>
-      <c r="N135" s="20" t="str">
+      <c r="N135" s="22" t="str">
         <f>IFERROR(Calculations!K135,"")</f>
         <v/>
       </c>
-      <c r="O135" s="21"/>
-      <c r="P135" s="22"/>
+      <c r="O135" s="23"/>
+      <c r="P135" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="400">
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="N133:P133"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="N135:P135"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="N131:P131"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="N121:P121"/>
+    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="N124:P124"/>
+    <mergeCell ref="N125:P125"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="N119:P119"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="N105:P105"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="J129:L129"/>
+    <mergeCell ref="J130:L130"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="J124:L124"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="J127:L127"/>
+    <mergeCell ref="J128:L128"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="J120:L120"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="D135:F135"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
@@ -9385,288 +9573,100 @@
     <mergeCell ref="D128:F128"/>
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="D118:F118"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="J125:L125"/>
-    <mergeCell ref="J126:L126"/>
-    <mergeCell ref="J127:L127"/>
-    <mergeCell ref="J128:L128"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="J118:L118"/>
-    <mergeCell ref="J119:L119"/>
-    <mergeCell ref="J120:L120"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="J129:L129"/>
-    <mergeCell ref="J130:L130"/>
-    <mergeCell ref="J131:L131"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="J124:L124"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="N121:P121"/>
-    <mergeCell ref="N122:P122"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="N124:P124"/>
-    <mergeCell ref="N125:P125"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="N119:P119"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="N133:P133"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="N135:P135"/>
-    <mergeCell ref="N126:P126"/>
-    <mergeCell ref="N127:P127"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="N130:P130"/>
-    <mergeCell ref="N131:P131"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <conditionalFormatting sqref="C36:C135">
     <cfRule type="expression" dxfId="7" priority="2">
